--- a/news_data/2019_05.xlsx
+++ b/news_data/2019_05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="110">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,6 +22,147 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>“제주도는 휠링 관광 선도지” 제주포럼 JDC 세미나</t>
+  </si>
+  <si>
+    <t>제주도·관광공사, "나고야 여행객 유치 확대 총력"</t>
+  </si>
+  <si>
+    <t>본사 제주도 이전…롯데관광개발 취업 창구 ‘성황’</t>
+  </si>
+  <si>
+    <t>제주도 관광약자 접근성안내센터, 웰컴센터 1층으로 이전</t>
+  </si>
+  <si>
+    <t>제주도 선녀탕, 자연이 빚은 천연 수영장... 새로운 관광 명소 '우뚝'</t>
+  </si>
+  <si>
+    <t>효리의단골집 '이조은식당' 제주도 중문 관광단지 맛집 갈치조림으로 화제</t>
+  </si>
+  <si>
+    <t>제주도·협회, 제24회 제주국제관광마라톤축제 개최</t>
+  </si>
+  <si>
+    <t>관광객이 직접 만든 자신만의 제주도 관광기념품은?</t>
+  </si>
+  <si>
+    <t>영천시, 제주도에 관광홍보 거점 마련</t>
+  </si>
+  <si>
+    <t>이색 공간! 5월 제주도 가볼 만한 곳 '브릭캠퍼스', 다양한 체험 함께해 관광...</t>
+  </si>
+  <si>
+    <t>제주도·관광공사, 북미 여행객 유치 확대 총력</t>
+  </si>
+  <si>
+    <t>제주도, 도내 32개 공영관광지 운영평가 돌입</t>
+  </si>
+  <si>
+    <t>제주도-경희대, 관광분야 빅데이터 플랫폼 구축 추진</t>
+  </si>
+  <si>
+    <t>효리의단골집 제주도 중문 관광단지 맛집 ‘이조은식당’ 대표메뉴 갈치정식</t>
+  </si>
+  <si>
+    <t>제주도·관광공사, 일본 대상 제주 한의약 마케팅 본격화</t>
+  </si>
+  <si>
+    <t>제주도, '송당 농어촌관광 휴양단지' 사업 추진</t>
+  </si>
+  <si>
+    <t>[MHN 제주] 제주도를 알릴 관광상품, 직접 기획해 보세요!</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 관광사업체 컨설팅 지원…17일까지 접수</t>
+  </si>
+  <si>
+    <t>"제주도를 알릴 대표 관광기념품을 찾습니다"</t>
+  </si>
+  <si>
+    <t>제주도 한림읍 관광테마파크에 영천은하수길 등 홍보거점 마련</t>
+  </si>
+  <si>
+    <t>제주도·관광협회, 어린이 관광 아카데미 발대식 개최</t>
+  </si>
+  <si>
+    <t>국내 최대 관광지 제주도…용머리 관광지에 들어선 ‘플레이사계’ 상가 분양</t>
+  </si>
+  <si>
+    <t>제주도, 관광시장 다변화 적극 모색...지역 팸 투어 진행</t>
+  </si>
+  <si>
+    <t>제주도, 17억원 투입 관광약자 위한 편의시설 확충</t>
+  </si>
+  <si>
+    <t>제주도관광협회, '어린이 관광 아카데미' 발대식</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문 가볼만한 곳 관광단지 맛집 ‘기원뚝배기’ 약초숙성 해물...</t>
+  </si>
+  <si>
+    <t>[제주특별자치도](종합) 제주도와 경희대, 스마트관광 위해 힘 모은다</t>
+  </si>
+  <si>
+    <t>제주도, 중국 화장품기업 인센티브 관광객 1500명 유치</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문 가볼만한 곳과 관광단지 맛집 '기원뚝배기' 해물갈치조림...</t>
+  </si>
+  <si>
+    <t>제주도 내 공영 관광지 운영 실태 조사 착수</t>
+  </si>
+  <si>
+    <t>효리의단골집 꼭 가야할 제주도 중문 관광단지 맛집 ‘이조은식당’</t>
+  </si>
+  <si>
+    <t>제주도, 크루즈 관광 체험단에 도민 44명 초대</t>
+  </si>
+  <si>
+    <t>제주도·관광공사, 올해 전세기 인센티브 기준 강화</t>
+  </si>
+  <si>
+    <t>제주도, 2019년 상반기 '우수 관광사업체' 공모</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 4월 Best 관광인 장문호 주임</t>
+  </si>
+  <si>
+    <t>제주도관광협회·(주)지일·(주)엠엠피 업무협약 체결</t>
+  </si>
+  <si>
+    <t>성수기 맞은 제주도, 원희룡 도지사의 제주관광 특별 주문은?</t>
+  </si>
+  <si>
+    <t>제주도 여행, 자연 만끽할 수 있는 동부 관광지 4곳</t>
+  </si>
+  <si>
+    <t>국내 대표관광지 '제주도', 복음 청정지역 변화 기대</t>
+  </si>
+  <si>
+    <t>외국인 관광객에 매력 발산 못하는 제주도</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문 관광단지 가볼만한 곳, 기원뚝배기 아침식사 맛집 픽업서...</t>
+  </si>
+  <si>
+    <t>가파도, 제주도서 배로 10분… 하루 관광객 2000명 방문 이유는</t>
+  </si>
+  <si>
+    <t>[뉴스체크-제주] 제주도, 유네스코 세계지질공원 재인증…도내 관광기념품 공...</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 가정의 달 사랑의 빵 나눔 봉사활동</t>
+  </si>
+  <si>
+    <t>제주도, 중국 인센티브 관광객 몰려온다</t>
+  </si>
+  <si>
+    <t>제주도 용머리해안으로 관광객 몰려…인근 테마상가 '플레이사계' 분양마감 임...</t>
+  </si>
+  <si>
+    <t>효리의단골집 제주도 중문 관광단지 맛집 ‘이조은식당’ 계속 땡기는 갈치조...</t>
+  </si>
+  <si>
     <t>주먹구구식 관광정책 탈피, 제주도 '빅데이터' 활용한다</t>
   </si>
   <si>
@@ -52,28 +193,157 @@
     <t>(제주특별자치도) 제주도와 경희대, 스마트관광 위해 힘 모은다</t>
   </si>
   <si>
-    <t>주먹구구식 관광정책 탈피, 제주도 '빅데이터' 활용한다 &lt; 관광일반 &lt; 관광 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-04 10:21 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주형 구직청년 재난지원금 8365명 지급...19~29세 60% 제주대-창원대-목포해양대 ‘지역연계 상호발전’ 맞손 ‘인민의 정의’의 혼란: 다중 해석 횡단보도 건너던 중학생 택시 치여 보름만 숨져…60대 기사 입건 [날씨] 제주 강한 비 ‘시간당 20mm’ 내외…기온 큰 폭으로 뚝↓ 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 주먹구구식 관광정책 탈피, 제주도 '빅데이터' 활용한다 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 관광 관광일반 주먹구구식 관광정책 탈피, 제주도 '빅데이터' 활용한다 기자명 이승록 기자					(leerevol@naver.com) 입력 2019.04.30 17:24 댓글 1 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 제주관광진흥 전략회의를 주재하는 원희룡 제주지사제주 관광정책 연계를 위한 빅데이터가 활용된다.제주도는 30일 오후 2시 제주도청 한라홀 4층에서 ‘제주관광진흥 전략회의’를 개최하고 빅데이터를 활용한 관광 정책 연계방안을 논의했다.이는 통계 조사 및 빅데이터를 통해 관광 사업의 현실태를 진단하고 정책 활용도를 높일 수 있는 방안을 모색하기 위해 마련됐다.회의에는 관광분야 실국단장, 행정시 부시장을 비롯해 제주관광협회, 제주관광공사, ICC 제주 등 유관기관 등이 함께 참석했다.회의에서는 제주방문 관광객 실태조사 결과, 신용카드 매출액 분석, 관광동향 및 빅데이터 기반 행정 추진 현황 및 활용 방안 등이 공유됐다.원희룡 지사는 “불필요한 논란과 갈등을 줄일 수 있는 것은 바로 데이터”라면서 “기술적‧법적 허용 범위 안에서 늘 최신으로 반영하고, 예산을 지원해 인프라를 구축해야 한다”고 강조했다.또한 “한번 구축하고 끝내는 것이 아니라 늘 최신의 상태를 유지할 수 있는 집중적인 투자와 함께 공유 및 개방할 수 있는 시스템을 유지할 수 있도록 역점을 두어야 한다”고 밝혔다.원 지사는 특히 데이터 공유와 관련해 “정보로서 가치가 있는 것은 공유하고 공개할 수 있는 방안을 만들어야 한다”며 기관과의 협력과 도민들의 활용 방안에 대해서도 제안했다.원 지사는 “카드 매출 실적 등 제주 관광 현황과 연결된 데이터가 많이 나오고 있기 때문에 이를 토대로 대응전략을 세우는 것은 시대적으로 매우 중요하고 관광 문제를 해결하기 위한 좋은 요인이 될 것”이라 전망했다.이어“도민들이 새롭게 돈이 되고, 수요가 있는 것을 보면서 어떻게 제주 경제가 가고 있는지 활용 방안을 구상할 수 있어야 한다”며 “이를테면 제주관광 데이터 리포트나 분석 정책 제안, 업종별 고객 데이터 등을 통해 새롭게 뜨고 있는 곳을 알수있고 업종 변경이나 고객 관리 전략을 세울 수 있도록 해야 한다”고 당부했다.또한 “만약 외국관광객들이 교통이나 언어소통에 대한 불편함이 존재한다고 분석 결과가 나오면 그저 데이터 자체로 끝나는 것이 아니라 해당 부서와 이를 개선하기 위한 우선과제로 현실에 반영해야 한다”며 “정책에 반영부분에 대해 관련 부서와 유관기관이 집중적인 논의로 가지고 즉시 반영하고, 현실과 이어질 수 있도록 후속작업을 해 달라”고 요청했다.한편 제주도는 빅데이터 정책 추진 상황과 데이터 기반 정보를 공유하고, 실무부서에서 필요로 하는 과제를 발굴하기 위한 ‘빅데이터 실무협의회’를 지난해 연 2회에서 분기별로 개최하며 데이터 관점의 컨설팅제를 운영하고 있다. 이승록 기자 leerevol@naver.com 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 제주 한라산 백록담서 60대 관광객, 탈진으로 헬기 이송 2 “윤석열 정부 공공기관 혁신 계획...JDC 정원 28명 감축” 3 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 4 제주 구좌읍 평대리 단독주택서 화재…인명피해 없어 5 제주 서예가 현병찬, 문체부 선정 제41회 세종문화상 수상 6 12월 제주서 일회용컵 보증금제 개시...단독 매장 11곳은 어떻게? 7 개천절 제주, 30도 넘는 깜짝 더위...5일부터는 찬바람 8 물가는 천정부지..제주 초등돌봄 급식비는 5년 째 5000원? 9 동료 해녀 구한 의용소방대원, 전국 소방대회서 제주 위상 드높여 10 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 1 미덥지 못한 ‘관광청 제주 설치’ 尹정부 공약, 용두사미 되나? 2 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 3 “윤석열 정부 공공기관 혁신 계획...JDC 정원 28명 감축” 4 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 5 동료 해녀 구한 의용소방대원, 전국 소방대회서 제주 위상 드높여 6 제주 한라산 백록담서 60대 관광객, 탈진으로 헬기 이송 7 제주 서예가 현병찬, 문체부 선정 제41회 세종문화상 수상 8 물가는 천정부지..제주 초등돌봄 급식비는 5년 째 5000원? 9 12월 제주서 일회용컵 보증금제 개시...단독 매장 11곳은 어떻게? 10 돌아온 일상, 한층 더 책과 친숙해진 ‘2022 제주독서대전’ 1 니들 역사 잘모르자나 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ그냥 노는 날이 다 정도로 안는 거같음 ㅋㅋㅋㅋ 곰이 사람되고 그런 거야 ㅋㅋㅋ 겨레가 뭐냐? 카자흐스탄좀 갔다와 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ겨레의 뜻도 모르는 것들이 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ고조선이 뭐냐 조선 조선의 뜻이 뭐냐 ㅋㅋㅋㅋㅋㅋ주스야 ㅋㅋㅋ 달 태양 금성 왜 조선이라고 하는줄을 모른 ㅋㅋ그냥 개천절은 노는날 정도임 마늘 처먹은 곰탱이 이러구 알고 있음 ㅋㅋㅋㅋ 조선의 뜻을 알아야 되는거 임 우리의 뿌리 을 알아야되는것임 그런 놈들이 43을 안다고 하냐 ㅋㅋㅋ 우리가 케레이 다 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 2 왜 이걸 제주도만 시범으로 빠따 맞아야 하나? 만만한 제주도라서 그런가? 시범시범시범 3 제주도의원들은 할일이 없겠음 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ제주자치도인지 서울자치도인지 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 4 아래 댓처럼 일 못하는 고문관들이 회사와 사회발전의 암이다 이런새끼들의 특징 1. 기본 계산도 못한다 2. 좆도 모르는 일에 나대면서 아는척은 존나게 한다 3. 그런 주제에 양심도 도덕도 없어서 여러사람 눈 찌푸리게 하는걸 지만 모른다 5 급식비가 얼마냐 가 아니라 급식 수준이 봐야 되는거지 ㅋㅋㅋㅋㅋㅋ 급식은 처먹으면서 애들 급식수준이 떨어지면 조사해 보던가 하지 무조건 돈돈하는 건니들 같어 ㅋㅋㅋ 물가가 오르던 말던 급식이 애들 불만 없이 잘되면 그만이지 기준없이 잘만 하는 지역도 많쿠만 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ이런 미친 돈 또라이들 6 썬오브 비치 7 당시 기준에서 재판해야한다. 남로당에 부역한 전원에 대해 엄중한 책임을 부과하고 잘못을 인식시켜야 한다. 용서는 사실인정과 반성이 있어야 가능하다. 당시 재판이 가장 사실에 부합하다. 8 1948년 한림동국민학교에서 조선민주애국청년동맹대회 때 사회를 보아 명예의장으로 남조선노동당 박헌영을 추대함과 동시에 남조선노동당 박헌영 체포령 취소 요구 진정서를 미군정청사령관 하지 중장에 보내는 데 앞장을 선 사람을 무죄를 오늘 선고한다면 대한민국의 정체성은 더욱 더 흔들린다. 9 4.3위원회 폐지법안 원희룡, 제주의 아픔 말할 자격 있나?" 윤철수 headlinejeju@headlinejeju.co.kr 승인 2014.03.21 김우남, "원희룡 4.3위원회 폐지법안 공동발의" 지난 2008년 한나라당 의원들을 중심으로 제주4.3위원회 폐지를 내용으로 하는 제주4.3특별법 개정안의 국회 제출당시 새누리당 원희룡 제주도지사 예비후보도 공동발의한 사실이 확인돼 논란이 일고 있다. 10 묻지도 따지지도 말라 하니 참 ㅋㅋㅋㅋㅋ니들이 말이통하는 세상인게 부럽다 ㅋㅋㅋㅋㅋㅋ예를 들면 역사의 증거는 가물거리고 주변 생존자가 있어 울며 불며 뭐라 하니 동요된 여론과 뭐 잇딴 감성파리로 법을 뒤집는다 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 이듸 일름 적읍서 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 제주 제2공항, 전·현지사 머리 맞대라 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 어룬 방둥인 애기 이상 엇나 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 있을 법하지 않은, 낯선 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 올리 추석 멩질상엔 고사리육개장 올렴수다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주관광공사,제주도내 유튜버를 위한 크리에이터 양성 교육 시행 - 블록체인밸리::No.1 Korea Blockchain &amp; Fintech Media × 블록체인&amp;정책 전체 블록체인&amp;정책 블록체인&amp;산업 전체 블록체인&amp;산업 블록체인 지식창고 블록체인&amp;마켓 전체 마켓인사이드 프로젝트 IT 게임 인베스트뉴스 코인코드 스팟 코인니스 스팟 E&amp;경제·산업 전체 증권·카드·투자 통신·IT·게임 자동차·유통·식품 건설·부동산·조선 제약·바이오·의료 은행·보험 E&amp;4차산업 전체 사물인터넷 자율주행 드론 5G·VR·메타버스 동향및전망 스마트팩토리 E&amp;AI인공지능 전체 동향및전망 자율주행&amp;빅데이터 AI 기술 AI 로봇 AI 쇼핑 AI 플랫폼 E&amp;핀테크·페이먼트 전체 동향및전망 스타트업·로보어드바이저 P2P·공유경제 O2O 인터넷은행·오픈뱅킹 크라우드펀딩 페이먼트 투데이단신 전체 투데이단신 정치&amp;정책 비즈&amp;컬쳐 오늘의 데이터 분석 UPDATED. 2022-10-04 10:30 (화) 로그인 회원가입 모바일웹 전체 블록체인&amp;정책 블록체인&amp;정책 블록체인&amp;산업 블록체인&amp;산업 블록체인 지식창고 블록체인&amp;마켓 마켓인사이드 프로젝트 IT 게임 인베스트뉴스 E&amp;경제·산업 증권·카드·투자 통신·IT·게임 자동차·유통·식품 건설·부동산·조선 제약·바이오·의료 은행·보험 E&amp;4차산업 사물인터넷 자율주행 드론 5G·VR·메타버스 동향및전망 스마트팩토리 E&amp;AI인공지능 동향및전망 자율주행&amp;빅데이터 AI 기술 AI 로봇 AI 쇼핑 AI 플랫폼 E&amp;핀테크·페이먼트 동향및전망 스타트업·로보어드바이저 P2P·공유경제 O2O 인터넷은행·오픈뱅킹 크라우드펀딩 페이먼트 기사검색 검색 이전 다음 제주관광공사,제주도내 유튜버를 위한 크리에이터 양성 교육 시행 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 투데이단신 투데이단신 제주관광공사,제주도내 유튜버를 위한 크리에이터 양성 교육 시행 김태연 기자 승인 2019.05.12 22:29 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주관광공사,제주도내 유튜버를 위한 크리에이터 양성 교육 시행 제주관광공사(사장 박홍배)는 제주관광 콘텐츠를 알릴 제주 1인 크리에이터 제작 지원을 위한 교육생을 32명 선발, 크리에이터 양성 교육을 시행한다. 제주관광공사가 도내에 거주중인 크리에이터를 발굴, 교육하고 우수자들에게 제작비를 지원하는 ‘제주 1인 크리에이터 지원’ 사업 지원자 모집에 지난 4월 4일부터 28일까지 총 94명이 지원, 이중 32명(팀)이 교육생으로 선발되었다. 교육생들은 5월에 진행되는 양성 교육을 통해 콘텐츠 기획에서부터 영상, 브랜딩, 영상 촬영 및 편집 등 유튜브 채널 운영에 대한 기본적인 교육을 제공받게 된다. ‘제주 1인 크리에이터 지원’ 사업은 도내에 거주 중인 크리에이터들이 보다 좋은 품질의 제주관광 영상 콘텐츠를 제작, 유튜브 등 영상플랫폼을 활용하는데 도움을 주는 사업이다. 트렌드에 맞는 영상을 제작하고, 영상 플랫폼을 유기적으로 활용함으로써 보다 많은 이들에게 참신한 감각과 새로운 시각으로 제주 관광을 알리는데 그 목적이 있다. 유튜브 교육은 총 5회에 걸쳐 이뤄지며 1차는 유튜브 이해 및 브랜딩(5월 23일), 2차는 여행 콘텐츠 기획 및 운영(5월 24일) 3차는 영상 촬영 및 보정(5월 29일), 4차는 유튜브 콘텐츠 기획 및 운영(5월 30일), 5차는 영상 편집(5월 31일) 교육이다. 이중 25만 구독자를 지닌 인기 여행유튜버 ‘청춘여락’ 강의는 24일(오후 7시~9시), 43만 구독자를 지닌 먹방 유튜버 ‘맛상무’ 강의는 30일(오후 7시~9시)에 공개 강의로 열리며 누구나 참여할 수 있다. 장소는 제주웰컴센터 1층에 있는 웰컴홀이다. 제주관광공사 관계자는 “영상콘텐츠 제작과 유튜브 운영 노하우가 쌓인 인기 유튜버들이 직접 강의하는 콘텐츠 기획, 영상 촬영 및 편집 강의를 통해 현장감 있는 정보를 많이 접하게 될 것이다. 도내 크리에이터들이 중요한 노하우를 배우게 될 것이다”라며 “또한 여행 유튜버로 인기 있는 청춘여락과 먹방 크리에이터로 43만명의 구독자를 지닌 맛상무의 공개강연을 통해 유튜브에 관심이 있는 모든 도민이 참여할 수 있도록 했다”고 밝혔다. FINTECHPOST 저작권자 © 블록체인밸리::No.1 Korea Blockchain &amp; Fintech Media 무단전재 및 재배포 금지 김태연 기자 다른기사 보기 [관련기사] [12일 조달청 입찰정보/종합] 유천D/L 운전용량부족 선로확충공사 감리용역(PQ), 2019년 폭염대응 주요간선도로 물 뿌리기 살수차 임차 용역(재공고)외 나라장터 입찰 공고 [(주간/종합) 코스닥 거래대금 Top 20] 크리스탈신소재 주간 거래대금 1위, 엑사이엔씨, SNK, 흥구석유, 현대바이오 주가 순으로 상위 기록. [(주간/종합) 코스피 거래금액 Top 20] 삼성전자 주간 거래금액 1위, SK하이닉스, 셀트리온, 카카오, 한진칼 주가 순으로 상위 기록. [(주간/종합) 코스닥 상승률 Top 20] 한화에스비아이스팩 119.38% ↑ 주간 상승률 1위, 케이에스피, 오리엔트정공, 엑사이엔씨, 국일제지 주가 순으로 상위 기록. [(주간/종합) 코스피 상승률 Top 10] 대창 65.24% ↑ 주간 상승률 1위, 한진칼우, 하나니켈2호, 서원, 샘표 주가 순으로 상위 기록. [일자리 취업 정보/종합] 한전KPS(주), 한국보건사회연구원, 한국수자원공사, 한국농촌경제연구원 외 채용 공고…한국수자원공사 오는 20일까지 입사지원서 접수. [(주간) 코스닥 외국인 순매수 Top 20] 헬릭스미스 1위 약 160억원, 아난티 71억원, 오스템임플란트 69억원, 컴투스 68억원, 위닉스 93억원 주가 순으로 외국인 매수 나서… 주간누적 순매수 상위 기록. [(주간) 코스피 외국인 순매수 Top 20] SK텔레콤 1위 약 682억원, 삼성SDI 499억원, 호텔신라 425억원, 기아차 411억원, NAVER 1649억원 주가 순으로 외국인 매수 나서… 주간누적 순매수 상위 기록. [(주간) 코스닥 기관 순매수 Top 20] 셀트리온헬스케어 1위 약 117억원, 펄어비스 89억원, 오스템임플란트 74억원, 지노믹트리 62억원, 에스에프에이 242억원 주가 순으로 기관 매수 나서… 주간누적 순매수 상위 기록. [(주간) 코스피 기관 순매수 Top 20] LG유플러스 1위 약 552억원, KT 340억원, 카카오 283억원, 한화케미칼 280억원, SK텔레콤 1411억원 주가 순으로 기관 매수 나서… 주간누적 순매수 상위 기록. 많이 본 뉴스 1[시황] 이더리움피오더블유(ETHW) 가격 상승세..이더리움 머지로 에어드랍 코인 2팀스토리 연토큰, 글로벌 거래소 비트마트(Bit Mart) 상장 3트론 저스틴 선, 부산 UDC에서 웹 3.0과 미래 블록체인 생태계 발표 4일부 셀시우스 주주, 선순위채권자 자격 요구 5후프클럽(HoopClub), 프로농구단 팬 커뮤니티 멤버십 NFT 완판 6두나무 ‘UDC 2022’ 폐막…이틀간 3,000명 찾았다 7크리버스×이승훈 작가, 콜라보 NFT 전시회 이태원 카페서 개최 8체인 링크(LINK), 스테이킹이 도입되는 확대 계획 ‘Economics 2.0’이 발표 9영화 속 소품, 좋아하는 작가의 한정판 작품을 소장할 수 있는 기회 10ENS 도메인, 250만개 돌파 최신기사 테더사 “USDT 준비자산 58% 이상이 미 단기 국채” 미 SEC, 킴 카다시안을 암호화폐 불법 광고로 기소 크립토 '공포·탐욕 지수' 20... 투심 위축 BNB체인, 150만 달러 규모 빌더 지원금 제공 FTX 거래소, 독자적인 DXY 무기한 선물 거래 시작 제네시스 글로벌 트레이딩, 그레이스케일 투자상품 운용 중단 바이낸스 : 첫 번째 LUNC 수수료 소각이 완료 이더리움, 보유자 수익성이 50% 이상으로 회복 신문사소개 기사제보 광고문의 정정보도 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 영등포구 선유로47길 19 기사정정요청: press88only@daum.net 애드버토리얼 아티클 : 광고문의 클릭 및 작성 대표전화 : 010-3219-7524 (문자 수신용) 편집부장 조해리 제호 : 블록체인밸리::No.1 Korea Blockchain &amp; Fintech Media 등록번호 : 서울 아 04281 등록일 : 2016-12-15 발행일 : 2016-12-15 발행인·편집인 : 조흥훈(Harry_cho) 청소년보호책임자 : 강민 블록체인밸리::No.1 Korea Blockchain &amp; Fintech Media 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2016-2022 블록체인밸리::No.1 Korea Blockchain &amp; Fintech Media. All rights reserved. mail to ajuaju123@naver.com(business proposal) / 보도자료는 press88only@daum.net 위로</t>
-  </si>
-  <si>
-    <t>제주도 서귀포 중문관광단지 맛집 "가람 돌솥밥", 모두에게 사랑받는 향토음식점 &lt; 생활·문화 &lt; 오늘공감 &lt; 기사본문 - 공감신문 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집 : 2022-10-04 10:30 (화) 전체기사 로그인 회원가입 전체 딥터뷰 경제공감 경제일반 금융/증권 산업/IT 종합 입법공감 종합 정치공감 종합 오늘공감 사회 생활·문화 인사/부고 종합 지역공감 칼럼공감 최종현 학술원 이슈앤속보 자문위원 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 서귀포 중문관광단지 맛집 "가람 돌솥밥", 모두에게 사랑받는 향토음식점 SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 스크롤 이동 상태바 현재위치 홈 오늘공감 생활·문화 제주도 서귀포 중문관광단지 맛집 "가람 돌솥밥", 모두에게 사랑받는 향토음식점 기자명 인터넷뉴스팀 입력 2019.05.15 13:39 댓글 0 SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 바로가기 메일보내기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 닫기 대한민국에서 여름이 가장 먼저 찾아오는 곳은 제주이다. 이국적인 바다와 장엄한 한라산 풍경을 자랑하는 제주에 이제 여름이 다가오고 있다. 가족, 커플, 친구 등 다양한 관광객들의 발걸음이 끊이지 않는 제주에서 가장 유명한 곳은 바로 중문 관광단지이다. 제주에 처음 오는 사람도, 자주 오는 사람도 가장 먼저 떠올리게 되는 관광명소는 단연 서귀포 중문관광단지이다. 공항에서 45분 거리, 서귀포 시내에서 20분 거리인 중문관광단지는 천제연 폭포와 여미지식물원, 주상절리 등 제주의 뛰어난 자연경관과 더불어 테디베어 뮤지엄, 아프리카 박물관, 플레이케이팝 테마파크 등 실내 관광지를 한 눈에 돌아볼 수 있는 곳이다.이렇듯 온가족이 둘러보기 좋은 중문 관광단지에서 실컷 놀다보면 가족 모두의 입맛을 사로잡을 수 있는 음식점을 찾기 마련이다. 남녀노소를 불문하고 모두를 만족시킬 수 있는 메뉴들을 골고루 갖춘 "가람돌솥밥"은 19년 전통의 제주 향토음식점이다. 이곳은 제주산 전복과 농산물만을 사용하는 맛집으로, 1박 2일 등 방송에도 여러번 소개된 곳이다.다양한 전복요리를 비롯해, 해물돌솥밥과 해물뚝배기, 갈치조림과 제주 옥돔구이 등의 메뉴가 있으며, 단품으로도 주문할 수도 있고 상차림세트로도 주문할 수 있다는 장점이 있다. 3인 혹은 4인의 상차림 세트로 주문을 할 경우 갈치조림과 돌솥밥 또는 성게미역국, 옥돔구이와 전복회 등 제주바다에서 나오는 모든 요리를 함께 맛볼 수 있다. 이색적인 것은 테이블 위에 올려져 있는 마가린과 간장양념이다. 가람돌솥밥 관계자는 “돌솥밥에 마가린과 간장양념을 함께 비벼먹으면 풍미가 월등해 진다”고 말했다. ‘가람돌솥밥’은 시설면에서도 중문을 대표할 만한 맛집이다. 제주를 여행하다보면 카페 또는 식당에서 제공되는 정식 주차장이 없어 공용주차장이나 갓길 주차를 해야 하는 경우가 빈번하다. 하지만 "가람돌솥밥"은 식당 정면에 관광버스도 주차 가능한 대형 주차장을 완비하고 있다. 실내 역시 방문객의 필요에 따라 편안한 좌석을 선택할 수 있도록 입식, 좌식 테이블을 겸비하고 있다.오전 9시부터 영업하는 ‘가람돌솥밥’에서 든든하게 조식을 먹고 아름다운 제주를 여행해보는 것 또한 기분 좋은 여행이 될 수 있는 방법이다. 저작권자 © 공감신문 무단전재 및 재배포 금지 인터넷뉴스팀 news@gokorea.kr 다른기사 보기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 주요기사 “아티스트 나얼의 감성이 담긴 캐리어”…여기어때 블랙 기프트 이병윤 서울시의원, ‘2022 자랑스러운 인물대상’ 수상 최영희 의원 “사무장병원 환수결정 후 미징수금액 1조 7,517억 원” 청소년모바일상담센터, '2022 학생 자살예방 우수 콘텐츠 공모전' 실시 비건이펙트, 페이백 이벤트 진행 [특징주] 오토앤 주가 급등세... 이유는? 당신만 안 본 뉴스 50대 여배우 ‘조은숙’ 근황 공개...검색량은? "무안하고 당황스러워" 돈스파이크 와이프 성하윤 고충 토로 한그루 이혼에 남편 누구?...과거 애칭·인스타그램 재조명 롤 서버 점검, 언제까지 하나 "차 보닛에 손 대봐" 성하윤 소름 돋게 한 돈스파이크 의심 뭐였길래 50대 여배우 조은숙 "신랑, 어린 걸 불편..." 연하 남편 애칭 뭐길래 "너무 무서웠다" 돈스파이크 와이프 성하윤 두려움에 떨었던 이유는? 50대 여배우 ‘조은숙’ 근황 공개...검색량은? 오늘공감 이병윤 서울시의원, ‘2022 자랑스러운 인물대상’ 수상 청소년모바일상담센터, '2022 학생 자살예방 우수 콘텐츠 공모전' 실시 비건이펙트, 페이백 이벤트 진행 10월 4일 오늘의 띠별 운세 '쥐띠·소띠·뱀띠·용띠·개띠 주목' 합참 "북한, 동쪽 방향으로 미상 탄도미사일 발사"...일본 상공 통과한듯 인기기사 1 [오늘의 금값시세] 10월 3일 24·18k 한돈 금시세는? 2 [2022년 10월 공모주 청약 일정] 에스비비테크 수요예측·확정 공모가·상장일은? 3 [2022년 10월 공모주 청약 일정] 샤페론 수요예측·확정 공모가·상장일은? 4 [검은 손이 노린다] 피싱 범죄, 아는 만큼 피할 수 있다 (완) 5 [주유소 가격비교] 10월 3일 기름값 싼곳 어디? 최저가 휘발유 1517원·경유 1679원 6 [특징주] 오토앤 주가 급등세... 이유는? 7 김민기 의원, ``LH 임대주택 부적격 입주자 5년간 4만명 육박`` 8 최영희 의원 “건강보험공단 고액자산가·소득자 구상금 미납 심각” 9 한 총리 "연대·상생으로 재도약…홍익인간 정신으로 새시대 열어가야 10 배준영 의원 "5년간 국세청 과오납환급금 30조5천억 육박" 최신기사 “아티스트 나얼의 감성이 담긴 캐리어”…여기어때 블랙 기프트 이병윤 서울시의원, ‘2022 자랑스러운 인물대상’ 수상 최영희 의원 “사무장병원 환수결정 후 미징수금액 1조 7,517억 원” 청소년모바일상담센터, '2022 학생 자살예방 우수 콘텐츠 공모전' 실시 비건이펙트, 페이백 이벤트 진행 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 영등포구 은행로 58. 1204호(삼도오피스텔) 대표전화 : 02-782-9872 팩스 : 02-783-1358 청소년보호책임자 : 이성철 법인명 : (주)공감신문 제호 : 공감신문 등록번호 : 서울 다 10955 등록일 : 2014-04-17 발행일 : 2017-05-01 대표이사 : 방성식·전규열 발행인 겸 편집인 : 전규열 공감신문 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 공감신문. All rights reserved. mail to news1@gokorea.kr 위로 전체메뉴 전체기사 입법공감 전체 종합 경제공감 전체 경제일반 금융/증권 산업/IT 종합 딥터뷰 칼럼공감 전체 칼럼 생활경제칼럼 박영철 편집고문 칼럼 오늘공감 전체 사회 생활·문화 인사/부고 종합 정치공감 전체 종합 이슈앤속보 최종현 학술원 자문위원 지역공감 전체메뉴닫기</t>
+    <t>“제주도는 휠링 관광 선도지” 제주포럼 JDC 세미나 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; “제주도는 휠링 관광 선도지” 제주포럼 JDC 세미나 파이낸셜뉴스입력 2019.05.30 14:10수정 2019.08.10 13:51 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 '힐링, 제주관광의 미래를 묻다'를 주제로 전문가 세션 진행 JDC 주관 제14회 제주포럼 '힐링, 제주관광의 미래를 묻다' 세션 [제주=좌승훈 기자] 제주국제자유도시개발센터(이사장 문대림, 이하 JDC)는 29일 제주국제컨벤션센터에서 제14회 제주포럼에서 '힐링, 제주관광의 미래를 묻다'를 주제로 전문가 세션을 개최했다. 이날 세션에서는 제주형 웰니스·힐링·항노화 산업의 발굴과 활성화를 위해 국내외 사례를 분석하고 전문가 의견 청취와 교환이 이뤄졌다. 김철민 부산대학교 의학전문대학원 교수를 좌장으로, 송인수 힐리언스 선마을 대표(헬스케어 서비스 산업의 전망)와 에부치 아츠시 UBM Japan 편집장·사무국장(일본 웰니스 시장의 현재)의 발표가 마련됐고, 이어 김현준 경남대학교 건강항노화센터장, 신은규 동서대학교 보건행정학과 교수, 김기영 JDC 의료사업처장이 참석한 가운데 전문가 토론이 이어졌다. 전문가들은 천혜의 자연과 특색 있는 문화를 가진 제주는 힐링 관광 선도지로 발전 가능성이 무궁무진하며, 지역과 연계한 사업 추진이 필요하다고 강조했다. 박현철 JDC 투자사업본부장은 “헬스케어타운이 미래 유망산업으로 주목받고 있는 시점에서 개최된 이번 세션이 제주형 웰니스 산업 발굴과 헬스케어타운 재도약의 단초를 마련할 수 있기를 기대한다”며 “JDC는 지역과 협업해 힐링 관광이 제주도의 미래 먹거리 산업으로 자리잡도록 더욱 노력하겠다”고 말했다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도·관광공사, "나고야 여행객 유치 확대 총력" &lt; 관광/항공 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도·관광공사, "나고야 여행객 유치 확대 총력" 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 관광/항공 제주도·관광공사, "나고야 여행객 유치 확대 총력" 기자명 강지환 기자 입력 2019.05.29 10:08 수정 2019.05.29 13:49 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 새롭게 직항노선이 개설된 나고야 지역에서의 일본인 관광객 유치 확대를 위한 상품개발 및 제주관광 홍보 사업이 추진된다.제주특별자치도와 제주관광공사(사장 박홍배)는 티웨이항공과 공동으로 지난 28일부터 30일까지 3일간 나고야지역 유력 여행사와 언론사를 초청, 추동절기 팸투어를 진행하고 있다고 29일 밝혔다.이번 팸투어는 지난 4월 티웨이항공이 신규취항한 나고야-제주 직항노선 활성화를 위한 상품개발 등 프로모션을 추진하고자 기획됐다.팸투어 기간 제주관광공사는 가을철 주요 포토스팟과 옥돔무국과 같은 겨울철 제주 향토요리, 제주 온천 체험 등 추동절기 시즌에 걸맞는 소재와 함께 '제3한류' 인기에 맞춘 한류스타카페, 플레이케이팝 등 한류콘텐츠를 홍보한다.아울러 JTB, NOE, 닛신여행사 등 나고야지역 주요 여행사 4사와 언론사 2곳이 참여, 추동절기 상품 개발과 더불어 미디어를 통한 제주관광 홍보에 도모한다.특히 나고야 최대 규모 언론사 "츄니치신문"과 주구독자가 2030 젊은층인 나고야 거점 매거진 "CHEEK"을 통하여 제주 특집기사를 게재할 예정이다. 강지환 기자 wlghks4889@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>본사 제주도 이전…롯데관광개발 취업 창구 ‘성황’ - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 본사 제주도 이전…롯데관광개발 취업 창구 ‘성황’ 파이낸셜뉴스입력 2019.05.29 15:59수정 2019.05.29 16:57 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 제주도민 우선 채용…인사 총괄 책임자 제주대 출신 여성임원 발탁 제주도 주최로 열린 2019 도민행복 일자리박람회의 롯데관광개발 취업 상담 창구 [제주=좌승훈 기자] 제주특별자치도 주최 2019 도민행복 일자리박람회가 도내 기업 79개사와 청년·장애인·경력단절여성·중장년 등 1000여명의 구직자가 참여한 가운데 지난 28일 제주한라체육관에서 개최됐다. 제주드림타워 복합리조트 연내 완공과 함께 오는 6월부터 본사 제주이전을 본격 추진하고 있는 롯데관광개발(대표이사 회장 김기병)도 이날 취업 창구를 개설 운영했다. 롯데관광개발은 제주 상주 인력 3100명 중 80%선인 2480명(경력 포함)을 제주드림타워 완공과 함께 순차적으로 채용할 예정이다. 롯데관광개발은 특히 제주도민 우선 채용을 위해 인사 채용 총괄 책임자로 제주대학교 출신 여성임원을 전격 발탁한 가운데 이날 취업 상담창구도 상담창구가 가장 붐벼 구직자들의 높은 인기를 반영했다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>에이블뉴스 - 제주도 관광약자 접근성안내센터, 웰컴센터 1층으로 이전 [메뉴 건너뛰기] 바로가기 -서비스목록선택- 전체기사 많이본기사 알려드립니다 자유게시판 친구합시다 로그인 | 회원가입 검색 검색 폼검색 범위 통합검색 뉴 스 뉴스태그 포 토 동영상 -이슈동영상 -수화동영상 -오디오뉴스 지식짱 -Q &amp; A -지식자료실 블로그 사이트 검색어 인기검색어 코로나19 | 탈시설 | 집중호우 주요서비스 추천컨텐츠[모집] 현재 에이블서포터즈 회원 명단입니다. 뉴스기사분류 전체기사 | 기획특집 | 정보세상 | 오피니언 | 정치/정책 | 인권/사회 | 노동/경제 | 통합교육 | 복지/건강 | 여성/아동 | 자립생활 | 문화/체육 | 인물/단체 | 전국넷 강원·제주 서브메뉴 전체기사 기사제보 많이본기사 취재수첩 세상이야기 댓글 열전 공식블로그 주요행사 에이블서포터즈 장애인신문고 - 발달장애인이 행복한 삶 '주간활동서비스' 사업 안내 - 한국장애인개발원 장애인식개선 유튜브 채널 '당장만나' 뉴스홈 &gt; 전국넷 &gt; 강원·제주 http://abnews.kr/1MKJ 본문시작 제주도 관광약자 접근성안내센터, 웰컴센터 1층으로 이전 에이블뉴스, 기사작성일 : 2019-05-30 13:16:30 ▲ 제주웰컴센터 1층으로 이전한 제주특별자치도 관광약자 접근성안내센터.ⓒ제주특별자치도 관광약자 접근성안내센터 제주특별자치도 관광약자 접근성안내센터가 이달 제주시 선덕로23 제주웰컴센터 1층으로 이전, 접근 가능한 관광 정보센터를 운영한다고 30일 밝혔다.센터는 2014년 개소 이후 일도이동에 소재하고 있었으나 센터 접근성 및 면접 서비스 제공 등의 어려움 있던 상황에서 제주도와 관광공사의 지원과 협조를 통해 제주관광의 중심인 웰컴센터로 이전하게 됐다. 이전과 함께 관광약자에게 직접적인 면접서비스 제공이 가능한 “접근 가능한 관광정보센터” 운영을 시작함으로써 제주를 찾는 관광객이면 비장애인만이 아닌 장애인도 웰켐센터에서 고객중심의 원스탑 서비스를 제공받을 수 있게 됐다.센터 방문 시 접근 가능한 관광정보, 가이드북 및 지도 등 자료 제공, 추천코스 등 여행코디 서비스, 접근 가능한 관광 어플리케이션 사용법 안내 등 다양한 정보를 받아볼 수 있다. 고은호 센터장은 “우리센터는 도내 관광지 등의 접근성모니터링 및 컨설팅, 인식개선교육, 콜센터 운영 등 제주도의 접근 가능한 관광환경 인프라를 확산하고 장애인 및 노약자 등의 관광약자의 원활한 제주관광을 지원하기 위해 앞장서고 있다”고 말했다.-장애인 곁을 든든하게 지켜주는 대안언론 에이블뉴스(ablenews.co.kr)--에이블뉴스 기사 제보 및 보도자료 발송 ablenews@ablenews.co.kr- 이슬기 기자 (lovelys@ablenews.co.kr) 이슬기 기자의 다른기사 보기 ▶ &lt; 네이버에서 에이블뉴스를 쉽게 만나보세요! &gt; &lt;내손안의 에이블뉴스~ 언제 어디서나 빠른 장애인계 소식~&gt; [저작권자 ⓒ 에이블뉴스, 무단 전재 및 재배포 금지] 제주특별자치도 관광약자 접근성 최신기사목록 기사분류 기사제목 글쓴이 등록날짜 전국넷 &gt; 강원·제주 제주서 발달장애 정은혜 작가와 장애인식개선 행사 진행 이슬기 기자 2022-10-06 14:30:16 전국넷 &gt; 강원·제주 강원발달센터, ‘발달장애인 부모교육·가족휴식지원사업’ 수기 공모 백민 기자 2022-09-30 09:07:48 전국넷 &gt; 강원·제주 서귀포시IL센터 ‘우리가족 책 만들기’ 참여 가정 모집 이슬기 기자 2022-09-26 15:18:38 [전체] 가장 많이 본 기사 1위 교통약자 위한 역사 내 길안내 서비스 즉... 2위 장애예술인 인터뷰, 소설가 이서진 3위 [부고] 한국장애인연맹 송영욱 전 회장 ... 4위 장애인활동지원기관 주민세 감면 대상 포... 5위 ‘의학적 판단 중심’ 발달장애인 활동지... 인기검색어 순위 lpg 시급 탈시설 코로나19 장애인활동지원 장애인 집중호우 지적장애 시각장애인 한국장애인고용공단 [강원·제주] 많이 본 기사 제주서 발달장애 정은혜 작가와 장애인식개선... 댓글이 더 재미있는 기사 전화로 예약하는 것보다 더 중요한게 빠져있다 전국의 잔영휴양림에 국립의 경우에는 대부분 ... 발달장애인 주간활동서비스 ‘그림의 떡... [4] ‘우영우’는 없다, 발달장애인 가족은 ... [3] 장애인활동지원 본인부담금 납부 ‘후덜... [3] 발달장애인 고용 창출, '먹튀'는 안 된다 [2] 연이은 장애인 폭우·화재 참사, 남 일 ... [1] 주간 베스트 기사댓글 장애인 등록 부터 하고 중증판정 받... [11]문재인이 눈시울 붉히며 [9]기사는 좋은데... 사진이 에바다. [8]나도 사진이 GSGG 네 [6]퍼포먼스... [4] 새로 등록된 포스트 경인장애인자립생활센터 22년 8월 뉴스레터 Vol.13 경인장애인자립생활센터 8월호 뉴스레터가 나왔... (46.)프란치스코 교황님 회칙 『찬미받으..♣(핸드폰 컴퓨터 정보 유출) 내PC돌보미..필터 샤워기 추천 제품♣ 서울세계불꽃축제 2022마음이 흐뭇해진다는 것이란?|김일권 요.. 에이블뉴스는? 언론사소개 에이블서포터즈 장애인신문고 온라인광고 제휴사 개인정보취급방침 이용약관 사이트오류신고 사이트맵 도움말 (주)에이블뉴스 / 사업자등록번호:106-86-46690 / 대표자:백종환,이석형 / 신문등록번호:서울아00032 / 등록일자:2005.8.30 / 제호:에이블뉴스(Ablenews) 발행,편집인:백종환 / 발행소:서울시 용산구 한강대로7길 17 서울빌딩1층(우04380) / 발행일자:2002.12.1 / 청소년보호책임자:권중훈 고객센터 Tel:02-792-7785 Fax:02-792-7786 ablenews@ablenews.co.kr Copyright by Ablenews. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도 선녀탕, 자연이 빚은 천연 수영장... 새로운 관광 명소로 '우뚝' &lt; 사회 &lt; 기사본문 - 한스경제(한국스포츠경제) 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 ESG 경제 산업 생활 정치 사회 문화 스포츠 한스컷 Updated2022-10-11 10:50 (화) 로그인 로그인 회원가입 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 선녀탕, 자연이 빚은 천연 수영장... 새로운 관광 명소로 '우뚝' 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 제주도 선녀탕, 자연이 빚은 천연 수영장... 새로운 관광 명소로 '우뚝' 기자명 조재천 기자 입력 2019.05.28 20:04 댓글 0 바로가기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 닫기 내용요약 제주도 선녀탕, 아이들과 물놀이하기에 최적 "어른용 풀과 아동용 풀로 구분된 듯한 모습" 제주도 선녀탕. 아는 사람만 안다던 제주도 선녀탕이 최근 SNS 등에서 알려지며 주목받고 있다. / 연합뉴스 [한국스포츠경제=조재천 기자] 제주도 서귀포시 황우지 해안 인근에 있는 선녀탕이 관심을 끈다.황우지 선녀탕은 제주도에 몇 남지 않은 비경으로 손꼽히는 장소다. 황우지 해변에서 85계단을 내려가면 볼 수 있는 이곳은 물이 깨끗하고 투명해 선녀탕이라고 불린다. 선녀탕은 몇 년 전만 해도 아는 사람들만 찾던 장소였다.최근 사회 관계망 서비스(SNS) 등에서 입소문을 타면서 선녀탕이 제주도의 새로운 관광 명소로 자리매김하고 있다. 황우지 선녀탕은 바위 사이로 두 개의 큰 웅덩이가 있다. 이곳에서 물놀이를 즐긴 관광객들은 “정말 자연적으로 만들어진 수영장”이라며 “그것도 어른용 풀과 아동용 풀로 구분된 듯한 모습”이라고 극찬한다.상대적으로 수심이 깊어 보이는 곳에서는 바위를 타고 올라가 다이빙하는 이들도 종종 볼 수 있다. 수심이 얕은 곳에는 아이들과 함께 물놀이를 즐기는 가족들이 많다. 황우지 선녀탕 주변에 있는 바위를 보면 화산 폭발로 생성된 제주도만의 특징도 옅볼 수 있다. 미리 스노쿨링 장비 등을 준비하지 못한 사람들은 인근 대여점에서 빌려 선녀탕에서 즐길 수 있다. 조재천 기자 3son85@sporbiz.co.kr 키워드 #제주도선녀탕 #황우지선녀탕 #황우지해안 #황우지해변 #제주도 #선녀탕 조재천 기자 3son85@sporbiz.co.kr 다른기사 보기 저작권자 © 한스경제(한국스포츠경제) 무단전재 및 재배포 금지 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 많이 본 뉴스 1 보험사, 기후위기 손실평가 등...본격적인 ESG경영 나서야 2 [김동용의 수소경제 톺아보기] 가스공사, '수소 기업'으로 전환 속도…충남도, 수소 전문기업 육성 박차 3 전 연령 대상 사회공헌 통해 ESG경영 나선 JB금융그룹 4 롯데건설, 층간소음 저감 기술 개발 박차 5 포스코-LG엔솔, 이차전지 사업 맞손 6 연준의 긴축 지속...뉴욕 3대 지수 하락 마감 7 [아파트 Hot&amp;Cold] “매물 ‘러시’”...경기 성남시 수정구 아파트값 한 주 만에 ‘곤두박질’ 8 [ESG포커스] ‘환경’지키는 뷰티업계, 공병수거에 리필패키지까지 ‘탈플라스틱’ 9 [부고] 정승희 IBK기업은행 남시화지점장 부친상 10 코레일·현대로템, KTX-이음 승차감 개선 비용 '떠넘기기' 한스경제 PICK 생활 [ESG포커스] ‘환경’지키는 뷰티업계, 공병수거에 리필패키지까지 ‘탈플라스틱’ 스포츠 [긴급진단①] 과정부터 이상했다? 국감으로 번진 KLPGT 중계권 논란 ESG [김동용의 수소경제 톺아보기] 가스공사, '수소 기업'으로 전환 속도…충남도, 수소 전문기업 육성 박차 경제 여풍 거세진 은행권…‘MZ 묻고 쉬코노미’에 집중 산업 ‘美 반도체 규제’에 업계 긴장…정부 “영향 제한적” 주요뉴스 ESG 세계 항공업계, 전기항공기 도입에 속도..."중국은 글쎄" 증권 코스피 장 초반 2%대 하락, 2170대로…코스닥은 3%대 하락 기업·CEO 법인세 3.3%p 인하…GDP 10년간 연평균 1.4% 증가 효과 건설·중공업 [아파트 Hot&amp;Cold] “매물 ‘러시’”...경기 성남시 수정구 아파트값 한 주 만에 ‘곤두박질’ 사회 일반 오늘부터 동절기 코로나19 추가접종 시작…당일 접종 가능 하단영역 하단메뉴 언론사소개 언론윤리 공정보도 독자문의 고충처리인 광고·제휴·콘텐츠문의 이용약관 개인정보취급방침 청소년보호정책 오시는길 매체정보 서울특별시 종로구 율곡로2길 7 서머셋팰리스서울 4층 대표전화 : 02-725-6007 팩스 : 02-725-3939 법인명 : ㈜한국뉴미디어 제호명 : 한스경제(한국스포츠경제) 등록번호 : 서울 아 03577 등록일 : 2015-02-09 발행일 : 2015-02-23 발행·편집인 : 송진현 편집국장·청소년보호책임자 : 송진현 한스경제(한국스포츠경제) 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 한스경제(한국스포츠경제). All rights reserved. mail to news@sporbiz.co.kr 위로 전체메뉴 전체기사 ESG 전체 기업·CEO 공기업 지방자치단체 경제 전체 경제 일반 금융 증권 산업 전체 기업·CEO 전자·통신 IT·게임 자동차·물류 건설·중공업 바이오 에너지 생활 전체 유통 식·음료 패션·뷰티 정치 전체 정치 일반 사회 전체 사회 일반 지역 교육 전국 문화 전체 컬처 연예 스포츠 전체 스포츠 일반 스포츠 종합 야구 축구 골프 여행ㆍ레저 2021 한국컵 2020 도쿄올림픽 2022 한국컵 보도자료 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도·협회, 제24회 제주국제관광마라톤축제 개최 &lt; 동네방네 &lt; 일과 사람들 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 일과 사람들 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 동네방네 인사 화촉 부음 본문영역 이전 기사보기 다음 기사보기 제주도·협회, 제24회 제주국제관광마라톤축제 개최 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 일과 사람들 동네방네 제주도·협회, 제24회 제주국제관광마라톤축제 개최 기자명 강지환 기자 입력 2019.05.26 14:33 수정 2019.05.26 17:16 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도와 제주특별자치도관광협회(회장 김영진)는 26일 구좌종합운동장(김녕해수욕장) 일원에서 30여 개국 5000여명이 참가한 가운데 '제24회 제주국제관광마라톤축제'를 개최했다.이날 대회는 풀코스(42.195㎞)와 하프(21.0975㎞), 일반코스(10㎞), 해안도로 워킹(10㎞), 팀대항전(42.195㎞) 등 5개 종목으로 나뉘어 진행됐다.대회 결과 풀코스 남자부에선 최진수씨(서울·2시간46분23초)가, 여자부에선 장잉보씨(중국·3시간30분20초)가 각각 우승을 거머쥐었다.하프코스에선 남자부 케이요 조엘 키마루씨(케냐·1시간13분34초)가, 여자부 권순희씨(부산·1시간26분26초)가 각각 우승을 차지했다.한편 올해 축제는 이봉주 선수와 함께하는 팬사인회와 인생 머그컵 만들기, 천연 염색 체험, 경품 추첨 등 다채로운 이벤트가 함께 마련됐다. 강지환 기자 wlghks4889@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>관광객이 직접 만든 자신만의 제주도 관광기념품은? - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 관광객이 직접 만든 자신만의 제주도 관광기념품은? 파이낸셜뉴스입력 2019.05.19 11:18수정 2019.05.19 11:18 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 제주관광공사, ‘내 손으로 만드는 제주’ 웰컴 프로그램 운영 [제주=파이낸셜뉴스 좌승훈 기자] 제주특별자치도와 제주관광공사(사장 박홍배)는 오는 24일 제주웰컴센터에서 제주를 찾는 내·외국인 관광객과 도민을 대상으로 웰컴 프로그램을 운영한다. 웰컴 프로그램은 최근 여행 트랜드가 보고 듣는 여행에서 즐기고 느끼는 여행으로 바뀌고 있음에 따라 관광객들에게 다양한 체험 기회를 제공하기 위해 마련됐다. 이번 행사는 매월 1~2회 제주 방문 관광객을 대상으로 사전 신청을 받아 진행할 계획이다. 이날 1차 웰컴 프로그램은 실크스크린을 활용한 관광기념품 만들기로 진행된다. 특히 에코백에 제주를 상징하는 해녀·돌하르방·한라봉 등을 담아 자신만의 관광기념품을 만들어 볼 예정이다. 참가 신청은 제주관광정보센터 또는 제주관광공사 홈페이지를 활용하면 된다. 내·외국인 관광객 각 10명씩 총 20명으로 선착순 접수로 진행된다. 제주관광공사 앞으로 해녀 해설과 해녀 소품 만들기, 한글도장 만들기, 제주 핑거푸드 만들기 등 다양한 주제로도 웰컴 프로그램을 운영할 예정이다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>영천시, 제주도에 관광홍보 거점 마련 - 아시아투데이 아시아투데이 서울 다른도시13.2℃ 춘천강릉서울인천충주대전대구전주울산광주부산제주 뉴델리 22℃ 도쿄 24.9℃ 베이징 16℃ 자카르타 30℃ 네이버뉴스스탠드 네이버 포스트 유투브 페이스북 트위터 최신 오피니언 사설 칼럼·외고 기자의 눈 피플 정치 정치일반 대통령실 국회·정당 북한 외교 국방 정부 사회 사회일반 사건·사고 법원·검찰 교육·행정 노동·복지·환경 보건·의약 경제 경제일반 정책 금융·증권 산업 IT·과학 부동산 유통 중기·벤처 아투시티뉴스 종합 경기·인천 세종·충청 영남 호남 강원 제주 국제 세계일반 아시아·호주 북미 중남미 유럽 중동·아프리카 문화·스포츠 전체 방송 가요 영화 문화 종교 스포츠 여행 포토 전체 포토 비주얼뉴스 지면보기 제보24시 자문위원단 독자권익위원회 아투TV 대학동문골프최강전 글로벌 리더스 클럽 English中文 영천시, 제주도에 관광홍보 거점 마련 한국타이어, 발달장애 학생 위한 '우리들의 숲 조성' '적자 지속' 생보사 자회사형 GA, 경쟁력 강화 통할까 2022년 10월 11일(화) 사통팔달 피플 아투시티초대석 볼거리 전체메뉴 종합 경기·인천 세종·충청 영남 호남 강원 제주 검색버튼 영천시, 제주도에 관광홍보 거점 마련 기사승인 2019. 05. 19. 16:45 가 (더 작게) 가 (작게) 가 (기본) 가 (크게) 가 (더 크게) 탐나라 공화국 상상 그룹(대표 강우현)과 관광산업발전을 위한017일 최기문 영천시장(우측)이 탐나라 공화국 상상 그룹(대표 강우현)과 관광산업발전을 위한 상생협약을 체결하고있다/제공=영천시영천 장경국 기자 = 경북 영천시가 다양한 내·외국인이 방문하는 대한민국의 미래 관광지로 꼽히고 있는 제주 탐나라 공화국에 영천시의 관광홍보 거점을 마련하고 풍부한 관광 노하우의 상호교류를 통한 상생발전의 기틀을 다지게 됐다19일 영천시에 따르면 최기문 영천시장이 지난 17일 제주 탐나라 공화국 개국에 따라 공화국내 설치되어 있는 영천 은하수길에서 탐나라 공화국 상상 그룹(대표 강우현)과 관광산업발전을 위한 상생협약을 체결했다. 이번 협약은 평소‘관광이 미래 먹거리다’라고 외치는 최기문 시장이 관광정책에 대한 강력한 의지로 지난해 8월 탐나라 공화국을 방문하면서 시작됐다. 이에 강우현 대표가 영천시 공무원들을 대상으로 ‘관광 마인드 향상’ 특강에 강연을 하고 영천의 주요 관광지를 탐방하면서 영천 관광 활성화에 많은 관심을 갖고 지역 주민들과 함께 ‘이름나는 명소 만들기’ 프로젝트 등의 결과물을 만들었다. 이번 협약으로 탐라 공화국은 영천시에 관광산업 활성화를 위한 자문과 콘텐츠 개발 및 영천시민의 현장견학 시 할인 혜택 부여하는 등 탐나라 공화국 보세구역 내에 영천 특산물 홍보 편의제공에 협력하며 영천시는 관내 불용 임목을 활용해 탐나라와 영천의 관광환경 조성에 협력해 나가기로 했다. 시는 이번 협약을 통해 영천시는 관광자원의 우수성을 알리고 관광객 유치의 교두보를 확보하기 위해 관광 홍보물을 지속적으로 제공 제주를 방문하는 내·외국인들의 영천에 대한 관심을 이끌어 낸다는 계획이다 아울러 은하수길에 영천 별빛 한우 홍보관을 마련 포장박스와 배너의 QR코드를 통해 영천 별빛 촌장터 쇼핑몰로 연계한 영천 별빛 한우를 온라인으로 구매할 수 있도록해 영천시가 민?관이 힘을 모아 관광산업의 성공신화를 이루어낸 모범 사례로 손꼽힐 수 있게 만든다는 전략이다. 이날 협약식에서 최기문 영천시장은 “협약을 계기로 영천시가 관광도시로 새롭게 도약할 수 있다는 자신감과 기대를 갖게 되었다”면서 “황무지에 제각각의 특성을 살려 생명의 스토리를 싹 틔운 강우현 대표의 경영철학처럼 상상과 꿈이 현실 속에서 실현되어 새로운 관광콘텐츠로 거듭날 수 있도록 본격적인 도전을 시작하겠다”라고 말했다. 한편 제주 탐나라 공화국은 제주시 한림읍에 소재하고 있는 테마파크로 남이섬 성공신화의 주인공으로 알려져 있는 강우현 대표가 정부지원과 투융자 없이 직원들과 함께 조성한 대한민국의 미래 관광지로 꼽히고 있다. 이날 행사에는 제주도 오름 도당굿과 국제 도자 세라믹스 워크숍이 열리는 가운데 부대행사로 영천교 개통식, 영천 쉼표 ? 삼 휴정 현판식 및 영천 별빛 한우 포장 박스 전시회, 영천와인 시음회가 동시에 열려 국내인은 물론 외국인들에게 큰 호응을 얻었다, 전국부 장경국 기자 &gt; jkg@asiatoday.co.kr ⓒ아시아투데이, 무단전재 및 재배포 금지 댓글 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 실시간 영남 四通八達 1 ‘노인복지 위한’ 청도군 치슬1리에 경로당 조성 2 월성3호기 계획예방정비 후 발전재개 3 영주세계풍기인삼엑스포, 경북 시·군의 날 인기 4 경상북도의회, 2021회계연도 결산안과 조례안 23건 심.. 5 경북도의회, 문화환경위 2021회계연도 결산안 의결 6 안동시, ‘피어나라 안동여행’ 영상공모전 수상작 선정 7 경북도, 산림박람회 오는 13~15일 대구 엑스코 개최 오늘의 주요뉴스 “네이버, 소상공인 기금 일부 유용”…네이버 “입장없다” ‘부동산 매물정보 갑질’ 네이버 최수연 첫 재판 연기 이해진 “라인 韓기업이라면, 네이버 韓 아닌 외국기업” 尹, 친일국방 공세에 “北위협 어떤 우려 정당화되나” 유승민 “李, 中 3불 강요 ‘한미일 군사동맹’ 쓰지말라” 건보개편 후폭풍?…국민연금 자발적 가입자 첫 감소 홍준표, 당권주자 겨냥 “배신 경력자는 나오지 말라” ‘신화’ 신혜성, 도난차량서 음주측정 거부하다 체포 신규확진 1만5476명 감소세…사망 10명, 석달새 최소 ‘다사다난’ 오세훈 시장 취임 100일…성과와 과제는 글로벌리더스클럽 회사소개 | 광고안내 | 행사안내 | 구독신청 | 제보24시 | 고충처리 | 회원약관 | 개인정보취급방침 | 청소년보호정책 | 저작권규약 | 인재채용 등록번호 : 서울 아00160 | 등록일 : 2006년 1월 18일 | 제호 : 아시아투데이 | 회장 : 송인준 | 발행인ㆍ편집인 : 우종순 서울시 영등포구 의사당대로1길 34 인영빌딩 | 발행일자 : 2005년 11월 11일 | 대표전화 : 02) 769-5000 | 청소년보호책임자 : 성희제 아시아투데이는 인터넷신문위원회 윤리강령을 준수합니다. Copyright by ASIATODAY Co., Ltd. All Rights Reserved</t>
+  </si>
+  <si>
+    <t>이색 공간! 5월 제주도 가볼 만한 곳 ‘브릭캠퍼스’, 다양한 체험 함께해 관광객 이목집중 - 수원일보 × 로그인 회원가입 전체기사 뉴스 전체 수원뉴스 정치/행정 의정 경제 사회 지역 교육 문화 오피니언 전체 김갑동의 시각 정준성 여민동락 김충영의 수원현미경 김우영 광교칼럼 김만곤 교육논단 김진호 작가 물과 건강이야기 김주석 박사 지역경영 김진홍 목사 아침묵상 사설 수원포럼 데스크 칼럼 신율의 時事펀치 닥터칼럼 기고 홍성길의 기업경영지원센터 김준혁칼럼 정수자 如詩칼럼 이민상 경제프리즘 하승재 물순환칼럼 이종주 교수 觀光제언 조선칼잽이 최형국 생활 전체 연예·스포츠 우리동네 학교현장 기관.기업.단체 사람들 전체 특집인터뷰 인터뷰 인사 동정 부고 사고 결혼 본사내방 기획특집 단독 사진·영상 전체 수원일보 창간 30주년 축하영상 수원을 기억하다 사진전 건강의학 이슈 CEO &amp; Biz 전체 중소기업 돋보기 중소기업 경영이슈 및 컨설팅 병·의원 이슈 및 컨설팅 홍기자의 보물 찾기 알려주세요! 클릭하면 행복한 세상, 풍성한 하루 경기도 최초 인터넷신문일간지 최초 온라인 전환 신문1989년 9월 30일 창간 뉴스 수원뉴스 정치/행정 의정 경제 사회 지역 교육 문화 오피니언 김갑동의 시각 정준성 여민동락 김충영의 수원현미경 김우영 광교칼럼 김만곤 교육논단 김진호 작가 물과 건강이야기 이종주 교수 觀光제언 김진홍 목사 아침묵상 정수자 如詩칼럼 이민상 경제프리즘 조선칼잽이 최형국 사설 수원포럼 데스크 칼럼 닥터칼럼 기고 김주석 박사 지역경영 홍성길의 기업경영지원센터 김준혁칼럼 생활 연예·스포츠 우리동네 학교현장 기관.기업.단체 건강·의학 사람들 특집인터뷰 인터뷰 인사 동정 부고 결혼 사고 본사내방 기획특집 단독 사진·영상 수원일보 창간 30주년 축하영상 수원을 기억하다 사진전 CEO &amp; Biz 중소기업 돋보기 중소기업 경영이슈 및 컨설팅 병·의원 이슈 및 컨설팅 홍기자의 보물 찾기 알려주세요! 기사검색 검색 이전 다음 이색 공간! 5월 제주도 가볼 만한 곳 ‘브릭캠퍼스’, 다양한 체험 함께해 관광객 이목집중 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 생활 이색 공간! 5월 제주도 가볼 만한 곳 ‘브릭캠퍼스’, 다양한 체험 함께해 관광객 이목집중 이영은 기자 승인 2019.05.27 14:34 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 연간 1,500만 명 이상이 방문하는 환상의 섬 제주도에는 아름다운 자연경관은 물론이고, 각종 먹을거리와 즐길 거리가 풍부하게 마련되어 있다. 특히 자동차부터 유리, 컴퓨터, 우주, 커피, 감귤 등 다양한 테마의 제주도 미술관과 제주도 박물관이 많아 일상생활에서 벗어나 여유로운 시간을 갖고자 하는 이들의 발길을 이끌고 있는데, 그 중에서도 ‘브릭캠퍼스’가 제주도 아이들과 가볼 만한 곳으로 손꼽히고 있다.5월 제주도 가볼 만한 곳 브릭캠퍼스는 세계 최초 브릭 아트 테마파크로, 브릭으로 만든 다양한 작품을 감상하고 직접 체험할 수 있는 공간이다. 브릭이라는 특별한 테마와 다채로운 프로그램 덕분에 JTBC '효리네민박2'과 SBS‘런닝맨' 등 각종 TV 프로그램에 소개되기도 했으며, 한국기업발전진흥회가 주최한 ‘2018 올해의 히트 브랜드’에서 관광레저브랜드(실내테마파크) 부문 대상을 수상하기도 했다.브릭캠퍼스에 방문하면 가장 먼저 500여 평의 넓은 야외 정원을 만날 수 있다. 정원에는 연못과 브릭으로 쓴 다양한 글귀가 장식된 언어의 정원, 포토존 등이 마련되어 있어 제주도 여행의 추억을 사진으로 남기기에 제격이다. 실내에는 국내외 최정상의 아티스트 40여명이 280만개 이상의 브릭으로 만든 다양한 작품들을 감상할 수 있다. 대형 디오라마부터 국내외 유명 건축물, 영화 및 애니메이션 속 캐릭터까지 300여 점이 마련되어 있어 하나하나 감상하는 쏠쏠한 재미가 있다.관람 후에는 플레이 존에서 직접 브릭으로 작품을 만들어볼 수 있다. 브릭에 이름을 새기는 ‘마이 브릭’과 각종 캐릭터를 만들어보는 ‘캐릭터 모자이크’, 신나는 ‘브릭 자동차 경주’ 등의 프로그램이 마련되어 있어, 제주도 비올 때 가볼 만한 곳으로 브릭캠퍼스를 들르는 관광객도 많다. 브릭에 대해 더욱 자세히 알고 싶은 관람객을 위한 ‘브릭 아트 클래스’도 평일 2회, 주말 3회 진행된다. 참여자는 현장에서 최대 50명까지 선착순으로 신청을 받으나, 조기에 마감되는 경우가 대부분이어서 방문 전 미리 진행 시간을 체크해두는 것이 좋다.5월 제주도 가볼 만한 곳 브릭캠퍼스에서는 허기를 달래줄 독특한 메뉴도 만날 수 있다. 직접 만든 브릭 모양의 빵 사이에 두툼한 패티를 넣은 수제 브릭 버거와 수제 브릭 케이크는 이곳에서만 맛볼 수 있는 먹거리로, 비주얼과 맛을 모두 갖춰 관람객들의 호응을 얻고 있다. 관람을 모두 마친 후에는 굿즈샵에서 5월 제주도 여행의 추억을 간직하게 해 줄 기념품을 구입할 수도 있다.업체 관계자는 “브릭캠퍼스는 브릭이라는 소재로 마련된 이색 테마 박물관으로, 날씨에 상관없이 언제나 방문해 즐거운 시간을 보낼 수 있다. 제주공항에서 차로 20분 정도면 방문할 수 있어 용두암이나 이호테우 해수욕장, 삼양 해수욕장 등 제주공항 근처 가볼 만한 곳과 함께 즐기기에도 좋다.”며 “네이버 예매 시 10% 할인 혜택이 적용되니, 연인이나 친구, 가족과 함께할 제주도 관광지를 찾고 있다면 브릭캠퍼스에 들러보기를 바란다.”고 전했다. 저작권자 © 수원일보 무단전재 및 재배포 금지 이영은 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 최신뉴스 의왕시의회, 제288회 제1차 정례회 개회 의왕시의회, 제288회 제1차 정례회 개회 [기획특집] 수원 도심에서 가을 정취 만끽하세요 [기획특집] 수원 도심에서 가을 정취 만끽하세요 [김우영 광교칼럼] 빗속에서 열린 수원화성문화제의 백미 ‘정조대왕 능행차’ [김우영 광교칼럼] 빗속에서 열린 수원화성문화제의 백미 ‘정조대왕 능행차’ 불법 자동차 '꼼짝마'...경기도, 기관 합동으로 일제 단속 실시 불법 자동차 '꼼짝마'...경기도, 기관 합동으로 일제 단속 실시 소상공인 최대 5천 만원 5년 무담보 대출...용인시, '프리미엄' 재개 소상공인 최대 5천 만원 5년 무담보 대출...용인시, '프리미엄' 재개 교육문화 ‘제59회 수원화성문화제’, 3일간 축제 성료 ‘제59회 수원화성문화제’, 3일간 축제 성료 수원시립미술관, '미디어전 《찬란하게 울리는》' 언론공개회 13일 개최 수원시립미술관, '미디어전 《찬란하게 울리는》' 언론공개회 13일 개최 수원시립미술관, '2022 힐링폴링 수원화성'기간 입장료 50% 할인 수원시립미술관, '2022 힐링폴링 수원화성'기간 입장료 50% 할인 인기뉴스 1 수원시, 9일 시내 일부구간 교통통제...‘정조대왕 능행차 공동재현’ 행사로 수원시, 9일 시내 일부구간 교통통제...‘정조대왕 능행차 공동재현’ 행사로 2 [김충영 수원현미경(90)] 수원의 그린벨트는 50년을 맞았다 [김충영 수원현미경(90)] 수원의 그린벨트는 50년을 맞았다 3 평택-아산-천안 순환철도 가시화 되나...경기-충남 9개 사항 협의 평택-아산-천안 순환철도 가시화 되나...경기-충남 9개 사항 협의 4 [김갑동의 視角] 독자께 감사와 기쁨과 영광을 돌리며 [김갑동의 視角] 독자께 감사와 기쁨과 영광을 돌리며 5 이재준 수원시장, “수원시 자원회수시설 이전하겠다” 이재준 수원시장, “수원시 자원회수시설 이전하겠다” 회사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 로그인 회원가입 경기도 수원시 팔달구 인계로 123 KBS수원센터 2층 (경인방송센터) 대표전화 : 031-211-3262 팩스 : 031-211-3263 이메일 : suwon@suwonilbo.kr 창간일 : 1989-09-30 등록번호 : 경기 아 00001 등록일 : 2005-08-09 대표이사/발행·편집인 : 김갑동 청소년보호책임자 : 정준성 「열린보도원칙」 수원일보는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.고충처리인 정준성 031-211-3362 suwon@suwonilbo.kr 수원일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 수원일보. All rights reserved. mail to suwon@suwonilbo.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도·관광공사, 북미 여행객 유치 확대 총력 &lt; 관광/항공 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도·관광공사, 북미 여행객 유치 확대 총력 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 관광/항공 제주도·관광공사, 북미 여행객 유치 확대 총력 기자명 강지환 기자 입력 2019.05.20 16:16 수정 2019.05.20 18:49 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 캐나다 주요도시 여행업계·미디어 초청...팸투어 진행 제주관광 시장다변화의 주요 시장인 북미 여행객 유치 확대를 위한 상품개발 및 이미지 홍보가 추진된다.제주특별자치도와 제주관광공사(사장 박홍배)는 한국관광공사 토론토지사와 공동으로 지난 19일부터 오는 22일까지 캐나다 주요도시의 여행업계와 미디어를 초청, 제주의 체험 콘텐츠를 소개하는 팸투어를 진행하고 있다고 20일 밝혔다.이번 팸투어는 에어캐나다 한국노선 취항 25주년을 기념하기 위해 마련됐다.팸투어는 토론토와 벤쿠버 등 캐나다 주요도시의 여행업계 8곳과 사회관계망서비스(SNS) 인플루언서를 포함한 미디어 3명으로 구성됐다.특히 이번 팸투어는 캐나다의 주요 소비층으로 부각되고 있는 화교 유치 확대를 위해 화교계 여행사와 미디어를 중심으로 추진된다.팸투어 참가자들은 제주에 머무는 동안 제주허브를 활용한 차 만들기 체험을 비롯해 술 만들기 체험, 올레코스, 전통시장 등 체험 중심의 프로그램을 소화되며 구미주권 관광객이 선호하는 콘텐츠로 이뤄진 상품 개발에 활용할 계획이다. 강지환 기자 wlghks4889@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 도내 32개 공영관광지 운영평가 돌입 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도, 도내 32개 공영관광지 운영평가 돌입 등록 2019.05.15 16:26:21 작게 크게 제주 공영관광지 서귀포 천지연 폭포. (뉴시스 DB) 【제주=뉴시스】강정만 기자 = 제주특별자치도는  도내 32개 공영관광지를 대상으로 오는 6월부터 11월까지 6개월간 운영평가를 실시한다고 15일 밝혔다. 도는 ▲근무자 친절도 및 적극성 ▲불편사항 처리 ▲관광약자 접근성 개선 및 시설 이용 편의성 ▲관광지내 안내판 등 시설관리 상태 ▲콘텐츠 운영·기획 등을 종합적으로 평가할 계획이다. 이와함께 전년도 운영평가 지적사항에 대한 조치결과도 집중 점검해 평가결과에 반영할 예정이다.평가 방식은 서면평가와 암행평가, 전문 리서치 기관에 의뢰해 별도의 만족도 조사로 진행된다. 도는 평가 후 우수관광지 5개소를 선정해 포상하고, 운영이 미흡한 것으로 지적된 공영관광지는 우수관광지의 사례를 본보기 삼아 개선·보완하도록 할 방침이다. 지난해 공영관광지 운영평가에서는 공영관광지 32개소에 총 147건의 지적사항이 나왔다. 현재 각 관광지별로 90% 이상 지적사항 조치가 완료됐다. kjm@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 피플인사이드 "화려한 무대 밖에선 저도 불안한 사람" 싱어송라이터 앤 마리 "BTS의 협업 제안?&amp;nbsp처음엔 못 믿었다" 라우브 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 5서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3 '망값 협상'에 통행세 횡포? 구글의 이중잣대 4文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 5서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 5예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" 김창규 제천시장 47개 공약 확정…"내년 1월 조직개편" 범한퓨얼셀, 12일 기업설명회 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 김태현 "부과체계 개편, 연금 소득 고려 부족 아쉬워" 울산 북구, 제6회 구민대상 후보자 접수…3개부문 시상 'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" 충남대 개교 70주년 기념 '70년 CNU의 리더스피릿' 발간 [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 [창사기획-인구절벽]②전국 시군구 228곳…절반넘는 113곳이 '소멸직전' 위기 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 김대중 교육감 "내년부터 16개군 초등생…20만원 교육수당 지급" 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 김태현 "부과체계 개편, 연금 소득 고려 부족 아쉬워" 'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" [창사기획-인구절벽]②전국 시군구 228곳…절반넘는 113곳이 '소멸직전' 위기 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 범한퓨얼셀, 12일 기업설명회 이복현 "은행권에 금리인하 요구권 개선책 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 김태현 "부과체계 개편, 연금 소득 고려 부족 아쉬워" [창사기획-인구절벽]②전국 시군구 228곳…절반넘는 113곳이 '소멸직전' 위기 김대중 교육감 "내년부터 16개군 초등생…20만원 교육수당 지급" "집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 김창규 제천시장 47개 공약 확정…"내년 1월 조직개편" 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 울산 북구, 제6회 구민대상 후보자 접수…3개부문 시상 충남대 개교 70주년 기념 '70년 CNU의 리더스피릿' 발간 김대중 교육감 "내년부터 16개군 초등생…20만원 교육수당 지급" 김해시, 올해 계약심사 35억 절감…부실시공 예방 "집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 울산시교육청, 사립유치원 42개원 종합 지도·점검 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 '2년차' 스트라이더, 애틀랜타와 최대 7년 1320억원 계약 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석(종합) '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 6울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 7예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도-경희대, 관광분야 빅데이터 플랫폼 구축 추진 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도-경희대, 관광분야 빅데이터 플랫폼 구축 추진 파이낸셜뉴스입력 2019.05.17 17:12수정 2019.05.17 17:13 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 17일 스마트관광연구소와 업무협약 [제주=좌승훈 기자] 제주특별자치도는 17일 경희대학교 스마트관광연구소와 업무협약을 체결했다. 경희대 스마트관광연구소는 2013년 설립됐다. 인터넷전자상거래학회·한국지식경영학회 우수논문상 수상 등 스마트관광 분야에서 성과를 이룩한 바 있다. 도는 이번 협약을 통해 경희대 스마트관광연구소가 축적해온 스마트 관광 분야 연구역량 바탕으로 관광산업의 새 패러다임을 제시하고 경쟁력을 높여 나간다는 방침이다. 도는 올해 빅데이터센터 설립 운영을 통해 빅데이터 활용 생태계 조성에 주력하고 있다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>효리의단골집 제주도 중문 관광단지 맛집 ‘이조은식당’ 대표메뉴 갈치정식 - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-10 오후 09:59:46 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t>제주도·관광공사, 일본 대상 제주 한의약 마케팅 본격화 &lt; 관광/항공 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도·관광공사, 일본 대상 제주 한의약 마케팅 본격화 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 관광/항공 제주도·관광공사, 일본 대상 제주 한의약 마케팅 본격화 기자명 강지환 기자 입력 2019.05.19 13:42 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 일본 환자 유치를 위한 제주 한의약 마케팅이 본격화되고 있다.제주특별자치도와 제주관광공사(사장 박홍배)는 보건복지부, 한국보건산업진흥원과 공동으로 지난 17일부터 19일까지 일본 수도권(치바현)에서 열린 케이콘(KCON)에 참가해 제주 한의약을 홍보했다고 밝혔다.이번 행사에서는 솔담현경철한의원과 조선한의원이 한의약 홍보체험관을 운영해 제주 웰니스에 기반한 면역력증강 치료, 정안침 등 젊은 층을 타깃으로 한 의료상품을 알렸다.또 일본 현지 보건의료 관련 바이어 및 여행사 등 100여 기관과 일본 환자 유치를 위한 비즈니스 상담회를 진행해 협력 채널을 구축했다.한편 케이콘은 한류 관련 의료, 관광, 음식 등을 홍보하는 컨벤션 행사와 한류 스타 콘서트까지 모든 한류 문화체험을 제공하는 세계 최대 한류 페스티벌로 일본과 미국에서 정기적으로 개최되고 있다.제주관광공사는 오는 하반기 일본에서 제주한의약설명회를 개최하고 한방우수상품 체험행사를 진행할 계획이다. 강지환 기자 wlghks4889@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, '송당 농어촌관광 휴양단지' 사업 추진 - 노컷뉴스 전체메뉴보기 노컷뉴스메인가기 제주도, '송당 농어촌관광 휴양단지' 사업 추진 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 CBS 전국 네트워크 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 닫기 크리스천뉴스 노컷비즈 노컷TV 노컷뉴스 전국 최신 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 오피니언 포토 그래픽 노컷브이 핫이슈 스페셜 기획 제보 네이버 구독 다음 구독 카카오 구독 삭제 검색 자동완성 끄기 뉴스 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 지역 서울 경인 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 일반 이슈 핫이슈 스페셜 기획 딥뉴스 노컷체크 인터랙티브 타임라인 시사 김현정의 뉴스쇼 한판승부 김덕기의 아침뉴스 정다운의 뉴스톡 530 오피니언 칼럼 뒤끝작렬 기고 노컷브이 그래픽 포토 노컷TV 씨리얼 팟캐스트 닫기 전국 제주 제주도, '송당 농어촌관광 휴양단지' 사업 추진 제주CBS 고상현 기자 메일보내기 2019-05-12 17:08 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 농업전시시설, 지역특산물판매시설, 돌문화원 등 조성 송당 농어촌관광 휴양단지 조성사업 조감도. (사진=제주도 제공) 제주시 구좌읍 송당리 일대에 농어촌관광 휴양단지 조성사업이 추진된다. 제주도는 제주시 구좌읍 송당리 168번지 일원 6만7000㎡ 부지에 '송당 농어촌관광 휴양단지' 조성사업을 지정‧고시했다고 12일 밝혔다.해당 사업은 ㈜에스앤가든이 오는 2021년까지 송당리 부지에 농업전시시설, 학습관, 돌문화원, 다목적 잔디마당, 지역특산물판매시설, 영농체험시설 등을 조성하는 사업이다. 사업비만 모두 78억 원이 투입된다. 제주도는 지난해 10월 사업자로부터 농어촌관광휴양단지 지정 신청서가 제출된 이후 관련 부서 협의, 주민 의견 수렴, 농업‧농촌‧식품산업정책 심의를 거쳤다.이 과정에서 주차장 확대 조성, 지역주민 고용 확대 등이 요구됐고, 보완이 이뤄지자 지난 8일 사업을 지정‧고시했다.해당 사업은 앞으로 환경 영향평가 심의, 사전 재해영향성 협의 등의 절차만 마무리되면 본격적으로 시행하게 된다. 더 클릭 지적장애 가진 동거녀 딸 엉덩이 깨물고 학대한 50대 모텔서 숨진 5개월 아기…부모가 홀로 두고 장시간 외출했다 신화 신혜성, 도난 차량서 음주측정 거부 혐의…현행범 체포 손목에 체인 묶은 남녀?…아슬아슬 수위 높이는 연애 예능 15살 성매수·몰카 찍은 30대…요구 거부하자 "전세계로 퍼진다" [칼럼]핵위협 공포에 휩싸인 한반도 경찰, 텔레그램 성착취 '엘번방' 18명 검거…유포자 3명 구속 러, 우크라 폭격 '보복' 인정…"푸틴 자존심 상처 때문" "주가 폭락에 올 들어 국내 상장사 시가총액 633조원 증발" 복지장관 340만원, 청년 120만원…연금의 '세대격차' 제주CBS 고상현 기자 메일 0 0 이 시각 주요뉴스 오늘의 기자 많이 본 뉴스 실시간 댓글 투데이 핫포토 오늘의 핫뉴스닫기 / 이전 다음 닫기 노컷뉴스 회사소개 사업 제휴 광고안내 콘텐츠 구매 제보 이용약관 개인정보 취급방침 편집규약 지역노컷 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 인터넷신문 등록번호 : 서울 아00030 | 등록일자 : 2005.08.30(노컷뉴스), 2007.11.05(노컷TV) 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 | ISSN : 2636-0373 노컷뉴스의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷뉴스 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷스포츠 | 인터넷신문 등록번호 : 서울 아04480 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷스포츠의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷스포츠 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷연예 | 인터넷신문 등록번호 : 서울 아04479 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷연예의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2017 by CBS M&amp;C, 노컷연예 all rights reserved.</t>
+  </si>
+  <si>
+    <t>[MHN 제주] 제주도를 알릴 관광상품, 직접 기획해 보세요! &lt; 전국 &lt; 문화 &lt; 기사본문 - 문화뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 매체소개 기사제보 구독하기 보도자료 등록 naverpost facebook instargram twitter navertv MHN 편집 : 2022-10-11 11:46 (화) 문화 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 인터뷰 포토 오피니언 기고·칼럼 리뷰 커뮤니티 보도자료 회원정보 로그인 회원가입 전체메뉴 버튼 최신뉴스 현대차그룹, 부산세계박람회 글로벌 SNS 콘텐츠 4천만뷰 돌파 난민 이의신청 절차, 더 투명해지고 공정해 진다 '2022 서울여성합창페스티벌' 개최...코로나19 이후 3년 만에 재개 안방에서 즐기는 궁궐체험 ‘2022 궁온 프로젝트’ 2차 접수 [22 가을 패션 추천] 제니→크리스탈 '패셔니스타'는 다 입었다...'바시티 자켓' 추천 5 문체부, ‘2022 문화의 달’ 기념행사 개최...다양한 공연 열려 [공연소식] 10월 둘째 주, 주목할 만한 클래식/무용 공연 2022년 10월11일(화) 오늘의운세 띠별, 별자리 [이번주뭐입지?] 힙한 룩부터 프레피 룩 까지...'부츠' 활용한 가을 코디 추천 뮤지컬 '캣츠', 오리지널 연출 부활과 함께 내한 공연 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 [MHN 제주] 제주도를 알릴 관광상품, 직접 기획해 보세요! 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 문화 전국 [MHN 제주] 제주도를 알릴 관광상품, 직접 기획해 보세요! 기자명 이채원 기자 입력 2019.05.16 19:04 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 구글+(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 입상작은 상금과 개발자금, 홍보물 제작, 판로개척 등 지원 출처: 제주특별자치도 [문화뉴스 MHN 이채원 기자] 제주특별자치도는 오늘 16일 ‘제22회 제주특별자치도 관광기념품 공모전’에서 제주를 대표하는 관광기념품을 발굴·육성하겠다고 밝혔다. 올해 공모전의 주제는 제주의 문화, 자연환경, 먹거리, 관광명소 등을 반영한 우수하고 매력적인 민·공예품, 공산품, 가공품 등 국내·외 관광객들이 구매할 수 있는 모든 관광기념품이다. 출품작은 관련분야의 전문가로 구성된 심사위원단의 심사를 거쳐 총 19점의 입상작이 선정된다. 시상 작품 수는 지난해 공모전에 비해 감소했지만, 시상금은 확대된 것으로 알려졌다. 심사는 상품성 60점, 디자인 20점, 창의·실용성 10점, 품질수준 10점으로 총 100점 만점으로 점수가 매겨진다. 특히 올해는 심사 기준의 '상품성' 항목 중 시장성, 가격의 적정성, 운반 및 보관의 용이성 항목이 30점을 차지한다. 즉 실용적이고 대중성을 갖춘 작품을 선정할 방침이라는 것이다. 공모전 입상작에는 상장과 상금 외에 상품개발자금 지원, 대규모 박람회, 홍보물 제작, 온라인을 통한 홍보·판매, 지식재산권 등록 지원의 특전이 주어진다. 입상한 작품의 업체별 지원액은 대상 2천만 원, 금상 1천만 원, 은상이하 5백만 원이다. 지원액 외에 자부담금은 30%이다. 또 온라인 마켓 탐나오 입점 및 판매지원, 유명 박람회 전시지원 등의 지원과 지식재산권 국내출원 비용 지원 및 상품화 기법 특강, 컨설팅 지원 등의 금전적 지원 뿐 아니라 상품화를 위한 실질적 혜택을 제공할 예정이다. 응모자격은 제한이 없으며, 공모전 출품을 원하는 업체 및 개인은 오는 6월 3일부터 6월 14일까지 참가신청서와 출품작을 제주특별자치도관광협회로 접수하면 된다. 양기철 제주특별자치도 관광국장은 “이번 공모전은 실용적이고 시장성을 갖춘 작품선정에 노력할 예정”이라며, “수상작에 대한 상품화지원 및 홍보를 적극 지원하는 만큼, 도내 우수한 개인 및 기업의 많은 참여를 바란다”고 설명했다. 주요기사 연금복권의 현재가치 계산! 연금복권 720 +, 일시불로 따지면 얼마? 제임스 웹 망원경이 보내온 첫 번째 사진...허블 망원경과 차이점은? 2022년 9급 공무원 월급과 연봉...과연 최저시급보다 적을까? [포토] 한소희 '예쁜 미소' 관련기사 [MHN 광주] 6월, 광주에서 맥주축제 '비어고을 광주' 열려[MHN 태백] '태백 가볼만한곳' 2019 태백산 철쭉 전국등반대회 이채원 기자의 다른 기사 보기 이채원 기자 press@mhns.co.kr 독자와 공감을 통해 더 나은 내일을 만들겠습니다. 최신기사 인기기사 저작권자 © 문화뉴스 무단전재 및 재배포 금지 포토 신하균-한지민-이정은, '욘더'로 만나요 [포토] 신하균, 남다른 품격 [포토] 한지민, '욘더' 색다른 변신 기대하세요 [포토] 한지민, 러블리 가을 패션 [포토] 이정은, 부산국제영화제 첫 참석 [포토] 정진영, '욘더'로 인사드려요 [포토] 신하균, 목폴라도 품격있게 만든다 [포토] '욘더' 이준익 감독 [포토] 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 러브컨템포러리아트, 닥설랍 개인전 'Blurry Romanticism' 개최 [이상진 디렉터의 캘리문화] (6) 첩첩석중(疊疊石中) 아르코미술관, 대만과 한국-대만 비디오 교류 프로그램 개최 신하균-한지민-이정은, '욘더'로 만나요 [포토] 신하균, 남다른 품격 [포토] 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 (04050) 서울특별시 마포구 양화로 156 (LG팰리스빌딩) 1727 대표전화 : 0269593256 팩스 : 023221666 법인명 : (주)엠에이치앤미디어 제호 : 문화뉴스 등록번호 : 서울 아 03015 등록일 : 2014-02-18 발행일 : 2014-02-18 발행·편집인 : 주진노 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.고충처리인 권혁재 02-6959-3256 press@mhns.co.kr Copyright © 2022 문화뉴스. All rights reserved. mail to eveleva@naver.com 위로 전체메뉴 전체기사 문화 전체 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 전체 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 전체 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 전체 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 전체 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 전체 인터뷰 오피니언 전체 기고·칼럼 리뷰 포토 보도자료 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 관광사업체 컨설팅 지원…17일까지 접수 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 제주도관광협회, 관광사업체 컨설팅 지원…17일까지 접수 (제주=뉴스1) 강승남 기자					| 2019-05-13 11:03 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 제주도청 전경.(제주도 제공)© News1 제주도와 제주특별자치도관광협회(회장 김영진)는 5월부터 12월까지 도내 관광사업체를 대상으로‘관광사업체 컨설팅 지원을 통한 경쟁력 강화사업’을 추진한다고 13일 밝혔다. 컨설팅 지원은 도내 관광사업체가 대상이며, 경영‧마케팅 두 분야로 진행된다. 경영 컨설팅의 경우 마케팅, 품질 및 서비스 개선, 매출증대 방안 등에 대해서 지원을 받을 수 있다. 마케팅 컨설팅은 소셜미디어 콘텐츠 작성법, SNS운영 관리 방안 등에 대해 도움을 받을 수 있다. 컨설팅 지원 참여 신청은 17일까지 관광협회 홈페이지를 통해 가능하다. 관광협회 관계자는 “관광사업체 공급과잉과 외국인 관광객 감소로 영업에 어려움을 겪고 있는 도내 관광사업체들에게 컨설팅을 지원함으로써 사업체의 경쟁력 강화를 통해 경영난을 해소할 수 있을 것으로 기대된다”고 말했다. ksn@ &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 핫뉴스 이지현 "돌싱 둘째남편 시댁서 아이들 거부…살림 못 합쳤다" 선우은숙, 4살 연하 유영재 아나운서와 결혼 "최근 혼인신고" 안현모, 재혼언급 "원하는 삶 살아줄 女 만나"…라이머 당혹 한동훈 어록 출판사 "韓, 거부땐 제작 중단…아무말 없었다" '남궁민♥' 진아름, 화사한 웨딩드레스 자태 "예쁘게 살 것" 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 'K패션의 미래가 한자리에' [국감]유병호 "문자 송구스러워…소통은 정상적" 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 탭메뉴 스포츠 연예 스타일 스포츠 프로농구 10개구단 감독들이 뽑은 새 시즌 우승후보는? KT… 2위 SK '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>"제주도를 알릴 대표 관광기념품을 찾습니다" - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; "제주도를 알릴 대표 관광기념품을 찾습니다" 파이낸셜뉴스입력 2019.05.17 09:50수정 2019.05.17 11:59 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 제22회 제주도 관광기념품 공모전…6월13일~14일 접수 제주도 관광기념품 공모전 수상작인 제주보리를 발효한 술 ‘JEBA’. fnDB [제주=파이낸셜뉴스 좌승훈 기자] 제주특별자치도는 제주를 대표하는 관광기념품을 발굴·육성하기 위해 ‘제22회 제주특별자치도 관광기념품 공모전’을 진행한다. 출품작은 제주의 문화, 자연환경, 먹거리, 관광명소 등을 반영한 우수하고 매력적인 제주관광기념품 분야로 실용적이고 시장성을 갖추면 된다. 응모자격은 제한이 없으며, 공모전 출품을 원하는 업체 및 개인은 오는 6월3일부터 14일까지 참가신청서와 출품작을 제주특별자치도관광협회(제주종합비지니스센터 3층)로 접수하면 된다. 출품작은 관련분야 전문가로 구성된 심사위원단의 심사를 거쳐 총 19점의 입상작(대상 1점, 금상 2점, 은상 4점, 동상 4점, 장려상 8점)을 선정할 예정이다. 공모전 입상작에 대해서는 상장과 상금 외에 상품개발자금 지원, 대규모 박람회, 홍보물 제작, 온라인을 통한 홍보·판매, 지식재산권 등록 지원의 특전이 주어진다. 입상작 상품개발자금 지원은 예산 범위 내(7000만원)에서 수상 순위를 우선으로 지원하며, 업체별(개인) 지원액은 대상 2000만원, 금상 1000만원, 은상 이하 500만원이다. 자부담금은 30%다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도 한림읍 관광테마파크에 영천은하수길 등 홍보거점 마련 로고 사회 지면보기 구독신청 기사제보 로그인 회원가입 | 유튜브 페이스북 전체보기 사회일반사건사고복지·노동보건의료환경반려동물 검색 오피니언사설기자칼럼전문가칼럼기고 사회사회일반사건사고복지·노동보건의료환경반려동물 정치정치일반대통령·중앙행정대구·경북 행정대구·경북의회국방·북한 경제경제일반증시·금융부동산자동차취업·창업IT·모바일 스포츠스포츠일반야구축구농구·배구·핸드볼골프 문화문화일반공연·전시책운세기타 건강건강일반병원소식질환 영상영상뉴스송국건의혼술이지핏부동산공부방 위클리포유위클리포유일반여행/레저위클리영화패션·뷰티푸드칼럼 에듀포유대학·입시중·고등초등·유아대구경북교육청에듀포유일반 포토 포토뉴스 지역뉴스 경북동부 경북중부 경북북부 대구근교 대구 교육/과학교육과학 국제국제일반미국일본중국유럽 동정동정일반결혼부고알림인사 기획/특집기획/특집 연재 연재 시민기자시민기자 연예연예일반방송영화 웹툰웹툰플레이툰 독자투고 독자투고 기사제보 공지사항 x 검색버튼 제주도 한림읍 관광테마파크에 영천은하수길 등 홍보거점 마련 유시용 | 입력 2019-05-20   |  발행일 2019-05-20 제9면 |  수정 2019-05-20 인쇄 글자작게 글자크게 카카오톡 페이스북 트위터 카카오스토리 전체 네이버밴드 네이버블로그 [영천] 제주도 한림읍 관광테마파크인 ‘탐나라공화국’에 영천의 관광홍보 거점이 마련됐다. 이곳에 영천의 별을 상징해 만든 영천은하수길을 비롯해 정자인 영천쉼표·영천삼휴정이 조성됐다. 최기문 영천시장은 지난 17일 제주를 방문, 탐나라공화국 상상그룹(대표 강우현)과 관광산업발전을 위한 상생협약을 체결했다. 협약식에서 두 기관은 △영천시 관광산업활성화를 위한 자문과 콘텐츠 개발 △영천시민 현장견학 때 할인혜택 부여 △탐나라공화국 보세구역 내 영천특산물 홍보 편의제공 등 관광 환경 조성에 협력하기로 약속했다. 아울러 이날 영천쉼표·삼휴정 현판식과 영천별빛한우 포장 박스 전시회, 영천와인 시음회가 열렸다. 탐나라공화국은 남이섬 성공 신화의 주인공인 강우현 대표가 사비로 조성한 관광테마파크다. 최기문 시장은 “영천시가 관광도시로 새롭게 도약할 수 있도록 새로운 관광 콘텐츠를 배워 본격적인 도전을 시작하겠다”고 말했다. 유시용기자 ysy@yeongnam.com 영남일보(www.yeongnam.com), 무단전재 및 수집, 재배포금지 사회인기뉴스 완전한 일상회복 기대감…야외 마스크 해제 후 첫 대구 대형 콘서트 '북적'11일부터 '우회전 일시정지' 계도기간 종료…경찰 "신호등보다 사람 기준으로 봐야" 영남일보TV 라이브리댓글 작성을 위해 JavaScript를 활성화해주세요. 기획 더보기 원자재값 급등·반도체 핵심원료 공급불안정…자원무기화·탄소중립화 시대 대응 방안은? [대구의 미래 청년기업 .9] 스포츠 기업 '디에스그룹'…은퇴 체육인 새로운 진로 개척 '인생 2모작' 돕는 사회적 기업 [인구절벽시대 우리 지역 우리가 지키자 .10] 옛 가야대 고령캠퍼스 현주소…대학촌 폐업·공실 사태로 슬럼화 시민사회는 지금 더보기 "녹조 창궐 영주댐, 환경부 불법 담수 그만" 대구 참여연대 "들러리 대구시의회 규탄" Remember! 대구 경북 디아스포라 더보기 대구 경북 아픈역사의 현장 더보기 영남일보TV 더보기 [영남일보 창간 77주년 축하인사] 유승민 국민의힘 전 의원 많이 본 뉴스 최신 주간 월간 원희룡 장관 이번엔 경산 방문...보수 텃밭 다지기 벌써 시동? 1 완전한 일상회복 기대감…야외 마스크 해제 후 첫 대구 대형 콘서트 '북적' 2 '업무수행 잘한다' 홍준표 대구시장 53.6%-이철우 경북도지사 58.2% 3 코로나에 첫 스텝 꼬인 사자, 재계약 베테랑 부진 겹쳐 '털썩' 4 [속보] 제1036회 로또 1등 당첨번호 2, 5, 22, 32, 34, 45 5 11일부터 '우회전 일시정지' 계도기간 종료…경찰 "신호등보다 사람 기준으로 봐야" 6 기준금리 공포에 벌벌 떤다…영끌족 "어떡하나" 멘붕 7 만원 관중 앞 '유종의 미' 거둔 삼성...2022시즌 한국프로야구 7위로 마무리 8 홍준표 대구시장 "시·도지사가 광역 부단체장 천거할 수 있도록 해달라" 9 추경호 경제부총리, 5개월 만에 지역구 공식 방문…군민들 '환호' 10 "나만 안 돼?"…4일 오후 2시15분쯤 '카카오톡 먹통' 1 '나는 돌아가고 싶다' 72년간 썩지 않은 참전용사 군화…칠곡 572고지에서 발견 2 대구 미분양 8천가구 넘어 '전국 최다'…거래절벽 심화 3 오에스피·탑머티리얼 공모주 첫날 경쟁률, 에스비비테크 오전 11시 현재 경쟁률 4 대구시, 정부 규제개혁 차원 '대형마트 주중 휴무' 시범실시 추진 5 오에스피·탑머티리얼 공모주 첫날 오후 1시 경쟁률은? 6 서른 하나 서울토박이가 경북 상주서 양조장 차렸다 7 유승민, 범보수 대권 적합도 '깜짝 선두'…경쟁 주자들 견제 나서 8 구미산단 외투단지 LCD용 광학필름 제조업체 화재…대응 2단계 발령 9 민선 8기 출범 100일, 대구시정에 대한 시민 평가는? 10 '리플' 7일간 47%급등 왜?…비트코인 1만9000달러 회복 1 "나만 안 돼?"…4일 오후 2시15분쯤 '카카오톡 먹통' 2 대구경북통합신공항 민간공항 활주로 길이 3.8㎞, 시간당 50회 이착륙 목표 3 날개꺾인 대구국제공항...일본.대만 노선 없어 시민들 김해로 4 '금호강 르네상스' 100리 연결 레저공간 조성…지속가능한 금호강으로 '글로벌 내륙수변도시' 대구 추진 5 대구도시철도 순환선 'AGT 방식' 검토…노선 재점검 가능성도 6 대구도시철도 순환선의 방향은?…유력 'AGT방식' 특징·향후 과제는 7 [속보] 대구 수성구·포항 남구, 조정대상지역 해제 8 [단독-포토뉴스] 국민의힘 이준석 전 대표 포항 수해 복구 봉사활동 9 대구행복페이 올해 예산도 모두 소진…연말까지 충전 안돼 10 오늘의운세 더보기 &gt; 닭띠 10월 11일 ( 음 9월 16일 )(오늘의 띠별 운세) (생년월일 운세) 영남생생 News 안동시, 노인맞춤돌봄서비스 효자 노릇 '톡톡' 시리즈 아이콘 안동 하회마을 선유줄불놀이 화려한 불꽃 매력 발산 시리즈 아이콘 대구본사 : 대구광역시 동구 동대구로 441(신천동 111번지) Tel. 053-756-8001 Fax. 053-756-9011 경북본사 : 경상북도 안동시 풍천면 수호로 59 우대빌딩 4층​ Tel. 054-857-9393 Fax. 054-857-8602 서울지사 : 서울특별시 중구 세종대로 124 프레스센터 11층 Tel. 02-738-9815 Fax. 02-738-8005 인터넷신문등록 : 대구 아00221 등록일자 : 2017.05.23 발행인 · 편집인 · 인쇄인 : 노병수 사업자등록번호 : 502-81-25414 법인명 : (주)영남일보 대표자 : 노병수 푸터로고 회사소개 개인정보취급방침 외간인쇄 구독신청 광고안내 청소년 보호정책(책임자 : 김기오, 서용덕) 언론 윤리 강령 신문윤리위 서약서 공정언론 편집규약 고충처리인 영남일보 뉴스를 만나보세요 페이스북 트위터 카카오스토리 유튜브 로그인 ㅣPC버전 Copyright ⓒ 2019 yeongnam All right reserved</t>
+  </si>
+  <si>
+    <t>제주도·관광협회, 어린이 관광 아카데미 발대식 개최 &lt; 관광/항공 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도·관광협회, 어린이 관광 아카데미 발대식 개최 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 관광/항공 제주도·관광협회, 어린이 관광 아카데미 발대식 개최 기자명 강지환 기자 입력 2019.05.19 14:11 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주특별자치도와 제주도관광협회(회장 김영진)는 지난 18일 학생 및 보호자 70여명이 참여한 가운데 제주종합비즈니스센터에서 어린이 관광 아카데미 발대식을 개최했다.이날 발대식은 참가자를 대상으로 어린이 관광 아카데미의 운영에 대한 설명이 이뤄졌다.이어 활동물품(모자, 수첩 등)이 지급됐다.특히 제주의 3대 항일운동인 조천만세운동을 주제로 인형극이 진행돼 임시정부 및 3·1운동 100주년 의미를 되새겼다.한편 참가자들은 이번 발대식을 시작으로 오는 6월 동백동산습지센터, 7월 올레바당체험마을, 8월 국립제주박물관, 9월 낙천리의자마을, 10월 렛츠런팜을 방문해 제주의 관광과 역사, 문화, 자연을 접목한 교육을 체험할 예정이다.어린이 관광 아카데미는 기존 성인으로 한정된 관광교육을 초등학생으로 확대 운영해 제주관광에 대한 아이들의 관심을 높이고, 생태관광, 지역관광 등 다양한 관광형태에 대한 이해로 미래 관광 인재양성의 기반을 마련하기 위해 마련됐다. 강지환 기자 wlghks4889@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>국내 최대 관광지 제주도…용머리 관광지에 들어선 ‘플레이사계’ 상가 분양 - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-10 오후 09:59:46 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t>제주도, 관광시장 다변화 적극 모색...지역 팸 투어 진행 - 아시아투데이 아시아투데이 서울 다른도시13.2℃ 춘천강릉서울인천충주대전대구전주울산광주부산제주 뉴델리 22℃ 도쿄 24.9℃ 베이징 16℃ 자카르타 30℃ 네이버뉴스스탠드 네이버 포스트 유투브 페이스북 트위터 최신 오피니언 사설 칼럼·외고 기자의 눈 피플 정치 정치일반 대통령실 국회·정당 북한 외교 국방 정부 사회 사회일반 사건·사고 법원·검찰 교육·행정 노동·복지·환경 보건·의약 경제 경제일반 정책 금융·증권 산업 IT·과학 부동산 유통 중기·벤처 아투시티뉴스 종합 경기·인천 세종·충청 영남 호남 강원 제주 국제 세계일반 아시아·호주 북미 중남미 유럽 중동·아프리카 문화·스포츠 전체 방송 가요 영화 문화 종교 스포츠 여행 포토 전체 포토 비주얼뉴스 지면보기 제보24시 자문위원단 독자권익위원회 아투TV 대학동문골프최강전 글로벌 리더스 클럽 English中文 제주도, 관광시장 다변화 적극 모색...지역 팸 투어 진행 높이뛰기 간판 우상혁, 내년부터 용인시청 소속으로 재도약 [투데이갤러리]카타기리 카즈야의 '종이 사구' 2022년 10월 11일(화) 사통팔달 피플 아투시티초대석 볼거리 전체메뉴 종합 경기·인천 세종·충청 영남 호남 강원 제주 검색버튼 제주도, 관광시장 다변화 적극 모색...지역 팸 투어 진행 기사승인 2019. 05. 21. 09:28 가 (더 작게) 가 (작게) 가 (기본) 가 (크게) 가 (더 크게) 제주관광공사,북미 지역 집중 공략캐나다 방한 관광객 성장세 지속,올해 20만 돌파 예상 제주 양준호 기자 = 제주특별자치도가 북미 여행객을 타겟으로 한 공세적인 마케팅에 나서는 등 제주 관광 시장의 다변화를 적극 모색하고 있다.제주관광공사는 19~22일 한국관광공사 토론토 지사와 공동으로 토론토와 밴쿠버 등 캐나다 주요 도시 여행 업계 및 미디어를 초청, 제주 팸 투어를 진행한다.팸 투어는 제주 허브를 활용한 차 만들기와 술 빚기 체험, 올레 코스 걷기, 전통 시장 방문 등 체험 프로그램 위주로 구성돼 있다. 이번 행사는 에어캐나다 한국 노선 취항 25주년을 기념해 마련 됐으며 캐나다 주요 도시 여행사 8곳과 소셜 미디어 인플루언서 등 미디어 관계자들이 참가했다.특히 이번 팸 투어는 캐나다 주요 소비층으로 부각되고 있는 화교 유치 확대를 위해 화교계 여행사와 미디어를 중심으로 추진됐다. 우리나라를 찾은 캐나다 관광객은 2010년 12만1214명에서 지난해 19만2259명으로 대폭 확대 된데 이어 올해는 20만명을 넘어설 것으로 전망된다.현창행 제주관광공사 본부장은 “캐나다의 경우 평창 동계 올림픽을 연계한 마케팅을 추진해 왔다”며 “미국과 함께 꾸준하게 방한 성장세를 보이고 있는 캐나다 대상 마케팅 강화를 통해 제주 관광 시장 다변화를 꾀할 방침”이라고 말했다. 양준호 기자 &gt; truth116@asiatoday.co.kr ⓒ아시아투데이, 무단전재 및 재배포 금지 댓글 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 실시간 호남 四通八達 1 미주한인회총연합회, 고창군과 ‘교류방안’ 논의 2 광양시-포스코, 구봉산 정상에 화합·상생 상징물 건립.... 3 부안해경, 해양안전저해사범·인권침해사범 특별단속 실시 4 목포, 주암댐 ‘가뭄심각’ 장흥댐 용수 사용전환 위해 ‘.. 5 고흥, 친환경 양식 클러스터 조성 1100억원 투자협약... 6 남쪽 산타마을 ‘담양산타축제’...3년만에 열린다 7 ‘전남 음식의 세계화’ 남도음식문화큰잔치 ‘성공’...1.. 오늘의 주요뉴스 “네이버, 소상공인 기금 일부 유용”…네이버 “입장없다” ‘부동산 매물정보 갑질’ 네이버 최수연 첫 재판 연기 이해진 “라인 韓기업이라면, 네이버 韓 아닌 외국기업” 尹, 친일국방 공세에 “北위협 어떤 우려 정당화되나” 유승민 “李, 中 3불 강요 ‘한미일 군사동맹’ 쓰지말라” 건보개편 후폭풍?…국민연금 자발적 가입자 첫 감소 홍준표, 당권주자 겨냥 “배신 경력자는 나오지 말라” ‘신화’ 신혜성, 도난차량서 음주측정 거부하다 체포 신규확진 1만5476명 감소세…사망 10명, 석달새 최소 ‘다사다난’ 오세훈 시장 취임 100일…성과와 과제는 글로벌리더스클럽 회사소개 | 광고안내 | 행사안내 | 구독신청 | 제보24시 | 고충처리 | 회원약관 | 개인정보취급방침 | 청소년보호정책 | 저작권규약 | 인재채용 등록번호 : 서울 아00160 | 등록일 : 2006년 1월 18일 | 제호 : 아시아투데이 | 회장 : 송인준 | 발행인ㆍ편집인 : 우종순 서울시 영등포구 의사당대로1길 34 인영빌딩 | 발행일자 : 2005년 11월 11일 | 대표전화 : 02) 769-5000 | 청소년보호책임자 : 성희제 아시아투데이는 인터넷신문위원회 윤리강령을 준수합니다. Copyright by ASIATODAY Co., Ltd. All Rights Reserved</t>
+  </si>
+  <si>
+    <t>제주도, 17억원 투입 관광약자 위한 편의시설 확충 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도, 17억원 투입 관광약자 위한 편의시설 확충 등록 2019.05.02 11:03:28 작게 크게 제주도 CI.【제주=뉴시스】강정만 기자 = 제주특별자치도는 17억500만원을 투입해 관광약자들을 위해 6개의 '장애물 없는 관광환경 조성사업'을 추진한다고 2일 밝혔다. 도는 서복전시관, 천제연폭포, 성산일출봉, 제주목관아, 올레7코스 등 공영관광지 5곳에 장애인 화장실과 점자블럭확충, 경사로와 진입로·관람로 개선, 연속 손잡이등 관광약자 전용 편의시설을 확충할 계획이다. 또 사설관광지와 음식점, 숙박업 등 관광사업체를 대상으로 관광약자 편의시설 정비사업 수요조사 후 희망하는 업체에는 경사로와 장비, 장애인화장실 개선사업과 휠체어, 유모차 등 편의시설 장비 구입비를 일부 지원해주기로 했다. 관광약자를 위해 관광안내센터의 관광약자 전용상담을 위한  콜센터를 운영하고, 이달 내로 안내센터를 제주관광정보센터가 있는 제주웰컴센터로 이전해 종합적인 관광정보를 제공한다. kjm@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 오피니언 팝밴드 레이니 최고 뮤지션 아니지만 현재의 우리는 최고 국내 의약품 허가심사 수수료 인상의 당위성 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 5서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3 '망값 협상'에 통행세 횡포? 구글의 이중잣대 4文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 5서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 5예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" 김창규 제천시장 47개 공약 확정…"내년 1월 조직개편" 범한퓨얼셀, 12일 기업설명회 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 김태현 "부과체계 개편, 연금 소득 고려 부족 아쉬워" 울산 북구, 제6회 구민대상 후보자 접수…3개부문 시상 'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" 충남대 개교 70주년 기념 '70년 CNU의 리더스피릿' 발간 [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 [창사기획-인구절벽]②전국 시군구 228곳…절반넘는 113곳이 '소멸직전' 위기 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 김대중 교육감 "내년부터 16개군 초등생…20만원 교육수당 지급" 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 김태현 "부과체계 개편, 연금 소득 고려 부족 아쉬워" 'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" [창사기획-인구절벽]②전국 시군구 228곳…절반넘는 113곳이 '소멸직전' 위기 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 범한퓨얼셀, 12일 기업설명회 이복현 "은행권에 금리인하 요구권 개선책 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 김태현 "부과체계 개편, 연금 소득 고려 부족 아쉬워" [창사기획-인구절벽]②전국 시군구 228곳…절반넘는 113곳이 '소멸직전' 위기 김대중 교육감 "내년부터 16개군 초등생…20만원 교육수당 지급" "집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 김창규 제천시장 47개 공약 확정…"내년 1월 조직개편" 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 울산 북구, 제6회 구민대상 후보자 접수…3개부문 시상 충남대 개교 70주년 기념 '70년 CNU의 리더스피릿' 발간 김대중 교육감 "내년부터 16개군 초등생…20만원 교육수당 지급" 김해시, 올해 계약심사 35억 절감…부실시공 예방 "집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 울산시교육청, 사립유치원 42개원 종합 지도·점검 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 '2년차' 스트라이더, 애틀랜타와 최대 7년 1320억원 계약 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석(종합) '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 6울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 7예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도관광협회, '어린이 관광 아카데미' 발대식 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 13:03 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, '어린이 관광 아카데미' 발대식 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 사회 제주도관광협회, '어린이 관광 아카데미' 발대식 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2019.05.18 14:35 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도와 제주특별자치도관광협회(회장 김영진)는 18일 학생 및 학부모 70여명이 참가한 가운데 제주종합비즈니스센터에서 어린이 관광 아카데미 발대식을 개최했다.발대식에서는 참가자를 대상으로 어린이 관광 아카데미의 운영에 대한 설명과 함께 활동물품(모자, 수첩 등)이 지급됐다.이날 행사에서는 임시정부 및 3·1운동 100주년 의미를 되새기기 위한 제주의 3대 항일운동인 조천만세운동을 주제로 인형극이 펼쳐졌다.어린이 관광 아카데미는 앞으로, 6월 동백동산습지센터, 7월 올레바당체험마을, 8월 국립제주박물관, 9월 낙천리의자마을, 10월 렛츠런팜을 방문해 제주의 관광과 역사, 문화, 자연을 접목한 체험교육 등의 내용으로 진행된다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도, 중국 화장품기업 인센티브 관광객 1500명 유치 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도, 중국 화장품기업 인센티브 관광객 1500명 유치 파이낸셜뉴스입력 2019.05.02 10:44수정 2019.05.02 15:28 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 익성한삼 코스메틱, 6월 9~13일 제주포상관광올들어 6건 유치 인센티브 관광시장 회복 조짐 제주국제공항 국제선 대합실. fnDB [제주=파이낸셜뉴스 좌승훈 기자] 제주특별자치도는 오는 6월 9일부터 13일까지 4박 5일 일정으로 중국 익성한삼 코스메틱(益盛汉参化妆品有限公司) 직원 1500여명이 제주에서 인센티브(포상) 관광을 갖는다고 2일 밝혔다. 중국기업의 제주 인센티브관광은 지난 2016년 20건에 이르렀지만, 2017년 사드(고고도 미사일 방어체계) 사태가 불거진 뒤 2건으로 급락했고, 2018년에도 5건에 그쳤다. 하지만 올 들어서는 현재 6건을 유치함으로써 회복 조짐을 보이고 있다. 도는 제주컨벤션뷰로와 함께 중국 마이스(MICE) 전문 박람회와 중화권 마이스 로드쇼에 꾸준히 참가해 중국 인센티브 관광객 유치에 공을 들여왓다. 한편 익성한삼 코스메틱은 익성제약그룹의 자회사로 화장품과 건강식품을 주력제품으로 생산 판매한다. 길림성 집안시에 본사를 두고 있으며, 북경 행정본부와 12개 지사를 운영하고 있다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문 가볼만한 곳과 관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 옥돔구이 서비스 &lt; 생활·문화 &lt; 오늘공감 &lt; 기사본문 - 공감신문 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집 : 2022-10-11 13:05 (화) 전체기사 로그인 회원가입 전체 딥터뷰 경제공감 경제일반 금융/증권 산업/IT 종합 입법공감 종합 정치공감 종합 오늘공감 사회 생활·문화 인사/부고 종합 지역공감 칼럼공감 최종현 학술원 이슈앤속보 자문위원 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 서귀포 중문 가볼만한 곳과 관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 옥돔구이 서비스 SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 스크롤 이동 상태바 현재위치 홈 오늘공감 생활·문화 제주도 서귀포 중문 가볼만한 곳과 관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 옥돔구이 서비스 기자명 인터넷뉴스팀 입력 2019.05.24 09:24 댓글 0 SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 바로가기 메일보내기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 닫기 계절의 여왕 5월을 맞이하여 제주도를 찾는 여행객이 많다. 특히 서귀포시 남원읍 신례리 한라산 자락에 위치하고 있는 휴애리는 자연생활 체험공원으로 2월~3월은 제주에서 봄을 가장 먼저 알리는 매화축제가 시작되는 곳이다. 요즘 휴애리는 공원 곳곳에서 수국과 산수국을 함께 볼 수 있는 수국축제가 한창이라 제주를 찾는 이들에게 아름다운 꽃잔치를 펼쳐 보이고 있다.공원 안에는 다양한 포토존이 있어 멋진 사진을 남길 수 있으며, 축제 외에도 승마체험, 동물교감체험 등 다양한 체험프로그램이 마련되어 있어 커플이나 가족단위 여행객들에게 즐거움을 선사하고 있다. 그리고 산토끼, 흑염소, 타조, 오리, 흑돼지, 말 등의 다양한 동물들에게 직접 먹이를 줄 수 있으며, 돌탑쌓기, 투호던지기, 굴렁쇠 체험도 가능하다.5월 하순부터 6월까지는 매실따기 체험도 가능하다. 매실따기체험은 가족과 함께 매실을 직접 따면서 체험해 볼 수 있는 프로그램으로 어린이들에게 자연의 열매를 수확하는 기쁨을 줄 수 있다. 그리고 곤충테마관에서는 토종 곤충과 장수풍뎅이, 사슴벌레, 수중 생물 등 제주도에 서식하는 여러 곤충들을 관찰할 수 있으며, 살아 있는 귀뚜라미의 생활하는 모습과 울음소리 등을 감상해 볼 수 있다.아울러 제주의 전통을 엿볼 수 있는 전통문화 소개 공간도 공원 곳곳에서 볼 수 있다. 집주인의 외출을 이웃에게 알리는 ‘정낭’과 물을 깃는데 사용하던 ‘물허벅’, 그리고 ‘통시’(재래식 화장실’ 등을 구경할 수 있다. 여행에서 빼 놓을 수 없는 것이 바로 맛집 탐방이다. 제주도 서귀포 중문 맛집 '기원뚝배기'는 싱싱한 제주산 통갈치와 문어 등 각종 해물을 넣어 요리한 해물갈치조림이 주력 메뉴다. 갈치는 특유의 비린 냄새가 있어 이를 잡아야만 고소하고 담백한 법. 그래서 이 업소는 약초로 숙성한 양념을 사용하고 있어 맛이 아주 뛰어나다. 실제 양념 맛이 좋아 밥과 양념을 비벼 먹는 손님들이 많다.제주 맛집 ‘기원뚝배기’에서 해물갈치조림을 주문하면 서비스로 옥돔구이와 성게국이 나온다. 서비스로 나오는 옥돔구이와 성게국 외에도 국내산 재료로 직접 만든 밑반찬도 맛깔스럽다. 밑반찬은 매일 새벽 전라도 엄마의 손맛을 담아 당일 손님에게 제공할 반찬을 직접 만들고 있다. 그리고 해물갈치조림에는 문어는 물론 생전복과 새우 등 다양한 해산물이 들어가기 때문에 푸짐한 식사가 가능하다. 그 밖에 통갈치조림정식 세트 메뉴에도 옥돔구이와 성게국을 서비스로 제공하고 있는데 정식 A세트의 경우 기본적으로 제공하는 옥돔구이와 성게국에 추가하여 옥돔구이 1개와 성게국 한 그릇을 더 제공하고 있다.한편 제주도 맛집 기원뚝배기는 이른 아침 여행을 떠나는 이들을 위해 오전 6시부터 오후 10시까지 연중무휴로 영업하고 있다. 든든한 아침 식사 메뉴는 물론 해장 메뉴도 있어 많은 손님이 아침식사를 위해 방문하고 있으며, 제주도 서귀포 중문 가볼만한 곳과 함께 관광단지 맛집으로 잘 알려져 있다. 저작권자 © 공감신문 무단전재 및 재배포 금지 인터넷뉴스팀 news@gokorea.kr 다른기사 보기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 주요기사 [박상기의 재미있는 협상이야기] 바이든의 칩4 와 IRA가 촉발한, 한국 미국 협상총력전 치열한 카드 빅4 경쟁…앱 사용자 분포는? 하영제 의원, 사천·남해·하동 하반기 특별교부세 56억원 확정 최영희 “국민연금, ‘스튜어드십 코드’ 도입 이후 기업경영간섭 심각" 윤재갑 의원, 지역농협 비상임조합장 무제한 연임 제한 `농협법 개정안' 발의 '대세 걸그룹' 뉴진스, 신한은행 '뉴 쏠' 모델 발탁 당신만 안 본 뉴스 "너무 무서웠다" 돈스파이크 와이프 성하윤 두려움에 떨었던 이유는? '천원짜리 변호사' 김지은, 낯익다 했더니 ITZY 류진·한소희·손나은 닮은꼴 '마약 혐의' 돈스파이크 입건에 성하윤 프로필·직업·인스타 관심 [특징주] 오성첨단소재 주가 급등세… 이유는? '소상공인 손실보상 2분기' 신청 시작... 대상·신청 방법은? [내일날씨] 전국 흐리고 비내려...일부 돌풍에 천둥·번개까지 '확인 방법 이렇게' 상생소비복권 당첨자 30일 발표...지급일 언제? "너무 무서웠다" 돈스파이크 와이프 성하윤 두려움에 떨었던 이유는? 오늘공감 치열한 카드 빅4 경쟁…앱 사용자 분포는? '그림으로의 치유'…장수희 작가, 제8회 개인전 '노스텔지아' 개최 서울시교육청, 오는 28일까지 ‘빅데이터 활용 아이디어’ 공모 아빠의 무관심이 미덕(?)...초딩 아빠와 교장샘이 함께 춤을 추는 학교 한국화의 서태지 신동철 화백, 40회 개인전 ‘유몽고금(遊夢古今)’ 인기기사 1 [조봉현의 스타트업경제] 과거와 다른 高환율, 어디로 튈까? 2 조경태, "국민을 피해자로 만드는 '국회의원 면책특권' 폐지하라" 3 박수영 “국립대 교수 일가에게 놀아난 한전 자회사들…정부가 전수조사 해야" 4 유럽 출장길 오른 손태승 회장… UNEP FI 등과 국제협력 논의 5 외국인 고액 체납자 절반은 출국… 국세청 관리체계 구멍 6 대한민국 시·도의회의장협의회 김현기 회장, 제2회 중앙지방협력회의 참석 7 5년간 국민 1인당 세부담 300만원 늘어 8 양정숙 의원, "보험사, 은행, 정보보안·개인정보 보호 인증 안 받아" 9 김상훈 의원, 작년 국민 1인당 세금부담 1천199만원…2017년 이후 300만원 증가 10 4분기 제조업 '경기 악화' 전망 기업 ↑…“환율 상승에 원자재 비용 부담” 최신기사 [박상기의 재미있는 협상이야기] 바이든의 칩4 와 IRA가 촉발한, 한국 미국 협상총력전 치열한 카드 빅4 경쟁…앱 사용자 분포는? 하영제 의원, 사천·남해·하동 하반기 특별교부세 56억원 확정 최영희 “국민연금, ‘스튜어드십 코드’ 도입 이후 기업경영간섭 심각" 윤재갑 의원, 지역농협 비상임조합장 무제한 연임 제한 `농협법 개정안' 발의 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 영등포구 은행로 58. 1204호(삼도오피스텔) 대표전화 : 02-782-9872 팩스 : 02-783-1358 청소년보호책임자 : 이성철 법인명 : (주)공감신문 제호 : 공감신문 등록번호 : 서울 다 10955 등록일 : 2014-04-17 발행일 : 2017-05-01 대표이사 : 방성식·전규열 발행인 겸 편집인 : 전규열 공감신문 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 공감신문. All rights reserved. mail to news1@gokorea.kr 위로 전체메뉴 전체기사 입법공감 전체 종합 경제공감 전체 경제일반 금융/증권 산업/IT 종합 딥터뷰 칼럼공감 전체 칼럼 생활경제칼럼 박영철 편집고문 칼럼 오늘공감 전체 사회 생활·문화 인사/부고 종합 정치공감 전체 종합 이슈앤속보 최종현 학술원 자문위원 지역공감 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 내 공영 관광지 운영 실태 조사 착수 - 아시아투데이 아시아투데이 서울 다른도시13.2℃ 춘천강릉서울인천충주대전대구전주울산광주부산제주 뉴델리 22℃ 도쿄 24.9℃ 베이징 16℃ 자카르타 30℃ 네이버뉴스스탠드 네이버 포스트 유투브 페이스북 트위터 최신 오피니언 사설 칼럼·외고 기자의 눈 피플 정치 정치일반 대통령실 국회·정당 북한 외교 국방 정부 사회 사회일반 사건·사고 법원·검찰 교육·행정 노동·복지·환경 보건·의약 경제 경제일반 정책 금융·증권 산업 IT·과학 부동산 유통 중기·벤처 아투시티뉴스 종합 경기·인천 세종·충청 영남 호남 강원 제주 국제 세계일반 아시아·호주 북미 중남미 유럽 중동·아프리카 문화·스포츠 전체 방송 가요 영화 문화 종교 스포츠 여행 포토 전체 포토 비주얼뉴스 지면보기 제보24시 자문위원단 독자권익위원회 아투TV 대학동문골프최강전 글로벌 리더스 클럽 English中文 제주도 내 공영 관광지 운영 실태 조사 착수 허울만 좋은 치료감호제도…"적극적 치료감호 청구 필요" 법원, 테라·루나 사태 권도형 측근 구속영장 기각 2022년 10월 11일(화) 자문위원단 독자권익위원회 제보24시 전체메뉴 사회 사회일반 사건·사고 법원·검찰 교육·행정 노동·복지·환경 보건·의약 검색버튼 제주도 내 공영 관광지 운영 실태 조사 착수 기사승인 2019. 05. 16. 11:51 가 (더 작게) 가 (작게) 가 (기본) 가 (크게) 가 (더 크게) 직영 및 위탁 운영 관광지 32곳 대상 제주 양준호 기자 = 제주특별자치도가 직접 운영하거나 위탁 운영하는 공영 관광지를 대상으로 운영 평가가 실시된다.제주도는 도내 32개 공영 관광지를 대상으로 다음 달부터 6개월 간 운영 상태 종합 평가를 한다고 16일 밝혔다.이번 평가는 공영 관광지의 효율적인 운영과 경쟁력 강화, 고품질 서비스 제공이 목적이다.도는 평가에서 근무자 친절도 및 적극성, 불편 사항 처리, 관광 약자 접근성 개선 및 시설 이용 편의성, 관리 상태, 콘텐츠 운영 및 기획 등을 들여다 볼 계획이다.아울러 전년도 지적 사항에 대한 조치 결과도 집중 점검한다.평가 방식은 서면 평가와 암행 평가, 전문 기관에 의뢰한 별도의 만족도 조사 등이다.도 관계자는 “전년 대비 입장객 수 증가율, 세외 수입 증가율 등 정량적 실적 자료는 도에서 평가하고 콘텐츠 기획, 운영 개선 노력 정도 등 정성적 자료는 평가위원 심의를 거치게 된다”고 말했다. 양준호 기자 truth116@asiatoday.co.kr ⓒ아시아투데이, 무단전재 및 재배포 금지 댓글 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 많이 본 뉴스 연예가 핫 뉴스 1 북한, 전투기 150대 동시출격…군, F-35A로 맞대응 2 野 “한동훈 美 출장에 현직 검사 동행”…韓 “실무자 수.. 3 장성 황룡강 가을꽃축제, ‘사람반 꽃반’ 첫날 방문객 6.. 4 삼성전자 “우크라 지사, 미사일 직격 면해… 인명 피해.. 5 ‘음주측정 불응·경찰폭행’ 장용준 14일 대법 선고 6 1000만원 짜리 골프 원숭이 NFT ‘오픈런 대란’ 1 ‘환승연애2’ 정현규♥성해은, 달달함 통했나…티빙 유료가.. 2 임영웅의 기록은 어디까지? 유튜브 조회수 17억 뷰 눈앞.. 3 ‘숨은 히어로’ 김하성, 이번엔 111승 다저스 사냥 ‘.. 4 배우 선우은숙, 아나운서 유영재와 결혼 “최근 혼인신고”.. 5 정동원x박지원, 훈훈한 케미…“‘러브 액츄얼리’로 만나.. 6 kt, NC 5-2로 꺾고 준플레이오프 직행에 1승만 남.. 오늘의 주요뉴스 “네이버, 소상공인 기금 일부 유용”…네이버 “입장없다” ‘부동산 매물정보 갑질’ 네이버 최수연 첫 재판 연기 이해진 “라인 韓기업이라면, 네이버 韓 아닌 외국기업” 尹, 친일국방 공세에 “北위협 어떤 우려 정당화되나” 유승민 “李, 中 3불 강요 ‘한미일 군사동맹’ 쓰지말라” 건보개편 후폭풍?…국민연금 자발적 가입자 첫 감소 홍준표, 당권주자 겨냥 “배신 경력자는 나오지 말라” ‘신화’ 신혜성, 도난차량서 음주측정 거부하다 체포 신규확진 1만5476명 감소세…사망 10명, 석달새 최소 ‘다사다난’ 오세훈 시장 취임 100일…성과와 과제는 글로벌리더스클럽 회사소개 | 광고안내 | 행사안내 | 구독신청 | 제보24시 | 고충처리 | 회원약관 | 개인정보취급방침 | 청소년보호정책 | 저작권규약 | 인재채용 등록번호 : 서울 아00160 | 등록일 : 2006년 1월 18일 | 제호 : 아시아투데이 | 회장 : 송인준 | 발행인ㆍ편집인 : 우종순 서울시 영등포구 의사당대로1길 34 인영빌딩 | 발행일자 : 2005년 11월 11일 | 대표전화 : 02) 769-5000 | 청소년보호책임자 : 성희제 아시아투데이는 인터넷신문위원회 윤리강령을 준수합니다. Copyright by ASIATODAY Co., Ltd. All Rights Reserved</t>
+  </si>
+  <si>
+    <t>효리의단골집 꼭 가야할 제주도 중문 관광단지 맛집 ‘이조은식당’ - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-10 오후 09:59:46 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t>제주도, 크루즈 관광 체험단에 도민 44명 초대 주메뉴 바로가기 본문 바로가기 2022.10.11 (화) 카카오채널 RSS 모바일보기 맑음서울 13.2℃ 구름많음제주 18.5℃ 흐림고산 16.5℃ 구름조금성산 17.7℃ 구름조금서귀포 18.6℃ 기상청 제공 기사제보 기사문의 회원가입 로그인 Korean English 中文 日本語 tiếng Việt Idioma español ру́сский язы́к 메뉴 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 기사검색 검색어를 입력해주세요 검색하기 검색창 열기 닫기 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 라이프 홈 라이프 제주도, 크루즈 관광 체험단에 도민 44명 초대 이영섭 gian55@naver.com 등록 2019.05.14 10:18:08 URL복사 목록 메일 프린트 스크랩 글씨크기 크게 글씨크기 작게 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 제주도는 2019년 상반기 크루즈관광 체험단을 2회에 걸쳐 운영한다고 14일 밝혔다. 제주관광공사는 크루즈관광 체험단 운영을 위해, 지난 3월 29일부터 4월 10일까지 공모를 실시했으며, 총 415팀(830명)을 신청 받아, 경찰 입회하에 무작위 추출 프로그램을 이용해 최종 22팀(44명)을 선정했다. 최종 선정된 크루즈관광 체험단은 상반기 2차에 걸쳐 운영될 예정이며, 체험단이 승선할 크루즈는 5만6천톤급 코스타 네오로만티카호(승객정원 1,800명, 승무원 620명)이다. 제주도에서는 크루즈요금 160만 원의 50%를 지원한다. 1차 크루즈관광 체험단은 5월 14일부터 5월 19일까지 5박6일 일정으로 제주항 크루즈터미널을 출발해 일본 사세보, 호소시마를 거쳐 동경에서 하선 후 항공편을 이용해 제주로 돌아올 예정이다. 2차 크루즈관광 체험단은 오는 6월 20일부터 6월 24일까지 4박5일 일정으로 제주항 크루즈터미널을 출발해 일본 가고시마를 거쳐 동경에서 하선 후 항공편으로 제주로 돌아온다. 조동근 해양수산국장은 “크루즈관광 체험단 운영을 통해 제주를 크루즈 모항으로 육성해 나가기 위한 발판 마련은 물론, 크루즈관광에 대한 국내 수요를 창출하는 계기가 될 것으로 기대하고 있다”고 말했다. 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 네이버카페 밴드 Copyright @2015 제주교통복지신문 Corp. All rights reserved. 랭킹뉴스 1 연예인 입주로 화제…‘한일 베라체 인비디아’ 눈길 2 제주음협, 오는 22일 '창착오페라 「홍윤애」 하이라이트' 선보인다 3 서귀포시, 동절기 코로나19 추가접종 10월 11일부터 참여 가능 4 제주특별자치도, 11일부터 코로나19 2가백신 동절기 추가접종 시작 5 서귀포시, 2023년 FTA기금 감귤생산시설 현대화사업 신청·접수 6 서귀포시 동부보건소, 가을철 농작업 및 야외활동 시 진드기 조심하세요! 7 제주시, 6.25 참전유공자 유족 무성화랑 무공훈장 수여 8 제주시, 오는 11월 24일부터 '일회용' 종이컵·빨대 등 제공 및 사용 금지한다 9 한국미술협회 서귀포지부, 2022 회원 정기전 진행 10 제주시 한경도서관, '냅킨 아트 소품 클래스' 프로그램 참여자 선착순 모집 실시간 뉴스 2022-10-11_TUE 서귀포시, 사무관 승진의결자 8명 승진임용 11:33 서귀포시, 문화재 관련 공직자 역량 강화 교육 실시 11:32 서귀포시 성산읍, 가로등에 디자인을 입혀 불법광고물을 뿌리 뽑는다 11:31 서귀포시, 다양한 국가의 진로 탐색으로 청소년의 꿈의 시야를 넓히다. 11:30 서귀포시, 2022년 하반기 주민등록 사실조사 실시 11:26 신문사소개 윤리강령 찾아오시는 길 개인정보처리방침 청소년보호정책 (책임자 : 이청) 이메일 무단수집거부 기사제보 문의하기 제주특별자치도 제주시 신대로7길 20, 301호 (연동, 새롬빌라) | 대표전화 : 010-8675-4517 발행인 : 이문호 | 편집인 : 이청 | 등록번호 : 제주, 아01068 | 등록일 : 2016.10.11 | 이메일 : news@jejutwn.com 제주교통복지신문의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2021 제주교통복지신문. All rights reserved. 최종편집일: 2022년 10월 11일 13시 00분 최상단으로</t>
+  </si>
+  <si>
+    <t>제주도·관광공사, 올해 전세기 인센티브 기준 강화 &lt; 관광/항공 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도·관광공사, 올해 전세기 인센티브 기준 강화 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 관광/항공 제주도·관광공사, 올해 전세기 인센티브 기준 강화 기자명 강지환 기자 입력 2019.05.07 15:10 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 올해 전세기 인센티브 기준이 강화됐다.제주특별자치도와 제주관광공사(사장 박홍배)는 전세기 관련 도내 및 해외 여행업계의 의견을 반영한 올해 전세기 인세티브 기준을 마련했다고 7일 밝혔다.올해 전세기 인센티브 지원금은 월 5편 이상의 정기성 전세기의 경우 편당 400만원, 월 4편 이하의 단발성 전세기는 편당 700만원으로 지난해와 동일하다.하지만 세부 지급기준은 지난해 대비 강화됐다.올해부턴 편당 공급좌석 대비 외국인 탑승률이 50%를 밑돌 경우 인센티브가 지급되지 않는다.이어 100석 미만 소형항공기에 100만원을 삭감해 지급하던 기준도, 120석 미만 소형항공기에 200만원 삭감을 삭감하는 기준으로 확대됐다.또 특정 노선 편중현상 예방을 위해 전세사업자 당 노선별로 최대 50편까지 인센티브를 지급했던 것을 30편으로 축소했다.아울러 업체당 최대 1000만원까지 지급되던 아웃바운드 모객광고비도 800만원으로 축소되고 집행금액의 50%까지만 지급된다.이와 관련 올해 전세기 인센티브 세부기준은 제주관광공사 홈페이지를 통해 확인할 수 있다.한편 제주특별자치도와 제주관광공사는 오는 5월 31일까지 2019년 전세기 운항 계획을 사전에 접수해 올해 전세기 수요를 파악한 후 필요할 경우 관련 예산을 추가로 확보할 계획이다. 강지환 기자 wlghks4889@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 2019년 상반기 '우수 관광사업체' 공모 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 13:03 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 2019년 상반기 '우수 관광사업체' 공모 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도, 2019년 상반기 '우수 관광사업체' 공모 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2019.05.14 15:06 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 도내 우수 관광사업체를 오는 5월 15일부터 5월 28일까지 모집한다고 14일 밝혔다.신청대상은 영업신고(리모델링) 후 1년 이상 경과한 제주특별자치도에 본점을 둔 사업체로, 관광지, 교통, 숙박업, 여행업, 음식업 등 5개 분야이다. 이전에 우수 관광사업체로 지정돼 2년이 도래한 사업체는 재지정을 받아야 한다.우수 관광사업체 선정은 관광사업체의 신청서류 등 자격요건심사 후 전문가들로 구성된 평가위원들의 현장평가와 우수관광사업체 평정위원회의 심의를 거치게 되며, 지정 기간은 오는 7월 1일부터 2021년 6월 30일까지 2년이다.주요 평가 항목은 사업체의 시설 및 환경, 서비스, 요금, 안전.위생관리, 지역사회 공헌도 등 분야별 평가표에 의해 종합적으로 평가하며, 종합점수가 기준 점수(90점)에 충족된 경우 평정위원회 심의를 거쳐 최종 선정한다.우수 관광사업체로 지정되면 우수 관광사업체 지정서 및 인증패가 수여되고, 제주특별자치도 및 유관기관 홈페이지 게재, 사회관계망서비스(SNS) 홍보, 홍보자료 및 지도 제작.배포, 홍보지원금 지원 등의 혜택이 주어진다.또 지정된 우수 관광사업체 종사자를 대상으로 서비스 교육도 지원 받을 수 있다.우수 관광사업체로 지정을 희망하는 사업체는 5월 15일부터 제주특별자치도 홈페이지(www.jeju.go.kr) '입법/공고/고시' 게시판에서 우수 관광사업체 지정신청서 등을 내려 받아, 제주특별자치도 관광협회(064-741-8744)로 신청하면 된다. 자세한 공모 내용은 제주특별자치도 홈페이지에서 확인할 수 있다.제주도 관계자는 "올해는 홍보지원금을 상향하고, 사회관계망서비스(SNS) 채널 추가, 온라인마켓 탐나오 입점 및 구매 이벤트 등 온라인홍보를 강화해 지원할 계획이라며 우수 관광사업체의 적극적인 참여를 바란다"고 말했다.한편, 제주특별자치도는 지금까지 우수 관광사업체 총 106곳을 선정해 관리하고 있다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 4월 Best 관광인 장문호 주임 &lt; 관광/항공 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 4월 Best 관광인 장문호 주임 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 관광/항공 제주도관광협회, 4월 Best 관광인 장문호 주임 기자명 강지환 기자 입력 2019.05.12 13:22 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 장문호 제주특별자치도자동차대여사업조합 주임이 4월 베스트(Best) 관광인에 선정됐다.제주특별자치도관광협회(회장 김영진)는 지난 9일 제주종합비지니스센터 3층 대회의실에서 '칭찬합시다' 4월 베스트 관광인으로 장문호 제주도자동차대여사업조합 주임을 선정, 친절 키움 꽃 화분과 선정패를 전달했다고 12일 밝혔다.협회는 장 주임이 관광객들의 렌터카 관련 민원들을 보다 친절하고 빠르게 처리함으로써 관광객들이 불편함 없이 편안한 관광을 할 수 있도록 노력하는 모습이 동종업계에 모범이 됐기에 이같이 결정했다. 한편 장 주임은 제주를 찾는 관광객들이 제주공항에서 렌터카를 이용할 수 있게 제주공항 렌터카 셔틀버스 운행지원 사업을 담당하고 있다.더불어 공항 데스크 및 공항 렌터카 하우스 데스크 업무도 맡고 있다. 강지환 기자 wlghks4889@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회·(주)지일·(주)엠엠피 업무협약 체결 &lt; 동네방네 &lt; 일과 사람들 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 일과 사람들 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 동네방네 인사 화촉 부음 본문영역 이전 기사보기 다음 기사보기 제주도관광협회·(주)지일·(주)엠엠피 업무협약 체결 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 일과 사람들 동네방네 제주도관광협회·(주)지일·(주)엠엠피 업무협약 체결 기자명 강지환 기자 입력 2019.05.12 13:30 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도관광협회(회장 김영진)는 주식회사 지일, 주식회사 엠엠피와 9일 제주종합비즈니스센터 대회의실에서 제주관광 발전 및 VR 컨텐츠 제작을 위한 업무협약을 체결했다.이번 삼자 협약으로 협회는 양기관과 기술 및 정보교류를 통해 관광사업체 가상현실(VR) 제작·홍보 등 다방면의 콘텐츠 사업에 협력키로 의견을 모았다.또 제작된 콘텐츠는 제주특별자치도와 제주도관광협회가 운영하는 "제주여행 온라인마켓 탐나오"와 접목해 보다 많은 여행객이 제주 곳곳을 미리 체감하고 손쉽게 예약할 수 있도록 서비스를 제공할 예정이다. 강지환 기자 wlghks4889@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>성수기 맞은 제주도, 원희룡 도지사의 제주관광 특별 주문은? &lt; 국내 &lt; 여행/레저 &lt; 기사본문 - 디스커버리뉴스(DISCOVERYNEWS) 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 뉴스 여행/레저 국내 해외 골프 경제 숙박/교통 항공 열차 자동차 크루즈 호텔 리조트 사회 라이프 기획 문화 포토 포토 영상 기사검색 검색 로그인 회원가입 Updated2022-10-11 13:05 (화) 기사제보 독자투고 광고문의 본문영역 이전 기사보기 다음 기사보기 성수기 맞은 제주도, 원희룡 도지사의 제주관광 특별 주문은? 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 여행/레저 국내 성수기 맞은 제주도, 원희룡 도지사의 제주관광 특별 주문은? 기자명 정기환 기자 입력 2019.05.07 17:27 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ＂관광데이터 공유 시스템 마련 · 민간 성공사례 노하우 전파” 당부 ▲사진= 성수기 맞은 제주도, 원희룡 도지사의 특별 주문은?[투어타임즈=정기환기자] 본격 성수기를 맞은 제주도가 보다 안전하고 편리한 관광 환경조성을 위해 머리를 맞댔다. 제주특별자치도는 7일 오전 제주도청 본관 2층 삼다홀에서 원희룡 도지사 주재로 주간정책 조정회의를 개최해 제주관광의 최근 이슈를 진단하고 이에 대한 대책들을 논의했다. 회의에서는 최근 개별여행 중심으로 관광 트랜드가 변화됨에 따라 음식점, 숙박, 관광지, 교통수단 등 관광객의 이동 동선과 지출 행태를 종합적으로 분석하고 빅데이터 기반의 예산 투입과 인프라가 조성돼야 한다는 데 의견이 모아졌다. 회의에는 각 실국 부서장들과 더불어 김영진 제주관광협회 회장, 박홍배 제주관광공사 사장이 함께 참석했다. 원희룡 제주특별자치도지사는 “고객 주도적이고 민간지향적인 데이터에 대한 공유 시스템을 갖추는 것이 가장 우선시 되어야 한다”고 강조했다. 원희룡 지사는 “천혜의 자연환경과 국내지만 해외 같은 특성으로 인해 제주가 현재 독보적 위치에 있지만, 국내외 시장의 변화와 다양한 목적을 지닌 관광객의 변화에 빠르게 대응해야 할 사항이 많다”며 “일률적으로 정해진 관광대응 체계로는 놓칠 부분이 있다”고 지적했다. 이어 “관광공사·관광협회·제주연구원 등의 유관기관들과 연구조사, 분석과 기획에 대한 연계를 통해 상시 분석이 이뤄지고 숙박 과잉이나 면세점 등 시기에 맞는 중점 현안에 대한 대응이 가능하도록 인프라를 획기적으로 강화해야 한다”고 말했다. “관광 산업에 종사하는 경제주체가 제주관광을 이끌어가도록 민간에게 관련 정보를 공유하고 개방하는 것을 기본으로 예산·인력·인프라를 마련해 정보협력기능이 지속되고 강화될 수 있도록 시스템을 구축할 것”을 지시했다. 원희룡 지사는 또한 “각 분야·부서별로 제주도의 경제와 관광활성화를 위해 실현 가능한 것부터 성과를 내야한다”며 실질적인 노하우나 경험에 대한 적극적 협력과 정보 공유를 당부했다. 원 지사는 “관이 주도해 형식적으로 전파하는 것은 한계가 있다”면서 “관광을 연계한 새로운 과제를 발굴할 수 있도록 앉아서 영업하는 형태에서 벗어나 민간에 보다 적극적이고 협력적으로 나서야 한다”고 밝혔다. 이어 뚜벅이 여행객을 위한 짐 배달 서비스, 사진 잘나오는 핫스팟, 맛집 안내, 해양레저 연계, 야간 관광 상품 등을 예로 들며 “민간에서 잘되는 영역에 대한 사례 발굴을 통해 지속성과 자생력을 가질 수 있도록 제도와 불편사항을 개선해야 한다”고 말했다. 이밖에도 이날 회의에서는 숙박시설 과잉공급 대책을 위해 무허가 숙박업 근절과 농어촌 민박 불법행위 단속 강화 등이 함께 논의됐다.&lt;정기환 기자 jeong9200@sundog.kr&gt; 정기환 기자 jeong9200@sundog.kr 다른기사 보기 저작권자 © 디스커버리뉴스(DISCOVERYNEWS) 무단전재 및 재배포 금지 개의 댓글 회원로그인 댓글 내용입력 0 / 400 등록 댓글 정렬 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 종로구 삼일대로 461 (운현궁 SK 허브) 102동 312호 대표전화 : ☎ 070-7706-9365 (주중18시까지/토,일휴무), 070-7706-9354 팩스 : 02-749-3207 법인명 : 미디어썬 제호 : 디스커버리뉴스(DISCOVERYNEWS) 등록번호 : 서울. 아02715 등록일 : 2013-07-02 발행일 : 2013-07-10 발행·편집인 : 강성덕 편집 부국장 : 정기환 부사장 : 이명수 청소년보호책임자 : 임영규 문의 및 보도자료 : jeong9200@discoverynews.kr 디스커버리뉴스(DISCOVERYNEWS) 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 디스커버리뉴스(DISCOVERYNEWS). All rights reserved. 위로 전체메뉴 전체기사 뉴스 여행/레저 전체 국내 해외 골프 경제 숙박/교통 전체 항공 열차 자동차 크루즈 호텔 리조트 사회 라이프 포토 전체 포토 영상 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>국내 대표관광지 '제주도', 복음 청정지역 변화 기대 &lt; 교단·단체 &lt; 교계 &lt; 기사본문 - 데일리굿뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 2022-10-11 13:06 (화) 모바일웹 제보 로그인 검색 검색 검색 전체메뉴 버튼 전체메뉴닫기 기획 전체 이단 &amp; 사이비 종교 동성애 중독 환경 · 생명 북한 다문화 굿뉴스 교계 전체 교단·단체 선교 신학·학술 교육·문화 인터뷰 글로벌선교방송단 정치 경제 사회 문화·스포츠 월드 오피니언 GOODTVNEWS 위클리굿뉴스 기사제보 광고문의 제휴문의 후원하기 매체소개 GOODTV 바로가기 2022-10-11 13:06 (화) 모바일웹 제보 로그인 기획 교계 정치 경제 사회 문화·스포츠 월드 오피니언 검색 검색 검색 본문영역 이전 기사보기 다음 기사보기 국내 대표관광지 '제주도', 복음 청정지역 변화 기대 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 교단·단체 국내 대표관광지 '제주도', 복음 청정지역 변화 기대 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 기자명 박혜정 입력 2019.05.10 19:54 수정 2019.05.10 22:02 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 바로가기 본문 글씨 키우기 본문 글씨 줄이기 국내관광지 선호도 1위이자 ‘세계 평화의 섬’으로 불리는 제주도는 복음화율이 전국 최하위로 알려졌다. 이런 가운데 제주도 전 교회들이 협력해 '복음광고'와 '전도대회'를 통한 복음캠페인을 전개하고 있다. ▲10일 서울 서빙고 온누리교회에서 '대한민국 하나되어 제주도를 전도하자' 캠페인 기자간담회가 열렸다.ⓒ데일리굿뉴스 복음의전함, 제주 전 교회와 함께 전도캠페인 펼친다 제주시 전역 463개 교회 외벽에 복음메시지가 담긴 광고 현수막이 걸리고, 중심지역에서는 대규모 전도가 펼쳐질 것으로 기대를 모은다. 제주도는 국내에서도 복음화율이 최하위다. 제주 전체 인구 중 기독교는 약 10%에도 미치지 못하는 것으로 전해졌다. 이와 관련 송성환 목사(제주성시화운동 사무국장)는 10일 열린 기자간담회에서 "제주 원주민들의 복음화율만 볼 때 2%에 그쳤던 때가 있다. 현재는 도시지역에서 온 기독교인과 목회자들 덕분에 제주도 복음화율은 증가하고 있는 추세"라면서도 "제주도는 여전히 샤머니즘이 강하고, 기독교에 대한 배타성이 커 기독교에 마음을 열지 않는 분위기"라고 말했다. 이런 가운데 광고매체를 통해 복음을 전하는 복음의전함(이사장 고정민)은 제주성시화운동, 제주시 5개지역 교회협의회와 협력해 오는 6월 ‘대한민국을전도하다’ 제주도캠페인을 실시한다. 캠페인의 주요 방식은 △제주 교회 외벽에 대형 포스터 설치 △차량에 붙일 수 있는 복음광고 스티커 배포 △전도대회 △감사예배 등으로 전개된다. 위로와 격려의 메시지가 담긴 'It's okay(괜찮아)' 시리즈 대형포스터가 공식집계된 제주시 전 교회 약 500여 곳에 걸리며 캠페인 시작을 알린다. 포스터는 3x3m 사이즈로 배우 겸 가수 엄정화 외 4명 유명 연예인들이 재능기부로 동참했다. 제주도 관광지 특성 상 도로에 대형포스터 설치가 힘든 점을 고려해 복음의전함은 광고설치 전략을 달리했다. 한지혜 실장(복음의전함 사업기획본부)은 "제주시에 총 463개 교회 외벽을 광고판으로 활용한다"면서 "또한 여행지 특성상 렌터카가 많아 차량 뒤편에 복음 스티커를 부착할 수 있도록 했다. 차량이 복음광고 매체로 활용되는 것"이라고 말했다. 캠페인은 '2019 제주 복음화 전도대회'로 확장된다. 6월 1일 오후 2시 제주영락교회에서 기도집회와 제주시 중심으로 길거리 전도가 펼쳐진다. 다음날인 2일 같은 시각 서귀포 법환교회를 중심으로 대규모거리운동이 이어진다. 감사예배로 캠페인은 마무리된다. 이와 관련 제주성시화운동 대표회장 박명일 목사는 "전도대회를 통해 70만 명 제주도민에게 70만 장의 전도지를 손에 쥐어 주는 것이 목표"라며 "지난해 제주선교 110주년을 맞아 마련된 엑스플로 제주선교대회를 통해 제주시에 복음의 씨앗이 뿌려졌다. 이 흐름을 이어가고자 복음의전함과 동역을 다짐했다. 제주도가 복음의 청정지역으로 거듭나길 바란다"고 전했다. 현재까지 약 300여 개의 교회가 대형포스터를 전달받아 교회외벽에 설치했다. 복음의전함은 개교회에 약 500장 씩 총 23만 장의 전도지를 무상 지원하고 있다. 고정민 이사장(복음의전함)은 "이번 제주도캠페인은 이전에 진행한 경상도·전라도 캠페인과는 달리 영적 방해가 정말 많았다"면서 "때문에 제주도 복음이 이뤄질 수 있도록 기도의 힘을 보태주길 바란다. 대한민국이 하나돼 제주도 복음이 이뤄질 수 있도록 기도가 절실하다"고 요청했다. 한편 복음의전함은 앞서 전개한 경상도·전라도 복음광고 전도캠페인에서 약 3,000여 명의 현지교인들의 거리전도 참여로 전도지 35만장 배포한 바 있다. 이로써 200여 명이 예수님을 영접하는 성과를 냈다고 밝혔다. 박혜정 hyejungpark@goodtv.co.kr 저작권자 © 데일리굿뉴스 무단전재 및 재배포 금지 SNS 기사보내기 당신이 좋아할 만한 기사 김록이 목사, 3차 오산리금식기도원 상한감정치유공개세미나 개최 베를린에서 독일통일 32주년 기념 세미나 개최 다음세대 위기극복 '기도'에 달려…성령의 도우심 간구해야 [선교편지] CEM입학식과 개교 6주년의 다양한 모습들 장기기증, 제주 지역 최초 초등학생 위한 생명나눔 및 존중교육 실시 월드밀알선교합창단, 9일 카네기홀에 다시 서다 월드비전 고양시지회연합회 조찬기도회 개최 SpaceX와 NASA, 또 한 번의 우주선 도킹 성공 교계 주요기사 장기기증, 제주 지역 최초 초등학생 위한 생명나눔 및 존중교육 실시 월드밀알선교합창단, 9일 카네기홀에 다시 서다 부기총, '부천시를 위한 기도회' 3년 만에 개최 월드비전 고양시지회연합회 조찬기도회 개최 춘천성시화, '춘천기독교 120년사' 출간기념 학술세미나 개최 이영훈 목사, 국제교회성장연구원 총재로 추대 색 테이프로 보여주는 예술세계…아티스트 박태현 작가 이영훈-배덕만 대담 '세계 오순절 운동과 교회의 미래' 日서 통일교 퇴출되나?…신중론 기시다 총리 지지율 추락 오순절 신앙, 韓복음화 구심점 되다 어린이 만화 주인공이 레즈비언?…성 가치관 혼란 우려 10대 마약사범 3년새 2배 증가했는데…예방교육은 미비 인천퀴어축제, 지자체 ‘불허’ 결정에도 강행 논란 태아 위해 열린 첫 동요대회…“생명의 소중함 전해요" 방치된 교회 인터넷카페 노리는 신천지 신종 모략포교 등장 美 뉴저지, 학교서 자위·항문성교 가르친다 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 진실한 뉴스로 세상을 밝히고 한 영혼을 살리는 신문, 데일리굿뉴스 선교사역에 후원으로 함께해 주세요. 10,000 후원 30,000 후원 50,000 후원 정기 후원 ※ 후원해주시는 분들께 매주 발행되는 위클리굿뉴스 지면신문을 발송해 드립니다. 많이 본 기사 사회 쌍용자동차 먹튀 논란…에디슨모터스 강영권 회장 구속 사회 8일 여의도 불꽃축제·집회 등 서울 곳곳 교통혼잡 월드 크림대교 폭발사고에 러·우 설전…"푸틴 생일축하"조롱 vs "테러주의자" 월드 美 기독교 제빵업자, 이번엔 LGBT 케이크 제작 거부로 소송 휘말려 이단 &amp; 사이비 종교 日서 통일교 퇴출되나?…신중론 기시다 총리 지지율 추락 오피니언 [송기원 칼럼] 정부조직개편에 대하여 경제 기름값 4주 연속 내림세 …이번주 휘발유 30.7원·경유 18.6원↓ 사회 독감 환자수 1주일새 45% 급증…'트윈데믹' 오나 기획뉴스 日서 통일교 퇴출되나?…신중론 기시다 총리 지지율 추락 오순절 신앙, 韓복음화 구심점 되다 어린이 만화 주인공이 레즈비언?…성 가치관 혼란 우려 10대 마약사범 3년새 2배 증가했는데…예방교육은 미비 인천퀴어축제, 지자체 ‘불허’ 결정에도 강행 논란 TV 영상뉴스 전국 신학대 학생연합 출범…“제2의 부흥 일으키자” 개혁주의 30년…“성경 중심의 설교 이어가자” “교역자·직원 구인시 장애인 채용하겠다” 56% 응답 해운대순복음, 2대 담임목사 취임…정경철 원로 추대 이 시각 사회 일본, 한국인 무비자 관광 오늘부터 허용…2년 7개월 만 러시아, 우크라 전역 대규모 공습…최소 11명 사망 최영선, '리나 살라 갈로 피아노 콩쿠르'서 한국인 최초 우승 학용품·예초기 등 수입품 15만개 안전기준 위반해 금감원 '부실 우려' 태양광 대출·펀드 점검 확대 무비자 일본 관광 내일부터 허용…"한국·대만서 예약 급증" 북, '전술핵부대 훈련' 南에 핵위협 노골화…김정은 모두 지도 美 기독교 제빵업자, 이번엔 LGBT 케이크 제작 거부로 소송 휘말려 하단영역 하단메뉴 회사소개 기사제보 광고문의 개인정보처리방침 top 매체정보 서울특별시 영등포구 양평로21길 26 (선유도역1차아이에스비즈타워) 18층 대표전화 : 02-2639-6400 팩스 : 02-2639-6455 청소년보호책임자 : 유창선 법인명 : (주)데일리굿뉴스 제호 : 데일리굿뉴스 등록번호 : 서울 아 00078(2005.10.05) 등록일 : 2005-10-05 발행일 : 2005-03-22 발행·편집인 : 김명전 데일리굿뉴스 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 데일리굿뉴스. All rights reserved. mail to dev@goodtv.co.kr 위로 전체메뉴 전체기사 기획 전체 이단 &amp; 사이비 종교 동성애 중독 환경 · 생명 북한 다문화 굿뉴스 교계 전체 교단·단체 선교 신학·학술 교육·문화 인터뷰 글로벌선교방송단 정치 경제 사회 문화·스포츠 월드 오피니언 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>외국인 관광객에 매력 발산 못하는 제주도 - 뉴스제주 × 전체기사 사회 전체 사건사고 일반 포토 날씨 뉴스제주초점 기업·인물탐방 행정 전체 제주도청 제주도의회 제주시청 서귀포시청 유관기관 읍면동 정치 전체 선거 정당 국회 의정활동 시민단체 교육 전체 교육청 교육행정 학교소식 경제 전체 제주도 제주시 서귀포시 도외 일반 문화 전체 제주도 제주시 서귀포시 도외 일반 관광 전체 제주도 제주시 서귀포시 도외 일반 동정 전체 도청 도의회 제주시 서귀포시 기타 연예 스포츠 동영상 오피니언 전체 기자수첩 칼럼 기고 시민기자 미디어부 뉴스제주TV 뉴스제주 시작페이지로 즐겨찾기 추가 한국어 영어 일본어 중국어 처음으로 로그인 회원가입 모바일웹 전체 사회 사건사고 포토 날씨 뉴스제주초점 기업·인물탐방 행정 제주도청 제주도의회 제주시청 서귀포시청 유관기관 사업소 읍면동 정치 선거 정당 국회 교육 교육청 교육행정 학교소식 경제 제주도 제주시 서귀포시 도외 문화 제주도 제주시 서귀포시 도외 스포츠 오피니언 기자수첩 칼럼 기고 시민기자 관광 제주도 제주시 서귀포시 도외 일반 동정 도청 도의회 제주시 서귀포시 기타 후원안내 날씨 기사검색 검색 최종편집 : 2022-10-11 11:57 (화) 이전 다음 외국인 관광객에 매력 발산 못하는 제주도 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 관광 외국인 관광객에 매력 발산 못하는 제주도 이감사 기자 승인 2019.05.08 18:05 댓글 2 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 텔레그램 URL복사 × 문화체육관광부·한국관광공사 '2018 외래관광객 실태조사' 공개 지난해 한국 찾은 외국인 입국자 수 1534만6879명 제주도, 인상 깊은 방문지 9위 올라 ▲2018년 한국을 찾은 외국인 입국자 수는 1534만6879명으로 2017년(1333만5758명)보다 15.1% 증가한 것으로 나타났다 / 사진출처 - visit jeju 홈페이지 갈무리©Newsjeju 한국을 찾는 외국인들은 제주도에 큰 매력을 느끼지 못하는 것으로 조사됐다. 또 제주항을 이용하는 외국인 관광객은 큰 폭으로 하락세를 보이고 있는 것으로 나왔다. 8일 문화체육관광부는 한국관광공사와 '2018 외래관광객 실태조사' 결과를 공개했다. 문체부에 따르면 실태조사는 한국 방문 후 출국하는 외국 국적의 여행객 1만6469명을 대상으로 1년 간 조사가 이뤄졌다. 조사 장소는 제주국제공항을 포함한 인천국제공항, 김포국제공항, 김해국제공항, 청주국제공항, 대구국제공항 등이다. '2018년 외래관광객 실태조사'에 따르면 지난해 한국을 찾은 외국인 입국자 수는 1534만6879명으로 2017년(1333만5758명)보다 15.1% 증가했다. 국적별 입국 현황을 살펴보면 중국이 478만9512명으로 가장 높았다. 이어 일본 294만8527명, 대만 11만5333명, 미국 96만7992명 순이다. 입국자 연령은 21~30세 비중이 26.6%로 가장 높고, 20세 이하와 61세 이상 비중이 각각 10%로 가장 낮았다. 전국 17시도 중 외국인 관광객들은 서울(79.4%)을 가장 많이 찾았다. 뒤를 이어 경기 14.9%, 부산 14.7%, 강원 9.7%, 제주 8.5% 순이다. 제주도는 2016년 20.2%로 동년 기간 서울(78%)에 이어 두 번째로 외국인들이 많이 찾는 장소였다. 그러나 2017년 10.8%, 지난해 8.5%로 갈수록 외면 받고 있다. ▲ ©Newsjeju 외국인들은 국내여행 중 가장 인상 깊은 방문지(중복응답 기준)로 58.3%가 명동·남대문·북창을 꼽았다. 제주도는 7.9%의 외국인만 엄지를 치켜세웠다. 명동·남대문·북창을 이어 동대문 패션타운이 28.1%로 2순위, 신촌·홍대가 16.8%, 강남역 10.9%, 해운대 9.5%, 이태원 9.1%, 잠실 9.0%, 제주 7.9%, 용두산·자갈치 5.0% 순이다. 제주국제공항을 통해 입국한 외국인은 지난해 84만940명으로 2017년(55만7200명)보다 28만3740명이 증가했다. 그러나 제주항을 이용한 외국인은 2015년(106만653명)을 기점으로 큰 폭으로 떨어지고 있다. 2018년 이용객은 2만7466명이다. 지난해 제주를 찾았다는 외국인들의 주요 참여 활동 응답(중복 응답)을 살펴보면, 쇼핑이 96.4%로 압도적으로 높았다. 쇼핑 장소는 시내면세점 53.7%, 공항면세점 37.6%, 대형마트 28.5%다. 자연경관 감상은 82.4%, 식도락관광 74.3%, 역사 유적지 방문 40%, 박물관·전시관 방문 28.5%로 조사됐다. 숙박률은 호텔이 84%, 게스트하우스·호스텔 9.8%, 모텔·여관 7.4%다. '2018년 외래관광객 실태조사' 보고서는 문체부 문화셈터 누리집(stat.mcst.go.kr&gt;관광통계&gt;외래관광객 실태조사), 한국관광공사 누리집(kto.visitkorea.or.kr&gt;알림&gt;자료&gt;관광실태조사)에서 확인 가능하다. 한편 방한 관광시장은 2017년 중국인 관광객 급감에 따른 충격에서 벗어나 2018년 외래관광객 1,535만 명을 유치해 15.1% 증가세를 보였다. 2019년(1~3월)에는 14.1%가 증가하는 등 양적 성장세를 유지하고 있다고 문체부는 분석했다. 방한 기간 중 주요 활동(중복 응답)은 쇼핑(92.5%)과 식도락 관광(71.3%)을 가장 많이 언급했다. 가장 만족한 활동(1순위)을 살펴보면 쇼핑(28.2%→22.2%) 응답 비중은 전년에 대비해 감소한 반면, 식도락 관광(19.6%→29.3%) 비중은 대폭 증가한 것으로 나타났다. 외래객의 전반적 만족도(94.8%→93.1%) 역시 2017년 대비 감소한 것으로 나왔다. 분야별로는 언어소통(66.2%→60.5%) 관련 만족도 감소가 두드러졌다. 주로 인도(36.2%), 독일(39.5%), 싱가포르(46.4%), 말레이시아(47.6%) 등 비영어권 및 동남아 지역 관광객의 만족도가 낮은 경향을 보였다. 또한 관광안내서비스, 대중교통 분야에서도 만족도가 감소했다. 문체부 관계자는 "앞으로 외래객들의 만족도 등을 높이기 위한  정책을 추진해 나가겠다"고 말했다. Tag #외국인관광객 #문화체육관광부 #한국관광공사 #2018 외래관광객 실태조사 #제주국제공항 #제주항 저작권자 © 뉴스제주 무단전재 및 재배포 금지 이감사 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 2 로그인 이름 비밀번호 자동등록방지 내용 0 / 400 등록 댓글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 훔냥 2019-05-13 09:21:31 IP 112.171 더보기 삭제하기 많은 외국인들이 명동을 좋아하는 이유는, 여행객의 상당수가 여성이고, 그 여성들의 주요 관심사중 하나가 쇼핑이라는 점이죠. 명동에는 주요 화장품브랜드가 몰려있을 뿐만 아니라, 유명하지만 저렴한 SPA 브랜드 패션업체들도 몰려있죠. 더구나, 다양한 길거리음식이 있고, 중국어나 영어로 물품구매가 매우 쉽습니다. (설명도 잘해주죠) 백화점도 근처고, 고급호텔부터 저렴한 게스트하우스까지 다 몰려있습니다. 난타극장도 있고, 조금만 걸으면 청계천도 갈 수 있고... 대중교통도 매우 좋은 편입니다. 답글쓰기 1 1 로그인 이름 비밀번호 내용 0 / 400 등록 생떼 2019-05-08 23:29:32 IP 223.33 더보기 삭제하기 뭐좀보고즐길만한것좀만듭시다싱가폴센토사섬이나마카오에어시티이런데가면싸고도즐겁게관광가능합니다자얀을사랑하지만말고지키고요꼭지켜야죠....돈도만듭시다먹고살게요.. 답글쓰기 2 1 로그인 이름 비밀번호 내용 0 / 400 등록 많이 본 뉴스 뉴스 댓글 1[김광수 교육감 축사] 뉴스제주 창간 16주년 2[강병삼 시장 축사] 뉴스제주 창간 16주년 3[오영훈 지사 축사] 뉴스제주 창간 16주년 4[김한규 의원 축사] 뉴스제주 창간 16주년 5[이종우 시장 축사] 뉴스제주 창간 16주년 1수상자 본인 입니다. 확인 되지 않은 사실을 기반으로 허유사실을 공론화하지 않으시길 바랍니다. 2나 조만간 자살 할 것 같아 3ㅎ ㅎ ㅎ 4비슷비슷헌 사름덜 보염싱게~ 자기들부터 깨끗허게 살주게 5원희룡... 최신기사 제주소방 상황실, 빈틈 없는 신고 접수 제주소방 상황실, 빈틈 없는 신고 접수 제주 지구시민 해양정화 페스티벌 성황리 개최 제주 지구시민 해양정화 페스티벌 성황리 개최 서귀포시, 자립준비청년 지원 방안 마련 민·관 공유회의 개최 신용보증지원, 수도권에 지나치게 편중... 제주 소외 신용보증지원, 수도권에 지나치게 편중... 제주 소외 서귀포시, 문화재 관련 공직자 역량 강화 교육 실시 서귀포시, 문화재 관련 공직자 역량 강화 교육 실시 서귀포시, 사무관 승진의결자 8명 승진임용 서귀포시, 사무관 승진의결자 8명 승진임용 친절은 누구나 춤추게 한다. 친절은 누구나 춤추게 한다. 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 첨단로8길 34, 1층 대표전화 : 064-747-1188 팩스 : 064-745-4569 청소년보호책임자 : 남우엽 제호 : 뉴스제주 등록번호 : 제주 아 01007 등록일 : 2006-10-09 발행인 : 남우엽 편집인 : 남우엽 뉴스제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 뉴스제주. All rights reserved. mail to newsjeju@hanmail.net 위로</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문 관광단지 가볼만한 곳, 기원뚝배기 아침식사 맛집 픽업서비스 갈치조림 전복서비스 - 월간원예 × 전체기사 포커스 전체 기획특집 피플 가든&amp;라이프 전체 공기정화식물 원예치료 한국의 꽃 플레이스 전체 과수 채소 화훼 네트워크 전체 우수센터 농촌을 이끄는 사람들 농촌진흥기관소식 Info 전체 식량원 Q&amp;A 해외원예 테크 마켓 비즈 전체 작물보호제 종자소개 농자재정보 목차 회사소개 원예News 동영상 일반 로그인 회원가입 모바일웹 UPDATED. 2022-09-20 18:04 (화) 기사검색 검색 포커스 플레이스 과수 채소 화훼 피플 테크 비즈 작물보호제 종자소개 농자재정보 마켓 네트워크 우수센터 농촌을 이끄는 사람들 농촌진흥기관소식 이전 다음 제주도 서귀포 중문 관광단지 가볼만한 곳, 기원뚝배기 아침식사 맛집 픽업서비스 갈치조림 전복서비스 페이스북 트위터 카카오스토리 카카오톡 기사공유하기 상태바 HOME 일반 제주도 서귀포 중문 관광단지 가볼만한 곳, 기원뚝배기 아침식사 맛집 픽업서비스 갈치조림 전복서비스 김영수 기자 승인 2019.05.15 13:07 댓글 0 페이스북 트위터 카카오스토리 카카오톡 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 화산섬 제주도는 현무암으로 이뤄져 있기 때문에 빗물이 지하로 스며들어 논을 만들기 어려운 지역이다. 따라서 경지의 대부분은 밭으로 이용되고 있으며, 1960년대만 해도 보리, 콩 등의 식량 작물과 맥주보리, 고구마, 유채 등의 작물을 주로 재배했다. 그런데 1970년대에 들어와 감귤이 지역 특화 작물로 정착되면서 이후 바나나, 파인애플, 꽃 등이 서귀포의 주요 산업으로 자리매김하고 있다. 제주를 대표하는 한라산의 약 200m~600m에서는 산기슭을 이용해 고기소와 젖소, 말 등을 대규모로 사육하고 있다. 수산물로는 갈치와 도미가 많이 잡히며 제주, 서귀포, 김녕, 모슬포 등은 주요한 어업 기지라 할 수 있다. 아울러 해녀들이 전복, 소라 등을 주로 채취한다. 제주도에는 이국적인 풍경을 감상할 곳도 많다. 이 가운데 ‘영주십이경’은 제주의 빼어난 풍광을 자랑한다. 특히 제5경에 해당하는 정방폭포는 서귀포에 있으며, 깎아지른 바위 벼랑으로 떨어지는 물줄기가 장관이다. 그리고 제6경은 녹담만설로 한라산 정상에 쌓인 눈이 이듬해 5월까지 녹지 않고 산봉우리를 하얗게 빛내는 풍경이 무척이나 아름다워 제주를 찾는 이들에게 색다른 즐거움을 선사한다. 이러한 이색적인 즐거움이 넘치는 제주에서 맛있는 요리를 먹는 즐거움 또한 빼 놓을 수 없다. 제주 중문관광단지에는 제주산 갈치로 만든 요리가 나오는 제주 맛집들이 많다. 이 가운데 제주도 서귀포 중문 맛집 '기원뚝배기'는 제주산 통갈치조림에 들어가는 양념 맛이 아주 일품이다. 약초를 숙성한 양념을 사용해 갈치 특유의 비린맛을 잡고 담백하면서도 고소한 맛을 살렸다. 실제로 양념 맛이 좋아 갈치와 다른 밑반찬 대신 밥과 양념을 비벼서 밥 한 그릇을 비우는 손님들도 많다. 밑반찬은 다른 곳에서 구입하여 손님 상에 올리는 것이 아니라 매일 식당에서 직접 만들고 있어 맛이 좋다. 업소 대표가 직접 국내산 재료를 매일 구입하여 계절에 맞는 밑반찬을 만들어 제공한다. 일손이 많이 필요하지만 직접 만들어야만 제대로 된 맛을 낼 수 있어 정성을 담아 손님 상에 올리고 있다. 서비스 또한 풍성해 제주도의 푸짐한 인심을 느낄 수 있다. 통갈치조림정식을 주문하면 옥돔구이와 성게국은 물론 생전복도 서비스로 제공한다. 기원뚝배기는 서비스 메뉴를 다양하게 제공하여 손님들이 더욱 푸짐한 식사를 즐길 수 있도록 하고 있다. 한편 기원뚝배기는 아침식사를 원하는 손님을 위해 아침 6시부터 문을 열며, 저녁은 10시까지 영업한다. 그리고 저녁 술자리 손님을 위해 중문 내 픽업서비스도 제공하고 있다. 저작권자 © 월간원예 무단전재 및 재배포 금지 김영수 기자 다른기사 보기 페이스북 트위터 카카오스토리 카카오톡 기사공유하기 월간원예 소개 지난호보기 정기구독안내 광고안내 전문가상담코너 우리농촌책보내기운동 개인정보취급방침 청소년보호정책 이메일무단수집거부 서울특별시 금천구 디지털로9길 33 (IT미래TOWER) 1305호 대표전화 : 02-3474-7063~6 팩스 : 02-3471-7067 청소년보호책임자 : 이주상 법인명 : 월간원예 제호 : 월간원예 등록번호 : 서초 라 00086 등록일 : 1983-10-20 발행일 : 1983-10-20 발행·편집인 : 이주상 월간원예 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 월간원예. All rights reserved. mail to wonye@nongup.net 위로</t>
+  </si>
+  <si>
+    <t>가파도, 제주도서 배로 10분… 하루 관광객 2000명 방문 이유는 : 국제신문 2 본문 바로가기 페이스북 트위터 카카오채널 유튜브 로그인 회원가입 지면보기 초판보기 구독신청 주요메뉴 뉴스 전체기사 주말엔 근교산 맛 여행 오피니언 최신칼럼 사설 도청도설 국제칼럼 외부칼럼 포토·동영상 동영상종합 포토종합 게시판 알림 · 사고 독자투고 독자제보 회사소개 구독신청 전화안내 광고안내 부산말사전 다큐멘터리 ‘청년’ 사회 정치 국제 경제 해양수산 문화 주말엔 근교산 스포츠 기획 인터뷰 TV국제 비디토리 국제유튜브 전체기사 대통령실 국회/정당 남북한 선거 지방정치 국방 정책 외교 전체기사 부동산 증권/금융/보험 쇼핑/유통 기업/창업 구인구직 복권 해양수산 자동차 항공 조세 통상/무역 정책 전체기사 사건사고 교육 보건/복지 환경 교통 날씨 법조 노동 행정 미디어 전체기사 미국 일본 중국 중동 유럽 기타 전체기사 미술 책/문학 음악/음반/공연 연예 영화/방송 문화재 종교 바둑 전시 만화 전체기사 건강정보 여성생활 스타일 트렌드 게임 맛집 레저여행 전체기사 환경 과학 IT 전체기사 부산 경남 대구경북 비영남권 산행후기 산행사진 산행안내 자유게시판 강동진 칼럼 이지훈 칼럼 김정현 칼럼 강명관 칼럼 전체기사 사설 칼럼 시론 도청도설 데스크시각 기자수첩 독자칼럼 제언 기고 전체보기 주제토론방 자유게시판 공지사항 활동현황 세상읽기 해양수산칼럼 메디칼럼 기명칼럼 감성터치 조영석의 음악이야기 최태호의 와인 한 잔 박상현의 끼니 황정수의 그림산책 김지윤의 우리음악 이야기 화요경제 항산항심 과학에세이 CEO칼럼 아침숲길 인문학칼럼 청년의 소리 기고 뉴스와 현장 기자수첩 옴부즈맨칼럼 독자권익위원회 가파도, 제주도서 배로 10분… 하루 관광객 2000명 방문 이유는 김준일 기자 |   입력 : 2019-05-04 07:53:11 글자 크기 페이스북 공유 트위터 공유 카카오스토리 공유 네이버 공유 인쇄 기사 주소 복사 스크랩 4일 오전 제주도 인근 섬인 가파도가 방송에 나오면서 큰 화제가 되고 있다. 4일 오전 KBS 2TV ‘다큐멘터리 3일-청보리 익을 무렵 가파도 72시간’ 편 재방송이 전파를 탔다.가파도는 제주 서귀포시 모슬포에서 남쪽으로 5.5km 떨어져 있는 섬 속에 섬이다. 싱그러운 청보리가 봄바람에 파도처럼 일렁이고 끝없이 펼쳐진 수평선의 푸른 바다가 장관을 이루는 곳이다. ‘다큐멘터리 3일’은 청보리 익을 무렵 가파도의 아름다움을 찾아온 사람들과 그 속에 살아가는 주민들의 소박한 삶을 들여다봤다.가파도 한 바퀴를 도는데 1시간도 채 걸리지 않는 이 작은 섬엔 매일 2000명 이상의 관광객들이 몰린다. 특히 주민들이 준비한 가파도산 해산물 먹거리는 최고 인기다. 축제 기간 동안 가파리어촌계에서 운영하는 직판장에는 그날그날 해녀들이 잡은 전복, 홍해삼, 뿔소라 등 싱싱한 해산물이 판매된다.파도처럼 나지막한 지형을 가진 평지섬은 세계적으로도 드물다. 위에서 보면 가오리를 닮았고 옆에서 보면 구릉하나 없이 평평한데, 섬의 가장 높은 곳도 20m를 넘지 않는 접시 모양이다.동서 약 1.3km, 남북 약 1.4km 크기의 가파도는 걷기에 이상적인 섬이다.느린 걸음으로 섬을 가로지르면 30분, 바닷가를 따라 천천히 한 바퀴 돌아도 두 시간이면 충분하다. 그리고 이러한 특징으로 인해 하루 동안 자연 경관의 변화를 쉽게 관찰할 수 있다.가파도 경관의 가장 큰 특징은 바다, 지붕, 돌담, 그리고 보리밭이 켜켜이 쌓여 만든 수평의 이미지들이며, 섬의 대부분을 차지하는 푸른 청보리밭은 봄의 가파도를 상징하는 풍경입니다. 이런 돌담길과 보리밭 사잇길, 그리고 해안을 따라 올레길 10-1코스가 방문객들의 발길을 이끈다. 김준일 기자 ⓒ국제신문(www.kookje.co.kr), 무단 전재 및 재배포 금지 ▶[국제신문 페이스북] [국제신문 인스타그램] ■ 푸틴 “우크라이나 자포리자 원전 국유화” ■ 부산록페 3년 만에 찾았는데…휴대폰·음향 먹통에 분통만 ■ “부울경 더 강력한 특별연합 형태로 메가시티 결성을” ■ 근무복 입고 식당서 소주 한 병…부산교통공사 직원 2명 징계 의결 ■ 하동군 국내 최대 ‘성혈’, 학술가치 높아 보존추진 ■ 우크라이나 점령지 러시아 합병…푸틴, 서명으로 공식화 ■ 김해, 낙동강권 지자체 상생모델 만든다 ■ 놀이마루에 교육청? 학생·시민공간 대안 논의는 없었다 ■ 현대백화점, 에코델타시티 유통부지 매입…아울렛 서나 ‘금융위기 연구 기여’ 버냉키 등 미국 3명 노벨경제학상 크름대교 폭발에 보복…러시아, 우크라 곳곳 공습 ‘지석’ ‘왕자’ 구하는 주체적 여성…스칼렛이 선사할 마법 기대하세요 ‘우영우’ 박은빈 아시아콘텐츠어워즈 2관왕 시내·공원 야외상영 인파…BIFF 예전의 열기 되살아났다 “스크린 독과점 대기업 상영·배급 제한 규제 필요” 천우희 “부산 3대 떡볶이 먹고 싶어” 정지연 감독 “그녀의 연기 놀라워” 벨라루스 독재 맞선 인권 활동가, 러-우크라 반전단체와 공동수상 “송강호 좋아요…언어 해결되면 한국 영화 찍고파” ‘죽어도 자이언츠’ 본지 제작 부산야구 40년 다큐 개봉박두 뭐 볼까…오늘의 TV- 2022년 10월 6일 노벨 물리학상 ‘양자역학 권위자’ 아스페·클라우저·차일링거 일본 신칸센 멈추고 주민 대피령…삿포로·아오모리 등 혼비백산 ‘수리남’의 하정우 우리 동네 사람들이 만든 영화, BIFF에서 데뷔한대요 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 오늘이슈 부산국제영화제 2030 부산엑스포 오늘의 BIFF 많이 본 뉴스 종합 정치 경제 사회 스포츠 1"백신 못 맞게 말릴 걸…" 엄마 유골함 앞에서 회한의 눈물 2부산 조정지역 해제 후 첫 분양…브랜드아파트 ‘착한 가격’에 공급 3‘보행하려는 사람의 기준’ 우회전 운전자는 아직 헷갈린다 4"가족 보살피며, 한국도 지키러 간 형은 나의 영웅" 5“아미 떴다” 달아오른 부산 관광·유통업계 6부산 아파트 매매량 10년 만에 최저 7[이준영 기자의 전지적 롯데 시점] ‘포스트 이대호’ 한동희뿐?…거포자원 더 키워라 8디자인진흥원이 키운 육아앱, 5억 투자 낳았다 9이재명 '일본군 주둔설'에 정진석 "조선 일본군 침략으로 망했나?" 10정부, “2025년까지 HMM 민영화 완료” 1이재명 '일본군 주둔설'에 정진석 "조선 일본군 침략으로 망했나?" 2野 "조선 왜 망했는가" 발언에 여론 싸늘..."이완용도 애국자?" 3장낙대교 건설에 학회서 퇴짜맞은 논문 환경영향평가서 인용 4국감 2주차 격전지 법사위...尹 '대감게이트'vs文 '회전문인사' 5尹 "핵 위협 앞에서 어떤 우려도 정당화 안돼" 6최근 5년간 부산시 해킹시도 건수 서울보다 많다 7BNK 회장이 아들이 재직중인 한양증권에 채권 몰아줬다는 의혹 제기 8北 저수지 발사장, 전투기 150대 비행 공개..."훈련 내용 이례적" 9유승민 떨어뜨린 불씨에 달아오른 안철수 나경원...공세 치열 10북한 핵위협 노골화, 전투기 150대 시위…남북 강대강 대치 1부산 조정지역 해제 후 첫 분양…브랜드아파트 ‘착한 가격’에 공급 2“아미 떴다” 달아오른 부산 관광·유통업계 3부산 아파트 매매량 10년 만에 최저 4디자인진흥원이 키운 육아앱, 5억 투자 낳았다 5정부, “2025년까지 HMM 민영화 완료” 6공감 이끄는 무대, 3세대 엑스포로 전환…부산이 나아갈 길 7쇠락 위기 속 세계박람회…공정한 역사관 바탕으로 과거의 열기 되찾아주길 8부산시, 관광객 전용 동백전 출시 9우대빵부동산 인력 채용 나선다 10올해 누계 무역적자 300억 달러 돌파…1~10일 수출 20%↓ 1"백신 못 맞게 말릴 걸…" 엄마 유골함 앞에서 회한의 눈물 2‘보행하려는 사람의 기준’ 우회전 운전자는 아직 헷갈린다 3"가족 보살피며, 한국도 지키러 간 형은 나의 영웅" 4장기미제 양산 사송IC 청신호…나동연 시장 취임 100일 성과 5오미크론 변이 대응 개량백신 접종 시작...이상반응은? 6BTS 글로벌콘서트 한 치의 빈틈 없이 7부울경 아침 찬공기 유입...경남 북서 내륙 서리까지 8오늘의 날씨- 2022년 10월 11일 9[박기철의 낱말로 푸는 인문생태학] &lt;585&gt; 분화와 분류 ; 여섯 가지 킹덤 10지난주 부산 코로나19 확진 직전주 보다 20% 이상 ↓ 1[이준영 기자의 전지적 롯데 시점] ‘포스트 이대호’ 한동희뿐?…거포자원 더 키워라 220살 김주형 PGA 2승 달성…‘골프 황제’ 우즈보다 빨랐다 3김하성, 한국 빅리거 첫 PS 도루…샌디에이고 NLDS행 견인 4‘포스트 장미란’ 김수현 용상 한국 신기록 번쩍 5“조선의 4번 타자 눈물을 닦아요” 사직벌 울음바다 6“널 믿어라” “야구 더 집중을” 떠나는 이대호의 마지막 조언 7박민지 “나도 이제 가을의 여왕”…시즌 5승 올리며 ‘대세’ 굳히기 8김하성 침묵…샌디에이고, WC 2차전 패배 9에어로빅 차지원 무난히 2관왕…다이빙 우하람도 부상 딛고 金 10롯데 ‘외인 삼총사’ 내년에도 함께할래? 독자참여 게시판 독자투고  |  기사제보 인사 | 모임 | 개업 | 결혼 | 출산 | 동정 | 부고 산행안내  |  산행후기  |  산행사진 등산가이드  |  낚시가이드 [기획] 맛 대 맛 부산서 해외미식기행 &lt;3&gt; 금정구 ‘오키나와키친’ 캐비어 품고, 솜사탕 얹고…망고빙수 럭셔리한 진화 부산서 해외미식기행 &lt;2&gt; 전포동 ‘바오하우스’ 부산서 해외미식기행 &lt;1&gt; ‘도라보울’ 수프카레 ‘어디GO’ 이용자 추천 배달 맛집 톱3는? 제철 맞아 쫀득한 민어회, 장인 손 거치니 味친 한상 찌개부터 젓갈·무침까지…명태의 무한 변신 식감 있는 시금장, 냄새 없는 청국장…건강한 발효 밥상 [핫이슈] 추천 여행지 경남 협동조합이 뭉쳤다, 최고의 1박2일을 위해 먹방로드는 대구로 통한다 천연 수영장, 둘레길 ASMR…장유서 2박3일 소확행 통도사 명품 소나무길 ‘눈호강’ 청정 배내골서 더위 싹 얼음골서 삼복더위 날리고, 케이블카 타고 신선놀음 고래떼 찾는 생태관광…모노레일로 포경 역사여행 대왕암공원 해송숲 거닐고, 심장쫄깃 출렁다리 건너봐 8500여 그루 편백 호위하는 ‘언택트’ 천마산 산림욕장 반려동물…또 하나의 가족 동물 에티켓도 공부가 필요 박귀엽 시민기자의 요즘 육아 함께하는 육아·정책 기획시리즈 강준수 시민기자의100세 시대 건강과 식생활 김태영 시민기자의 뷰티플 라이프 박귀엽 시민기자의 요즘 육아 반려동물…또 하나의 가족 외국인 시민기자의 한국 사랑 강병령의 한방 이야기 [전체보기] ‘명절 통증’ 지속땐 침·뜸으로 조기치료 퇴행성 관절염, 오적산 등의 약제 효능 김경민의 한방 이야기 [전체보기] 노인성 질환 줄이려면 꼭 ‘변비 관리’ 김형철의 한방 이야기 [전체보기] 수험생 집중력 저하에 총명탕 도움 허리 통증 있다면 허혈 풀어줘야 박상은의 한방 이야기 [전체보기] 기능성 소화불량엔 침 치료 효과 손명균의 한방 이야기 [전체보기] 골다공증 한약·침으로 호전 가능 심재원의 한방 이야기 [전체보기] 냉방병엔 갈근탕·향소산 등 효과 아이 키 성장 위한 영양관리 유선애의 한방 이야기 [전체보기] 성장호르몬 맞춤처방 키 크는데 중요 윤경석의 한방 이야기 [전체보기] 잦은 불안증엔 탕약·침 처방 효과 코로나 후유증에는 ‘면역 보양식’ 이수칠의 한방 이야기 [전체보기] 아이들 성장에 좋은 맞춤한약 치료 천식 원인 감별…자생력 키워 치료 진료실에서 [전체보기] 아토피 잇따른 신약…유발 요인 등 찾아 적극 치료해야 완치 통풍·신장병 예방하려면 내장류·맥주 등 섭취 줄여야 하한출의 한방 이야기 [전체보기] 모세혈관 노화 젊은층도 관리해야 손·발 함께 떨릴 땐 파킨스병 의심을 알립니다 · 성우하이텍과 함께하는 제24회 부산마라톤대회 ‘버추얼 레이스’ · 제22회 최계락문학상 작품 공모 · 호우 및 태풍 피해 이웃 돕기 성금 모금 제휴사 부산스토리텔링협의회 부산과학기술협의회 걷고싶은부산 제휴서비스 국제신문대관안내 회사소개 전화안내 광고안내 구독신청 독자투고 기사제보 개인정보취급방침 언론윤리강령 고충처리 모바일국제신문 주소 : 부산광역시 연제구 중앙대로 1217대표전화 : 051-500-5114편집인 : 배재한발행인·인쇄인 : 윤규황 Copyright ⓒ kookje.co.kr All rights reserved.</t>
+  </si>
+  <si>
+    <t>[뉴스체크-제주] 제주도, 유네스코 세계지질공원 재인증…도내 관광기념품 공모전 개최 - 여행스케치 × 전체기사 국내뉴스 전체 서울 경기·인천 강원 대전·충남 세종·충북 전북 광주·전남 대구·경북 부산·경남 제주 테마여행 전체 체험여행 인문학여행 트레킹여행 자전거여행 골목길여행 섬여행 맛여행 전체 맛시장멋골목 맛집 축제 전체 봄 여름 가을 겨울 이벤트 오피니언 전체 박상대칼럼 인터뷰 기획 신간 데스크칼럼 해외여행 전체 해외여행 해외뉴스 포토 전체 사진 동영상 그림여행 사보와 단행본 전체 사보 단행본 UPDATED. 2022-10-07 09:18 (금) 전체 뉴스 서울 경기·인천 강원 대전·충남 세종·충북 전북 광주·전남 대구·경북 부산·경남 제주 테마여행 체험여행 인문학여행 트레킹여행 자전거여행 골목길여행 섬여행 맛여행 맛시장멋골목 맛집 축제 봄 여름 가을 겨울 이벤트 오피니언 박상대칼럼 인터뷰 기획 신간 데스크칼럼 해외여행 해외여행 해외뉴스 포토 사진 동영상 그림여행 사보와 단행본 사보 단행본 커뮤니티 독자가 편집실에 이벤트 검색 통합검색 기사검색 검색하기 로그인 회원가입 전체기사 여행스케치 10월호 이전 다음 [뉴스체크-제주] 제주도, 유네스코 세계지질공원 재인증…도내 관광기념품 공모전 개최 번역하기 English 简体中文 日本語 bahasaindonesia tiếng Việt 한국어 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 국내뉴스 제주 [뉴스체크-제주] 제주도, 유네스코 세계지질공원 재인증…도내 관광기념품 공모전 개최 유인용 기자 승인 2019.05.17 18:21 댓글 0 번역하기 English 简体中文 日本語 bahasaindonesia tiếng Việt 한국어 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 지난 14일 제주 세계지질공원 재인증 확정 전통시장 6개소에서 문화공연 개최 관광기념품 공모전, 최대 상금 2000만원 제주도 유네스코 세계지질공원 인증서. 지난 2014년에 이어 올해 두 번째로 재인증됐다. 사진제공 / 제주도청 제주도 유네스코 세계지질공원 재인증 확정 제주도 유네스코 세계지질공원 재인증이 성공적으로 확정됐다. 지난 14일 유네스코가 제주도 세계지질공원의 재인증 확정 공식 문서와 함께 인증서를 보내옴에 따라 재인증 절차가 마무리된 것이다. 제주도 세계지질공원은 2014년에 이어 올해 두 번째로 재인증된 것으로, 지난 2014년 재인증 당시 유네스코에서 제시한 10개의 권고사항을 충실히 이행한 것이 중요하게 평가된 것으로 알려졌다. 2014년 재인증 당시 유네스코는 제주도 지질공원에 대해 총 10개의 권고사항을 제시한 바 있으며, 도에서는 이 권고를 해결하기 위해 유관기관 협의체 구성, 지질공원 가시성 향성, 파트너쉽 확대 구축, 홍보활동 강화, 지역주민 참여확대, 국제교류 강화 등을 추진하며 권고사항을 모두 이행했다. 또한 제주도 세계지질공원 재인증 과정에서 유네스코는 4개의 권고사항을 제시하기도 했다. 권고내용은 제주도 지질공원과 지오브랜딩 사업 웹사이트와의 통합, 제주도 지질공원이 관광활성화 영향에 대한 연구 수행, 유네스코 3관왕 브랜드와 연계한 시너지 관리방안 구축, 활발한 국제교류 활동 참여 등을 골자로 하고 있다. 세계지질공원은 세계자연유산, 생물권보전지역과 함께 유네스코 3대 공식 프로그램으로 국제적 브랜드 가치가 높고 심사도 강화되고 있다. 세계지질공원은 4년 주기로 엄격한 재인증 심사를 거쳐 브랜드 지위를 이어가고 있으며, 인증뿐만 아니라 유지도 어려운 것으로 알려져있다. 현재 41개국 147개소가 인증되어 있다. 한편, 오는 2020년에는 제주도에서 70여 개국 1,200여명이 참가하는 유네스코 세계지질공원 총회가 개최될 예정이다. 제주도는 내년 세계지질공원 제주 총회의 성공적인 개최를 통해 자연자원의 가치와 제주도 지질 공원의 활동사례를 널리 알릴 예정이다. 이를 위해 총회 기본계획의 수립, 준비위원회를 구성 등을 통해 준비에 만전을 기하고 있다. 제주도내 전통시장 6개소에서는 문화공연이 추진된다. 이달 25일에는 세화민속오일장에서 공연이 개최된다. 사진제공 / 제주도청 도, 전통시장 문화공연 추진… 이달 25일 세화민속오일시장 등 제주특별자치도는 전통시장의 홍보와 활성화를 위해, ‘전통시장 및 상점가 문화공연’을 추진한다. 전통시장 및 상점가 문화공연은 ‘2019년 전통시장 활성화 홍보사업’의 일환으로 추진하는 것으로, 도내 전통시장 6개소(대정오일시장, 제주시민속오일시장, 세화민속오일시장, 동문시장, 제주시민속오일시장, 서귀포향토오일시장)를 상·하반기로 나눠 개최할 계획이다. 이에 따라 오는 25일 오후 1시에는 세화민속오일시장에서, 6월 8일 오후 5시에는 동문시장(산지천 광장)에서 문화공연이 펼쳐질 예정이다. 문화공연에서는 길트기, 물허벅춤, 사물놀이, 부채춤, 가야금병창, 지역별 민요 등 다양한 장르의 공연이 선보이며 특히 제주아리랑 등 제주 전통민요 공연을 통해 제주 전통시장을 방문하는 관광객들에게 제주의 전통문화를 알릴 수 있는 기회를 마련한다. 또한, 전통시장을 찾은 도민과 관광객이 참여하는 노래자랑을 통해 제주사랑상품권을 제공하는 이벤트도 진행한다. 제주특별자치도는 전통시장 및 상점가 문화공연으로 시장을 찾는 도민과 관광객들에게 볼거리와 즐길거리를 제공해 시장매출 증대로 이어지는 효과를 기대하고 있다. 손영준 제주특별자치도 일자리경제통상국장은 “전통시장에 제주의 향토적인 색채가 짙은 문화예술을 더하면 사람이 더 모이고, 매출 증가에도 기여할 수 있을 것”이라며 “시장고객과 상인들이 즐길 수 있는 문화공연이 될 수 있도록 하겠다”고 밝혔다. 제22회 제주특별자치도 관광기념품 공모전 개최 제주특별자치도는 제주를 대표하는 관광기념품을 발굴·육성하기 위해 ‘제22회 제주특별자치도 관광기념품 공모전’을 개최한다. 올해 공모전은 제주의 문화, 자연환경, 먹거리, 관광명소 등을 반영한 우수하고 매력적인 제주관광기념품 분야로 공모가 이루어진다. 이번 공모전을 통해 모집하는 기념품은 민·공예품, 공산품, 가공품 등 국내·외 관광객들이 구매할 수 있는 모든 관광기념품이다. 응모자격은 제한이 없으며, 공모전 출품을 원하는 업체 및 개인은 오는 6월 3일부터 6월 14일까지 참가신청서와 출품작을 제주특별자치도관광협회(제주종합비지니스센터 3층)로 접수하면 된다. 출품작은 관련분야 전문가로 구성된 심사위원단의 심사를 거쳐 총 19점의 입상작(대상 1점, 금상 2점, 은상 4점, 동상 4점, 장려상 8점)을 선정할 예정이다. 공모전 입상작에는 상장과 상금 외에 상품개발자금 지원, 대규모 박람회, 홍보물 제작, 온라인을 통한 홍보·판매, 지식재산권 등록 지원의 특전이 주어진다. 입상작 상품개발자금 지원은 예산범위 내(7000만 원)에서 수상 순위를 우선으로 지원하며, 업체별(개인) 지원액은 대상 2000만원, 금상 1000만원, 은상 이하 500만원이고 자부담금은 30%이다. Tag #제주관광기념품 #제주유네스코 #제주세계문화유산 #제주지질공원 #제주전통시장 저작권자 © 여행스케치 무단전재 및 재배포 금지 유인용 기자 다른기사 보기 관련기사 "유럽 트레킹 코스 안부러워" 옛 선조들의 애환이 살아 숨쉬는 남해 바래길 다시 돌아온 뮤지컬의 계절, 대구국제뮤지컬페스티벌 간담회 열려 [극장 나들이] 무엇을 듣고, 어떤 것에 귀 기울일 것인가, 연극 '보도지침' [기획취재] 짐 없는 여행, 가능할까?…부산역 짐캐리 수하물 운송 서비스 이용해보니 [포토] 류영준 대표 "6월 중 해외 여행지서 카카오페이 사용 가능" [뉴스체크=서울] 서울광장서 '2019 서울드럼페스티벌' 24일 개최…중랑구 '서울장미축제' 개막 [뉴스체크-강원] 하조대전망대 둘레길 조성...평창여행 관광안내 채팅 서비스 시범 운영 시작 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 테마여행 친일파의 세컨드하우스에서 임정 청사로… 김구의 사저, 경교장 친일파의 세컨드하우스에서 임정 청사로… 김구의 사저, 경교장 [여행스케치=서울] 서울은 아름답다. 드문드문 보이는 근대 건축물이 첨단의 고층빌딩과 묘한 조화를 이룬다. 고풍스럽고 멋있지만 시대자체가 고통이었기에 근대 건축에는 아픈 기억이 스... 여행뉴스 여행스케치 후원, 완주군 무궁화 축제 ‘캠핑 페스티벌’ 성료 여행스케치 후원, 완주군 무궁화 축제 ‘캠핑 페스티벌’ 성료 [여행스케치=완주] 완주군이 ‘제32회 나라꽃 무궁화 전국축제’ 기간에 맞추어 전국의 캠핑족을 한데 모으는 캠핑 페스티벌을 열었다. 지난 8월 26일에서 28일까지 고산무궁화오토캠... 오피니언 [여행지에서 쓰는 편지] 여행지에서 만나는 적들 [여행지에서 쓰는 편지] 여행지에서 만나는 적들 여행은 즐거운 일입니다. 우리는 몸과 마음을 쉬게 하고, 새로운 에너지를 얻으려고 산으로 바닷가로 여행을 합니다. 그런데 저는 이번 여행길에 참 어처구니없는 일을 당했습니다. 신호... 해외여행 요즘 핫! 한 새로운 베트남, 일출 명소 나트랑 &amp; 꽃의 도시 달랏 요즘 핫! 한 새로운 베트남, 일출 명소 나트랑 &amp; 꽃의 도시 달랏 [여행스케치=나트랑] 길게 늘어진 해안의 장점을 살려 리조트 사업을 활발히 진행하는 베트남. 코로나 자가격리 면제국으로 그동안 여행이 자유롭지 못했던 관광객의 발길을 불러 모으는 ... 축제 고대 마한의 중심에서 가을을 즐기다, 대한민국 마한문화제 고대 마한의 중심에서 가을을 즐기다, 대한민국 마한문화제 [여행스케치=나주] 2022년 대한민국 마한문화제가 10월 8일부터 9일까지 양일간 전남 나주시 국립나주박물관 일원에서 개최된다. 영산강 유역에서 화려한 문화를 자랑했던 고대 마한... 포토·동영상 [사진 맛집] 여기선 꼭 찍어야 해! 영화 속 주인공처럼 [사진 맛집] 여기선 꼭 찍어야 해! 영화 속 주인공처럼 [여행스케치=서울] 현실에서 약간 비껴 난 듯, 영화에나 나올 법한 오묘한 분위기를 풍기는 포토 스폿들이 있다. 이른바 ‘배경이 열 일하는’ 기특한 사진 명소들.하늘에 그린 하트 ... 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울시 용산구 한강대로84길 21-17 대표전화 : 02-795-3364 등록일 : 2016-07-19 발행일 : 2003-05-03 청소년보호책임자 : 민다엽 ktsketch@naver.com 법인명 : 하이미디어피앤아이 제호 : 여행스케치 등록번호 : 서울 아 04112 발행인 : 박상대 편집인 : 박상대 여행스케치 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 여행스케치. All rights reserved. mail to ktsketch@naver.com 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 가정의 달 사랑의 빵 나눔 봉사활동 &lt; 동네방네 &lt; 일과 사람들 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 일과 사람들 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 동네방네 인사 화촉 부음 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 가정의 달 사랑의 빵 나눔 봉사활동 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 일과 사람들 동네방네 제주도관광협회, 가정의 달 사랑의 빵 나눔 봉사활동 기자명 강지환 기자 입력 2019.05.06 11:32 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주특별자치도관광협회(회장 김영진)는 가정의 달을 맞아 지난 4일 협회 임직원 20여명이 참여한 가운데 대한적십자사 나눔기부 프로그램에 참여해 직접 만든 빵과 생필품을 소외된 이웃들에게 전달하는 등 '사랑의 빵 나눔'봉사활동을 실시했다. 강지환 기자 wlghks4889@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 중국 인센티브 관광객 몰려온다 - 아시아투데이 아시아투데이 서울 다른도시13.2℃ 춘천강릉서울인천충주대전대구전주울산광주부산제주 뉴델리 22℃ 도쿄 24.9℃ 베이징 16℃ 자카르타 30℃ 네이버뉴스스탠드 네이버 포스트 유투브 페이스북 트위터 최신 오피니언 사설 칼럼·외고 기자의 눈 피플 정치 정치일반 대통령실 국회·정당 북한 외교 국방 정부 사회 사회일반 사건·사고 법원·검찰 교육·행정 노동·복지·환경 보건·의약 경제 경제일반 정책 금융·증권 산업 IT·과학 부동산 유통 중기·벤처 아투시티뉴스 종합 경기·인천 세종·충청 영남 호남 강원 제주 국제 세계일반 아시아·호주 북미 중남미 유럽 중동·아프리카 문화·스포츠 전체 방송 가요 영화 문화 종교 스포츠 여행 포토 전체 포토 비주얼뉴스 지면보기 제보24시 자문위원단 독자권익위원회 아투TV 대학동문골프최강전 글로벌 리더스 클럽 English中文 제주도, 중국 인센티브 관광객 몰려온다 지오영, 대외 홍보 강화…SK바사 홍보위원 선임 MBC 노조, "민노총 산하 전국언론노조와 다른 우리 기자들의 목소리도 들어줄 것" 국제기자연맹에 요청 2022년 10월 11일(화) 사통팔달 피플 아투시티초대석 볼거리 전체메뉴 종합 경기·인천 세종·충청 영남 호남 강원 제주 검색버튼 제주도, 중국 인센티브 관광객 몰려온다 기사승인 2019. 05. 03. 09:14 가 (더 작게) 가 (작게) 가 (기본) 가 (크게) 가 (더 크게) 4월 말 현재 6건 유치…내달 익성한삼 코스메틱 1500여명 예정 제주 양준호 기자 = 제주특별자치도의 꾸준한 노력으로 중국 인센티브 관광(포상 관광) 활성화에 대한 기대감이 높아지고 있다.3일 제주도에 따르면 다음 달 9일부터 13일까지 4박 5일 간 중국 익성한삼 코스메틱 직원 1500여명이 제주에서 인센티브 관광 및 회의를 갖는다.제주의 중국 인센티브 관광 시장은 2016년 20건에 달했지만 2017년 사드 사태 이후 2건으로 대폭 하락했다. 도와 제주컨벤션뷰로는 그동안 중국 마이스(MICE) 전문 박람회에 독립 부스 운영과 중화권 마이스 로드쇼 참가 등 중국 시장을 꾸준히 공략해 왔다.이를 통해 올 4월 말 현재 익성한삼 코스메틱을 포함, 총 6건의 인센티브 관광을 유치했으며 중국 기업들의 관광 요청 문의가 이어지고 있다.익성한삼 코스메틱은 익성제약 그룹의 자회사로 중국 내 12곳에 지사를 두고 있으며 화장품 및 건강 식품이 주력 제품이다. 양준호 기자 &gt; truth116@asiatoday.co.kr ⓒ아시아투데이, 무단전재 및 재배포 금지 댓글 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 전국 많이 본 뉴스 1 장성 황룡강 가을꽃축제, ‘사람반 꽃반’ 첫날 방문객 6.. 2 ‘주민등록법위반 혐의’ 김재한 창녕군의회 의장 피소 3 김동연 도지사 “전통시장은 지역경제의 근간, 지역화폐 활.. 4 고흥, 친환경 양식 클러스터 조성 1100억원 투자협약... 5 ‘주홍빛 물든 청도에서 즐겨보자’...청도반시축제·세계코.. 6 목포, 주암댐 ‘가뭄심각’ 장흥댐 용수 사용전환 위해 ‘.. 7 김영록 전남지사, 중앙지방협력회의서 중앙권한 과감한 이양.. 오늘의 주요뉴스 “네이버, 소상공인 기금 일부 유용”…네이버 “입장없다” ‘부동산 매물정보 갑질’ 네이버 최수연 첫 재판 연기 이해진 “라인 韓기업이라면, 네이버 韓 아닌 외국기업” 尹, 친일국방 공세에 “北위협 어떤 우려 정당화되나” 유승민 “李, 中 3불 강요 ‘한미일 군사동맹’ 쓰지말라” 건보개편 후폭풍?…국민연금 자발적 가입자 첫 감소 홍준표, 당권주자 겨냥 “배신 경력자는 나오지 말라” ‘신화’ 신혜성, 도난차량서 음주측정 거부하다 체포 신규확진 1만5476명 감소세…사망 10명, 석달새 최소 ‘다사다난’ 오세훈 시장 취임 100일…성과와 과제는 글로벌리더스클럽 회사소개 | 광고안내 | 행사안내 | 구독신청 | 제보24시 | 고충처리 | 회원약관 | 개인정보취급방침 | 청소년보호정책 | 저작권규약 | 인재채용 등록번호 : 서울 아00160 | 등록일 : 2006년 1월 18일 | 제호 : 아시아투데이 | 회장 : 송인준 | 발행인ㆍ편집인 : 우종순 서울시 영등포구 의사당대로1길 34 인영빌딩 | 발행일자 : 2005년 11월 11일 | 대표전화 : 02) 769-5000 | 청소년보호책임자 : 성희제 아시아투데이는 인터넷신문위원회 윤리강령을 준수합니다. Copyright by ASIATODAY Co., Ltd. All Rights Reserved</t>
+  </si>
+  <si>
+    <t>제주도 용머리해안으로 관광객 몰려…인근 테마상가 ‘플레이사계’ 분양마감 임박 - 아이티비즈 × 전체기사 뉴스 전체 SW 보안 인터넷 통신 네트워크 모바일·콘텐츠 산업/경제 문화/생활 기획&amp;정책 전체 특집 업체탐방 인터뷰 리뷰 이슈분석 트렌드 비즈니스모델 리서치&amp;오피니언 전체 선호도조사 만족도조사 수요조사 시장조사 디지털경제 전체 금융 통신 공공 제조·유통 서비스 의료 교육 제약·물류 라이프 전체 컬럼 기고 문화생활 피플&amp;포토 전체 인사 동정 부음 축하 사무실이전 신간 이벤트 전체 세미나 포럼 조찬회 어워드 UPDATED. 2022-10-11 12:54 (화) 로그인 회원가입 기사제보 모바일웹 전체 최신뉴스 SW 보안 인터넷 통신 네트워크 모바일·콘텐츠 산업/경제 문화/생활 기획&amp;정책 특집 업체탐방 인터뷰 리뷰 이슈분석 트렌드 비즈니스모델 리서치&amp;오피니언 선호도조사 만족도조사 수요조사 시장조사 디지털경제 금융 통신 공공 제조·유통 서비스 의료 교육 제약·물류 라이프 컬럼 기고 문화생활 피플&amp;포토 인사 동정 부음 축하 사무실이전 신간 기사검색 검색 이전 다음 제주도 용머리해안으로 관광객 몰려…인근 테마상가 ‘플레이사계’ 분양마감 임박 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 라이프 문화생활 제주도 용머리해안으로 관광객 몰려…인근 테마상가 ‘플레이사계’ 분양마감 임박 김재원 기자 승인 2019.05.10 14:32 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 용머리관광지 공영주차장 꽃샘추위가 물러나고 5월 가정의 달을 맞아 그동안 떠나지 못했던 여행을 즐기는 이들도 꽤나 많아 보인다. 전국에는 수많은 관광지가 있다. 이 중 제주도는 특히 5월 가정의 달을 맞아 수많은 여행객들이 방문하여 번성을 누리고 있다. 제주도는 여러 명소가 있는데, 천혜자연을 잘 보존한 덕에 명실상부 국내 최대 관광지로서 현재까지도 여행객들의 발길이 끊이질 않고 있다. 중·고등학교 수학여행지로 가장 인기 있는 곳이기도 한 제주도를 방문하면 꼭 가봐야 할 명소 ‘용머리관광지’를 눈여겨봐야 한다. 용머리해안과 그 일대 용머리관광지는 오는 2020년 12월31일까지 안덕면 사계리 114번지 일원으로 개발 사업이 확정됨에 따라 여행객들의 편의를 위한 개발이 진행되고 있다. 매년 약1,500만 명이 이곳을 방문하기 때문에 제주도 입장에서는 다소 협소한 편의시설을 확충하기 위해 이 일대에 개발을 확정지은 것으로 보인다. 물론 용머리관광지의 자연경관을 훼손하지 않는 차원에서 진행되는 개발 사업이다 보니 기존에 용머리관광지가 갖고 있던 아름다운 자연경관은 그대로 보존될 것으로 보인다. 여기에 용머리관광지 공영주차장 바로 옆에 위치한 광장형 테마상가 ‘플레이사계’는 투자자 입장에서 호재가 될 것으로 전망된다. 제주도 용머리관광지 인근 광장형 테마상가 ‘플레이사계’는 제주도 여러 명소 앞 단일규모로는 최대 면적을 보인다. ‘플레이사계’는 용머리해안 일대의 자연경관을 훼손하지 않기 위해 1~2층으로 구성되어 있으며, 전체 호실은 43개가 자리한다. 플레이사계 분양관계자는 “제주도 유명관광지 바로 앞, 단일규모로는 플레이사계가 최대규모이이며, 최근 트렌드에 맞게 광장형으로 구성되었다. 매년 많은 여행객들이 용머리관광지를 찾아주신 덕에 이 일대는 개발 사업이 한창이고 ‘플레이사계’는 바로 옆에 위치하여 제주도 상가 투자자 입장에서 상당히 매력적이라고 본다”면서, “현재 ‘플레이사계’는 상가 분양이 한창이며, 마감이 임박한 만큼 서두르는 편이 좋다”고 설명했다. 저작권자 © 아이티비즈 무단전재 및 재배포 금지 김재원 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1이통3사, 아이폰 14 시리즈 사전예약 시작…마케팅 경쟁 돌입 2매스아시아, 中 홍지그룹과 E-모빌리티 사업 협력 3한국레노버, 씽크북 16p 3세대 출시 4팀뷰어, 현대자동차와 스마트팩토리 디지털 전환 맞손 5LG전자, 97형 올레드 TV 앞세워 북미 프리미엄 시장 공략 가속화 6티피링크, 와이파이 6E 공유기 ‘데코 XE75∙XE75 프로’ 출시 7사피온, NHN 데이터센터에 AI반도체 클라우드 인프라 구축 8KT "IPTV 넘어 새로운 홈 미디어 시대 열겠다"…'지니 TV' 출시 9LG전자, 식물생활가전 ‘LG 틔운 미니’ 파스텔톤 신제품 출시 10델테크놀로지스, 레드햇과 멀티 클라우드·데브옵스 분야 협력 강화 최신기사 'SK 테크 서밋 2022' 개최…SK그룹 ICT 기술 공유 네이버웹툰, 美 ‘뉴욕 코믹콘 2022’서 글로벌 플랫폼 위상 강화 KT, 듀얼 번호 가입 고객 23만 명 넘었다 '보안 위협에 선제적 대응'…지니언스, ‘버그 바운티’ 우수 신고자에 포상금 지급 라이브커넥트, 2022년 매출 세 자릿수 성장세 파수, 엔터프라이즈 문서 플랫폼 ‘랩소디’ 업데이트 버전 선보여 '키즈 디지털 금융습관 키운다'…하나은행-LG유플러스, 전략적 업무협력 신문사소개 윤리강령 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS (우)02825 서울특별시 성북구 아리랑로5길 85, 101동 1901호 대표전화 : 02-919-8363 청소년보호책임자 : 김건우 명칭 : 아이티비즈랩 제호 : 아이티비즈 등록번호 : 서울 아02297 등록일 : 2012-10-18 발행일 : 2012-10-18 발행인 : 박미숙 편집인 : 박미숙 아이티비즈 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 아이티비즈. All rights reserved. mail to webmaster@it-b.co.kr 위로</t>
+  </si>
+  <si>
+    <t>효리의단골집 제주도 중문 관광단지 맛집 ‘이조은식당’ 계속 땡기는 갈치조림의 비결… - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-10 오후 09:59:46 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t>주먹구구식 관광정책 탈피, 제주도 '빅데이터' 활용한다 &lt; 관광일반 &lt; 관광 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 13:05 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도개발공사 상임감사에 여론조사 전문가 양진철 교수 임명 ‘보이스피싱 의심’ 1800만원 피해 막은 제주은행원 경찰 감사장 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 주먹구구식 관광정책 탈피, 제주도 '빅데이터' 활용한다 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 관광 관광일반 주먹구구식 관광정책 탈피, 제주도 '빅데이터' 활용한다 기자명 이승록 기자					(leerevol@naver.com) 입력 2019.04.30 17:24 댓글 1 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 제주관광진흥 전략회의를 주재하는 원희룡 제주지사제주 관광정책 연계를 위한 빅데이터가 활용된다.제주도는 30일 오후 2시 제주도청 한라홀 4층에서 ‘제주관광진흥 전략회의’를 개최하고 빅데이터를 활용한 관광 정책 연계방안을 논의했다.이는 통계 조사 및 빅데이터를 통해 관광 사업의 현실태를 진단하고 정책 활용도를 높일 수 있는 방안을 모색하기 위해 마련됐다.회의에는 관광분야 실국단장, 행정시 부시장을 비롯해 제주관광협회, 제주관광공사, ICC 제주 등 유관기관 등이 함께 참석했다.회의에서는 제주방문 관광객 실태조사 결과, 신용카드 매출액 분석, 관광동향 및 빅데이터 기반 행정 추진 현황 및 활용 방안 등이 공유됐다.원희룡 지사는 “불필요한 논란과 갈등을 줄일 수 있는 것은 바로 데이터”라면서 “기술적‧법적 허용 범위 안에서 늘 최신으로 반영하고, 예산을 지원해 인프라를 구축해야 한다”고 강조했다.또한 “한번 구축하고 끝내는 것이 아니라 늘 최신의 상태를 유지할 수 있는 집중적인 투자와 함께 공유 및 개방할 수 있는 시스템을 유지할 수 있도록 역점을 두어야 한다”고 밝혔다.원 지사는 특히 데이터 공유와 관련해 “정보로서 가치가 있는 것은 공유하고 공개할 수 있는 방안을 만들어야 한다”며 기관과의 협력과 도민들의 활용 방안에 대해서도 제안했다.원 지사는 “카드 매출 실적 등 제주 관광 현황과 연결된 데이터가 많이 나오고 있기 때문에 이를 토대로 대응전략을 세우는 것은 시대적으로 매우 중요하고 관광 문제를 해결하기 위한 좋은 요인이 될 것”이라 전망했다.이어“도민들이 새롭게 돈이 되고, 수요가 있는 것을 보면서 어떻게 제주 경제가 가고 있는지 활용 방안을 구상할 수 있어야 한다”며 “이를테면 제주관광 데이터 리포트나 분석 정책 제안, 업종별 고객 데이터 등을 통해 새롭게 뜨고 있는 곳을 알수있고 업종 변경이나 고객 관리 전략을 세울 수 있도록 해야 한다”고 당부했다.또한 “만약 외국관광객들이 교통이나 언어소통에 대한 불편함이 존재한다고 분석 결과가 나오면 그저 데이터 자체로 끝나는 것이 아니라 해당 부서와 이를 개선하기 위한 우선과제로 현실에 반영해야 한다”며 “정책에 반영부분에 대해 관련 부서와 유관기관이 집중적인 논의로 가지고 즉시 반영하고, 현실과 이어질 수 있도록 후속작업을 해 달라”고 요청했다.한편 제주도는 빅데이터 정책 추진 상황과 데이터 기반 정보를 공유하고, 실무부서에서 필요로 하는 과제를 발굴하기 위한 ‘빅데이터 실무협의회’를 지난해 연 2회에서 분기별로 개최하며 데이터 관점의 컨설팅제를 운영하고 있다. 이승록 기자 leerevol@naver.com 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 제주 예외 아닌 교권침해, 일방적 희생 강요 안돼 1 제주답게 만들기를~~ 2 이런 얼치기 주의자들이 판치는 제주를 언제까지 봐줘야 할건지~~ 3 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 4 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 5 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 6 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 7 못간다 8 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 9 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 10 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주관광공사,제주도내 유튜버를 위한 크리에이터 양성 교육 시행 - 블록체인밸리::No.1 Korea Blockchain &amp; Fintech Media × 블록체인&amp;정책 전체 블록체인&amp;정책 블록체인&amp;산업 전체 블록체인&amp;산업 블록체인 지식창고 블록체인&amp;마켓 전체 마켓인사이드 프로젝트 IT 게임 인베스트뉴스 코인코드 스팟 코인니스 스팟 E&amp;경제·산업 전체 증권·카드·투자 통신·IT·게임 자동차·유통·식품 건설·부동산·조선 제약·바이오·의료 은행·보험 E&amp;4차산업 전체 사물인터넷 자율주행 드론 5G·VR·메타버스 동향및전망 스마트팩토리 E&amp;AI인공지능 전체 동향및전망 자율주행&amp;빅데이터 AI 기술 AI 로봇 AI 쇼핑 AI 플랫폼 E&amp;핀테크·페이먼트 전체 동향및전망 스타트업·로보어드바이저 P2P·공유경제 O2O 인터넷은행·오픈뱅킹 크라우드펀딩 페이먼트 투데이단신 전체 투데이단신 정치&amp;정책 비즈&amp;컬쳐 오늘의 데이터 분석 UPDATED. 2022-10-11 13:00 (화) 로그인 회원가입 모바일웹 전체 블록체인&amp;정책 블록체인&amp;정책 블록체인&amp;산업 블록체인&amp;산업 블록체인 지식창고 블록체인&amp;마켓 마켓인사이드 프로젝트 IT 게임 인베스트뉴스 E&amp;경제·산업 증권·카드·투자 통신·IT·게임 자동차·유통·식품 건설·부동산·조선 제약·바이오·의료 은행·보험 E&amp;4차산업 사물인터넷 자율주행 드론 5G·VR·메타버스 동향및전망 스마트팩토리 E&amp;AI인공지능 동향및전망 자율주행&amp;빅데이터 AI 기술 AI 로봇 AI 쇼핑 AI 플랫폼 E&amp;핀테크·페이먼트 동향및전망 스타트업·로보어드바이저 P2P·공유경제 O2O 인터넷은행·오픈뱅킹 크라우드펀딩 페이먼트 기사검색 검색 이전 다음 제주관광공사,제주도내 유튜버를 위한 크리에이터 양성 교육 시행 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 투데이단신 투데이단신 제주관광공사,제주도내 유튜버를 위한 크리에이터 양성 교육 시행 김태연 기자 승인 2019.05.12 22:29 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주관광공사,제주도내 유튜버를 위한 크리에이터 양성 교육 시행 제주관광공사(사장 박홍배)는 제주관광 콘텐츠를 알릴 제주 1인 크리에이터 제작 지원을 위한 교육생을 32명 선발, 크리에이터 양성 교육을 시행한다. 제주관광공사가 도내에 거주중인 크리에이터를 발굴, 교육하고 우수자들에게 제작비를 지원하는 ‘제주 1인 크리에이터 지원’ 사업 지원자 모집에 지난 4월 4일부터 28일까지 총 94명이 지원, 이중 32명(팀)이 교육생으로 선발되었다. 교육생들은 5월에 진행되는 양성 교육을 통해 콘텐츠 기획에서부터 영상, 브랜딩, 영상 촬영 및 편집 등 유튜브 채널 운영에 대한 기본적인 교육을 제공받게 된다. ‘제주 1인 크리에이터 지원’ 사업은 도내에 거주 중인 크리에이터들이 보다 좋은 품질의 제주관광 영상 콘텐츠를 제작, 유튜브 등 영상플랫폼을 활용하는데 도움을 주는 사업이다. 트렌드에 맞는 영상을 제작하고, 영상 플랫폼을 유기적으로 활용함으로써 보다 많은 이들에게 참신한 감각과 새로운 시각으로 제주 관광을 알리는데 그 목적이 있다. 유튜브 교육은 총 5회에 걸쳐 이뤄지며 1차는 유튜브 이해 및 브랜딩(5월 23일), 2차는 여행 콘텐츠 기획 및 운영(5월 24일) 3차는 영상 촬영 및 보정(5월 29일), 4차는 유튜브 콘텐츠 기획 및 운영(5월 30일), 5차는 영상 편집(5월 31일) 교육이다. 이중 25만 구독자를 지닌 인기 여행유튜버 ‘청춘여락’ 강의는 24일(오후 7시~9시), 43만 구독자를 지닌 먹방 유튜버 ‘맛상무’ 강의는 30일(오후 7시~9시)에 공개 강의로 열리며 누구나 참여할 수 있다. 장소는 제주웰컴센터 1층에 있는 웰컴홀이다. 제주관광공사 관계자는 “영상콘텐츠 제작과 유튜브 운영 노하우가 쌓인 인기 유튜버들이 직접 강의하는 콘텐츠 기획, 영상 촬영 및 편집 강의를 통해 현장감 있는 정보를 많이 접하게 될 것이다. 도내 크리에이터들이 중요한 노하우를 배우게 될 것이다”라며 “또한 여행 유튜버로 인기 있는 청춘여락과 먹방 크리에이터로 43만명의 구독자를 지닌 맛상무의 공개강연을 통해 유튜브에 관심이 있는 모든 도민이 참여할 수 있도록 했다”고 밝혔다. FINTECHPOST 저작권자 © 블록체인밸리::No.1 Korea Blockchain &amp; Fintech Media 무단전재 및 재배포 금지 김태연 기자 다른기사 보기 [관련기사] [12일 조달청 입찰정보/종합] 유천D/L 운전용량부족 선로확충공사 감리용역(PQ), 2019년 폭염대응 주요간선도로 물 뿌리기 살수차 임차 용역(재공고)외 나라장터 입찰 공고 [(주간/종합) 코스닥 거래대금 Top 20] 크리스탈신소재 주간 거래대금 1위, 엑사이엔씨, SNK, 흥구석유, 현대바이오 주가 순으로 상위 기록. [(주간/종합) 코스피 거래금액 Top 20] 삼성전자 주간 거래금액 1위, SK하이닉스, 셀트리온, 카카오, 한진칼 주가 순으로 상위 기록. [(주간/종합) 코스닥 상승률 Top 20] 한화에스비아이스팩 119.38% ↑ 주간 상승률 1위, 케이에스피, 오리엔트정공, 엑사이엔씨, 국일제지 주가 순으로 상위 기록. [(주간/종합) 코스피 상승률 Top 10] 대창 65.24% ↑ 주간 상승률 1위, 한진칼우, 하나니켈2호, 서원, 샘표 주가 순으로 상위 기록. [일자리 취업 정보/종합] 한전KPS(주), 한국보건사회연구원, 한국수자원공사, 한국농촌경제연구원 외 채용 공고…한국수자원공사 오는 20일까지 입사지원서 접수. [(주간) 코스닥 외국인 순매수 Top 20] 헬릭스미스 1위 약 160억원, 아난티 71억원, 오스템임플란트 69억원, 컴투스 68억원, 위닉스 93억원 주가 순으로 외국인 매수 나서… 주간누적 순매수 상위 기록. [(주간) 코스피 외국인 순매수 Top 20] SK텔레콤 1위 약 682억원, 삼성SDI 499억원, 호텔신라 425억원, 기아차 411억원, NAVER 1649억원 주가 순으로 외국인 매수 나서… 주간누적 순매수 상위 기록. [(주간) 코스닥 기관 순매수 Top 20] 셀트리온헬스케어 1위 약 117억원, 펄어비스 89억원, 오스템임플란트 74억원, 지노믹트리 62억원, 에스에프에이 242억원 주가 순으로 기관 매수 나서… 주간누적 순매수 상위 기록. [(주간) 코스피 기관 순매수 Top 20] LG유플러스 1위 약 552억원, KT 340억원, 카카오 283억원, 한화케미칼 280억원, SK텔레콤 1411억원 주가 순으로 기관 매수 나서… 주간누적 순매수 상위 기록. 많이 본 뉴스 1해시드, 블록체인 인재 양성소 커뮤니티 ‘프로토콜 캠프’ 3기 활동 시작 2MNB글로벌-KDE, 팝 아티스트 찰스장과 NFT 발행 3온더(Onther), 전체 인력 중 46% 이더리움 콘퍼런스 Devcon 참석 4보라네트워크, 합작 P2E 프로젝트 '보라배틀' 온보딩 발표 5오지스, BPMG와 공식 파트너십 체결하며 시너지 강화 6메타마인 재단, 글로벌 거래소 디지 파이넥스에 'MTMN' 상장 7LiveArt, 첫 NFT 시리즈 작품 ‘메타모픽 요변의 스톤 genesis’ 출시 발표 8Crurated, NFT 기술이 지원하는 배럴 조각 판매를 제공 9비피엠지, 오지스와 기술 및 사업 협력 파트너십 10티아 인베스트먼트, 빅데이터 알고리즘 활용한 ‘TIA 트레이더’ 도입 최신기사 EU 경제위원회, 암호화폐 법안 MiCA 승인 11일 시장동향 .. 약세장세 지속에도 비트코인 채굴 난도는 대폭 상승 · 평균 해시레이트 250 EH/s를 웃돈다 등 미스블록, 덴티움과 MOU... 임플란트 인증서 NFT 형태로 발행 싱가포르 금융당국 “스테이블코인이 국경간 결제 효율화에 기여” 디파이 플랫폼 Transit Swap 해킹범 유출액의 70% 이상 반환 폴리곤, L2 ‘Polygonzk EVM’ 퍼블릭 테스트넷 출시 세계 최대 모터스포츠 F1, 암호화폐 관련 상표 출원 블룸버그 : 포르투갈, 1년 미만에 구매된 암호화폐 이득에 대해 과세 신문사소개 기사제보 광고문의 정정보도 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 영등포구 선유로47길 19 기사정정요청: press88only@daum.net 애드버토리얼 아티클 : 광고문의 클릭 및 작성 대표전화 : 010-3219-7524 (문자 수신용) 편집부장 조해리 제호 : 블록체인밸리::No.1 Korea Blockchain &amp; Fintech Media 등록번호 : 서울 아 04281 등록일 : 2016-12-15 발행일 : 2016-12-15 발행인·편집인 : 조흥훈(Harry_cho) 청소년보호책임자 : 강민 블록체인밸리::No.1 Korea Blockchain &amp; Fintech Media 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2016-2022 블록체인밸리::No.1 Korea Blockchain &amp; Fintech Media. All rights reserved. mail to ajuaju123@naver.com(business proposal) / 보도자료는 press88only@daum.net 위로</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 "가람 돌솥밥", 모두에게 사랑받는 향토음식점 &lt; 생활·문화 &lt; 오늘공감 &lt; 기사본문 - 공감신문 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집 : 2022-10-11 13:05 (화) 전체기사 로그인 회원가입 전체 딥터뷰 경제공감 경제일반 금융/증권 산업/IT 종합 입법공감 종합 정치공감 종합 오늘공감 사회 생활·문화 인사/부고 종합 지역공감 칼럼공감 최종현 학술원 이슈앤속보 자문위원 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 서귀포 중문관광단지 맛집 "가람 돌솥밥", 모두에게 사랑받는 향토음식점 SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 스크롤 이동 상태바 현재위치 홈 오늘공감 생활·문화 제주도 서귀포 중문관광단지 맛집 "가람 돌솥밥", 모두에게 사랑받는 향토음식점 기자명 인터넷뉴스팀 입력 2019.05.15 13:39 댓글 0 SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 바로가기 메일보내기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 닫기 대한민국에서 여름이 가장 먼저 찾아오는 곳은 제주이다. 이국적인 바다와 장엄한 한라산 풍경을 자랑하는 제주에 이제 여름이 다가오고 있다. 가족, 커플, 친구 등 다양한 관광객들의 발걸음이 끊이지 않는 제주에서 가장 유명한 곳은 바로 중문 관광단지이다. 제주에 처음 오는 사람도, 자주 오는 사람도 가장 먼저 떠올리게 되는 관광명소는 단연 서귀포 중문관광단지이다. 공항에서 45분 거리, 서귀포 시내에서 20분 거리인 중문관광단지는 천제연 폭포와 여미지식물원, 주상절리 등 제주의 뛰어난 자연경관과 더불어 테디베어 뮤지엄, 아프리카 박물관, 플레이케이팝 테마파크 등 실내 관광지를 한 눈에 돌아볼 수 있는 곳이다.이렇듯 온가족이 둘러보기 좋은 중문 관광단지에서 실컷 놀다보면 가족 모두의 입맛을 사로잡을 수 있는 음식점을 찾기 마련이다. 남녀노소를 불문하고 모두를 만족시킬 수 있는 메뉴들을 골고루 갖춘 "가람돌솥밥"은 19년 전통의 제주 향토음식점이다. 이곳은 제주산 전복과 농산물만을 사용하는 맛집으로, 1박 2일 등 방송에도 여러번 소개된 곳이다.다양한 전복요리를 비롯해, 해물돌솥밥과 해물뚝배기, 갈치조림과 제주 옥돔구이 등의 메뉴가 있으며, 단품으로도 주문할 수도 있고 상차림세트로도 주문할 수 있다는 장점이 있다. 3인 혹은 4인의 상차림 세트로 주문을 할 경우 갈치조림과 돌솥밥 또는 성게미역국, 옥돔구이와 전복회 등 제주바다에서 나오는 모든 요리를 함께 맛볼 수 있다. 이색적인 것은 테이블 위에 올려져 있는 마가린과 간장양념이다. 가람돌솥밥 관계자는 “돌솥밥에 마가린과 간장양념을 함께 비벼먹으면 풍미가 월등해 진다”고 말했다. ‘가람돌솥밥’은 시설면에서도 중문을 대표할 만한 맛집이다. 제주를 여행하다보면 카페 또는 식당에서 제공되는 정식 주차장이 없어 공용주차장이나 갓길 주차를 해야 하는 경우가 빈번하다. 하지만 "가람돌솥밥"은 식당 정면에 관광버스도 주차 가능한 대형 주차장을 완비하고 있다. 실내 역시 방문객의 필요에 따라 편안한 좌석을 선택할 수 있도록 입식, 좌식 테이블을 겸비하고 있다.오전 9시부터 영업하는 ‘가람돌솥밥’에서 든든하게 조식을 먹고 아름다운 제주를 여행해보는 것 또한 기분 좋은 여행이 될 수 있는 방법이다. 저작권자 © 공감신문 무단전재 및 재배포 금지 인터넷뉴스팀 news@gokorea.kr 다른기사 보기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 주요기사 [박상기의 재미있는 협상이야기] 바이든의 칩4 와 IRA가 촉발한, 한국 미국 협상총력전 치열한 카드 빅4 경쟁…앱 사용자 분포는? 하영제 의원, 사천·남해·하동 하반기 특별교부세 56억원 확정 최영희 “국민연금, ‘스튜어드십 코드’ 도입 이후 기업경영간섭 심각" 윤재갑 의원, 지역농협 비상임조합장 무제한 연임 제한 `농협법 개정안' 발의 '대세 걸그룹' 뉴진스, 신한은행 '뉴 쏠' 모델 발탁 당신만 안 본 뉴스 "너무 무서웠다" 돈스파이크 와이프 성하윤 두려움에 떨었던 이유는? '천원짜리 변호사' 김지은, 낯익다 했더니 ITZY 류진·한소희·손나은 닮은꼴 '마약 혐의' 돈스파이크 입건에 성하윤 프로필·직업·인스타 관심 [특징주] 오성첨단소재 주가 급등세… 이유는? '소상공인 손실보상 2분기' 신청 시작... 대상·신청 방법은? [내일날씨] 전국 흐리고 비내려...일부 돌풍에 천둥·번개까지 '확인 방법 이렇게' 상생소비복권 당첨자 30일 발표...지급일 언제? "너무 무서웠다" 돈스파이크 와이프 성하윤 두려움에 떨었던 이유는? 오늘공감 치열한 카드 빅4 경쟁…앱 사용자 분포는? '그림으로의 치유'…장수희 작가, 제8회 개인전 '노스텔지아' 개최 서울시교육청, 오는 28일까지 ‘빅데이터 활용 아이디어’ 공모 아빠의 무관심이 미덕(?)...초딩 아빠와 교장샘이 함께 춤을 추는 학교 한국화의 서태지 신동철 화백, 40회 개인전 ‘유몽고금(遊夢古今)’ 인기기사 1 [조봉현의 스타트업경제] 과거와 다른 高환율, 어디로 튈까? 2 조경태, "국민을 피해자로 만드는 '국회의원 면책특권' 폐지하라" 3 박수영 “국립대 교수 일가에게 놀아난 한전 자회사들…정부가 전수조사 해야" 4 유럽 출장길 오른 손태승 회장… UNEP FI 등과 국제협력 논의 5 외국인 고액 체납자 절반은 출국… 국세청 관리체계 구멍 6 대한민국 시·도의회의장협의회 김현기 회장, 제2회 중앙지방협력회의 참석 7 5년간 국민 1인당 세부담 300만원 늘어 8 양정숙 의원, "보험사, 은행, 정보보안·개인정보 보호 인증 안 받아" 9 김상훈 의원, 작년 국민 1인당 세금부담 1천199만원…2017년 이후 300만원 증가 10 4분기 제조업 '경기 악화' 전망 기업 ↑…“환율 상승에 원자재 비용 부담” 최신기사 [박상기의 재미있는 협상이야기] 바이든의 칩4 와 IRA가 촉발한, 한국 미국 협상총력전 치열한 카드 빅4 경쟁…앱 사용자 분포는? 하영제 의원, 사천·남해·하동 하반기 특별교부세 56억원 확정 최영희 “국민연금, ‘스튜어드십 코드’ 도입 이후 기업경영간섭 심각" 윤재갑 의원, 지역농협 비상임조합장 무제한 연임 제한 `농협법 개정안' 발의 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 영등포구 은행로 58. 1204호(삼도오피스텔) 대표전화 : 02-782-9872 팩스 : 02-783-1358 청소년보호책임자 : 이성철 법인명 : (주)공감신문 제호 : 공감신문 등록번호 : 서울 다 10955 등록일 : 2014-04-17 발행일 : 2017-05-01 대표이사 : 방성식·전규열 발행인 겸 편집인 : 전규열 공감신문 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 공감신문. All rights reserved. mail to news1@gokorea.kr 위로 전체메뉴 전체기사 입법공감 전체 종합 경제공감 전체 경제일반 금융/증권 산업/IT 종합 딥터뷰 칼럼공감 전체 칼럼 생활경제칼럼 박영철 편집고문 칼럼 오늘공감 전체 사회 생활·문화 인사/부고 종합 정치공감 전체 종합 이슈앤속보 최종현 학술원 자문위원 지역공감 전체메뉴닫기</t>
   </si>
   <si>
     <t>제주도 서귀포 중문관광단지 맛집 '기원뚝배기' 문어 해물 갈치조림, 옥돔구이 서비스로 가볼만한곳 - 월간원예 × 전체기사 포커스 전체 기획특집 피플 가든&amp;라이프 전체 공기정화식물 원예치료 한국의 꽃 플레이스 전체 과수 채소 화훼 네트워크 전체 우수센터 농촌을 이끄는 사람들 농촌진흥기관소식 Info 전체 식량원 Q&amp;A 해외원예 테크 마켓 비즈 전체 작물보호제 종자소개 농자재정보 목차 회사소개 원예News 동영상 일반 로그인 회원가입 모바일웹 UPDATED. 2022-09-20 18:04 (화) 기사검색 검색 포커스 플레이스 과수 채소 화훼 피플 테크 비즈 작물보호제 종자소개 농자재정보 마켓 네트워크 우수센터 농촌을 이끄는 사람들 농촌진흥기관소식 이전 다음 제주도 서귀포 중문관광단지 맛집 '기원뚝배기' 문어 해물 갈치조림, 옥돔구이 서비스로 가볼만한곳 페이스북 트위터 카카오스토리 카카오톡 기사공유하기 상태바 HOME 일반 제주도 서귀포 중문관광단지 맛집 '기원뚝배기' 문어 해물 갈치조림, 옥돔구이 서비스로 가볼만한곳 김영수 기자 승인 2019.05.10 10:14 댓글 0 페이스북 트위터 카카오스토리 카카오톡 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주의 절경을 감상하기에 자전거 일주만큼 좋은 것이 없다. 제주도 일주 자전거도로는 올해까지 조성되며, 해안을 따라 섬을 일주하는 거리는 약 240km이다. 지금도 자전거도로는 조성되어 있으며, 자전거도로가 없는 곳도 해안도로를 따라 자전거로 일주하기에 불편하지 않다. 자전거로 해안도로만 따라 돌면 일주거리는 240km 정도 되고 하루에 80~90km씩 달린다면 총 2박 3일 자전거 여행이 적당하다. 최근 봄을 맞아 자전거 일주를 위해 제주도를 찾는 이들이 부쩍 많아졌다. 여행은 역시 먹는 즐거움이 크다. 자전거 일주는 물론 올레길 걷기, 그리고 한라산 등반 등으로 지친 몸에 영양을 공급하기 위해 제주 맛집을 찾아 평소 육지에서 먹지 못했던 이색적인 요리를 먹는다면 여행은 더욱 즐거워진다. 제주도 서귀포 중문 맛집 '기원뚝배기'를 찾는 손님들은 제주산 해산물을 넣은 문어해물통갈치조림 요리를 많이 찾는다. 이 요리에는 제주 인근 바다에서 갓 잡은 싱싱한 통갈치와 함께 문어, 생전복, 새우 등이 들어가기 때문에 다양한 해산물을 한번에 맛볼 수 있다. 또한 한라산에서 자란 고사리가 들어가기 때문에 양념과 어우러진 고소한 고사리의 쫄깃한 식감까지 느낄 수 있다. 제주 맛집 ‘기원뚝배기’ 상호에 담긴 뜻은 ‘식당을 방문한 손님들이 맛있게 식사하고 건강하길 기원한다’는 업소 대표의 마음이 담겨 있다. 그래서 이 업소는 통갈치조림에 옥돔구이는 물론 성게국까지 서비스로 제공하여 손님들이 푸짐하게 식사할 수 있도록 하였다. 특히 통갈치조림정식 A세트에는 기본적으로 옥돔구이 1개 서비스와 성게국 3개가 제공되는데 이에 더해 추가로 옥돔구이와 성게국 1개씩을 더 제공하고 있다. 전라도의 정성을 가득 담은 밑반찬도 주목할 부분이다. 밑반찬에 사용되는 재료는 국내산이며, 매일 새벽 당일 사용할 밑반찬을 만들어 제공하며, 밑반찬 가운데 톳나물은 제주 해녀가 뜯어 말린 것을 사용하고 있다. 한편 제주도 맛집 기원뚝배기는 널찍한 전용 주차장이 있어 주차가 편리하며, 오전 6시부터 오후 10시까지 연중무휴로 영업하고 있고, 저녁 술자리 손님들을 위해 픽업 서비스(오후 7시~10시)도 제공하고 있다. 저작권자 © 월간원예 무단전재 및 재배포 금지 김영수 기자 다른기사 보기 페이스북 트위터 카카오스토리 카카오톡 기사공유하기 월간원예 소개 지난호보기 정기구독안내 광고안내 전문가상담코너 우리농촌책보내기운동 개인정보취급방침 청소년보호정책 이메일무단수집거부 서울특별시 금천구 디지털로9길 33 (IT미래TOWER) 1305호 대표전화 : 02-3474-7063~6 팩스 : 02-3471-7067 청소년보호책임자 : 이주상 법인명 : 월간원예 제호 : 월간원예 등록번호 : 서초 라 00086 등록일 : 1983-10-20 발행일 : 1983-10-20 발행·편집인 : 이주상 월간원예 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 월간원예. All rights reserved. mail to wonye@nongup.net 위로</t>
   </si>
   <si>
-    <t>제주도 천500여 명 인센티브 관광 유치 ::::: 기사 본문 바로가기 검색사이드메뉴바사이드메뉴바OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항 로그인 로그인검색 검색 로그인 로그인 사이드메뉴바 닫기OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항뉴스데스크제주도 천500여 명 인센티브 관광 유치 박주연2019년 05월 02일 21시 00분 24초 글자 크기 인쇄 페이스북에 공유트위터에 공유 카카오톡에 공유 제주도는 중국 익성한삼 코스메틱 직원 천500여 명의 인센티브 관광을 유치했다고 밝혔습니다. 인센티브 관광단은다음달 9일부터 4박5일간제주에 머물 예정입니다. 익성한삼 코스메틱은중국 길림집안시에 본사를 두고중국 내 12곳에 지사가 있는 회사입니다. 제주를 찾은 중국 인센티브 관광단은2천16년 20건에서 사드 사태 이후2천17년 2건, 지난해 5건으로 급감했습니다. 박주연jyp@jejumbc.com 최신 뉴스 뉴스투데이2022년 10월 04일 08시 13분 24초 탐라문화제 3년 만에 대면행사...10월 6일~10일2022년 10월 04일 07시 20분 00초 동료 해녀 살린 제주의용소방대원 전국대회 1위2022년 10월 04일 07시 20분 00초 현병찬 선생 제41회 세종문화상 수상자 선정2022년 10월 04일 07시 20분 00초 국토부, JDC 정원 28명 감축 추진2022년 10월 04일 07시 20분 00초 오늘 낮까지 '가을비'‥내일부터 기온 내려가 선선2022년 10월 04일 07시 20분 00초TK신공항 밀어주는데.. 가덕도는 조용2022년 10월 04일 07시 20분 00초연중기획-주민들이 주인공으로 등장(리포트)2022년 10월 04일 07시 20분 00초'사상검증 논란' 4.3 수형인 68명 오늘 선고2022년 10월 04일 07시 20분 00초4.3길 사실상 방치?2022년 10월 04일 07시 20분 00초제주도 천500여 명 인센티브 관광 유치 방송편성규약게시판 운영원칙광고안내프로그램 구입 안내지상파DMB개인정보취급방침이용약관이메일무단수집거부 MBC Family MBC경남 대구MBC 대전MBC 목포MBC 부산MBC MBC강원영동 안동MBC여수MBC 울산MBC 광주MBC 원주MBC 전주MBC 제주MBC MBC충북 춘천MBC 포항MBC MBC C&amp;I MBC아카데미 MBC ARTS MBC PLUS MBC AMERICA MBC PlayBe 꿈나무축구재단 MBCNET MBC나눔 iMBC 회사명 : 제주문화방송(주) | 대표자 : 이정식 | 제주특별자치도 제주시 문연로 35 (연동) 064-740-2114 팩스번호 : 064-746-9020 | 뉴스제보 : 064-740-2000ㅣ광고문의 : 064-740-2400© 2019. Jeju Munhwa Broadcasting Corp. All rights reserved. Copyright © Jeju Munhwa Broadcasting Corp. All rights reserved. OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항로그인 로그인</t>
-  </si>
-  <si>
-    <t>효리의단골집 제주도 중문 관광단지 맛집 갈치조림 먹기위해 전국에서 몰려 - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-03 오후 09:59:17 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
-  </si>
-  <si>
-    <t>제주도, 송당 농어촌관광휴양단지 지정 고시 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:30 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도, 송당 농어촌관광휴양단지 지정 고시 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 제주도, 송당 농어촌관광휴양단지 지정 고시 김지우 기자 승인 2019.05.08 15:24 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주시 구좌읍 송당리에 도내 6번째 농어촌관광휴양단지가 들어설 전망이다. 제주특별자치도는 8일 송당 농어촌관광휴양단지 지정을 고시했다. 이에 따라 송당 농어촌관광휴양단지는 앞으로 주민설명회와 환경영향평가 심의, 사전재해영향성 검토 협의, 제주도의회 동의, 개발사업시행 승인 등의 과정을 거치면 도내 6번째 농어촌관광휴양단지로 이름을 올리게 된다. 앞서 제주도는 지난달 5일 농업농촌 및 식품산업정책심의회를 개최하고 송당 농어촌관광휴양단지 조성사업 건에 대해 수정 가결 처리했다. 당시 심의회는 기숙사 규모 검토, 지역주민 상생 방안과 주차장 조성 계획 등에 대한 보완을 주문했다. 송당 농어촌관광휴양단지는 오는 2021년까지 제주시 구좌읍 송당리 산168번지 등 3필지에 6만7741㎡ 규모로 조성될 계획이다. 사업비 78억3400만원이 투입돼 농업전시시설과 학습관, 돌문화원, 다목적잔디마당, 지역특산물판매시설, 영농체험시설, 숙박시설 등을 구축하게 된다. 김지우 기자  jibregas@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 김지우 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>(제주특별자치도) 제주도와 경희대, 스마트관광 위해 힘 모은다 - 광명지역신문 UPDATE : 2022.10.4 화 09:26 기사검색 지방자치 경제·사회 사람과 사람 문화·복지 교육 사설·칼럼 오피니언 편집회의 홈으로로그인회원가입 RSS 전체기사보기 모바일웹 상단여백 이전 다음 로고 (제주특별자치도) 제주도와 경희대, 스마트관광 위해 힘 모은다 페이스북 트위터 구글 카카오스토리 메일 HOME 라이프 사회/일반 (제주특별자치도) 제주도와 경희대, 스마트관광 위해 힘 모은다 황준호 기자 승인 2019.05.20 19:37 댓글 0 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사(권장) 가나다라마바사 가나다라마바사 가나다라마바사 메일보내기 인쇄하기 페이스북 트위터 구글 카카오스토리 [광명지역신문=황준호 기자] 제주특별자치도는 지난 5월 17일 오후 경희대학교 스마트관광연구소와 업무협약을 체결했다.경희대학교 스마트관광연구소는 2013년 경희대학교 직속 연구소로 설립되어, 한국인터넷전자상거래학회 우수논문상 수상, 한국지식경영학회 우수논문상 수상 등 스마트관광 분야에서 선도적인 학문적 성과를 이룩한 바 있다.이번 협약을 통해 제주도는 경희대학교 스마트관광연구소가 축적해온 스마트 관광 분야 연구역량 바탕으로 정책적 시사점을 도출, 새로운 관광산업 패러다임 제시 및 경쟁력 제고 에 박차를 가할 수 있을 것으로 예상된다.노희섭 제주특별자치도 미래전략국장은 “관광분야에 빅데이터 분석을 접목한 정책수립의 중요성이 강조되고 있는 시점에 경희대학교 스마트관광연구소와 협약을 체결하게 되어 기쁘다.”면서 “이번 협약을 계기로 경희대학교의 연구 결과와 우리 도의 데이터 분석 역량을 접목하여 스마트 관광정책에 효과적으로 활용할 수 있을 것으로 기대한다.”고 밝혔다.한편 제주특별자치도는 올해 스마트 관광, 교통 등 도내 문제해결을 목적으로 하는 빅데이터 센터를 설립운영하는 등 지속적으로 빅데이터 활용 생태계 조성에 주력해 나갈 방침이다.(출처=제주특별자치도) 황준호 기자  webmaster@joygm.com​&lt;저작권자 © 광명지역신문, 무단 전재 및 재배포 금지&gt; 메일보내기 인쇄하기 트윗하기 황준호 기자의 다른기사 보기 기사 댓글 0개 전체보기 0/300 등록 첫번째 댓글을 남겨주세요. 여백 최근 많이 본 기사 1. 햇빛 안들면 못 짓는다...광명뉴타운 1,2구역 초등학교 무산2. 경기도 버스 노사협상 결렬시 30일부터 파업3. 이형덕 광명시의원 "골프연습장 추가 건립...복지와 수익 일석이조"4. 제34회 광명시민대상 수상자에 오정옥-엄진호-구필회 선정5. 안성환 광명시의장, 경기 중부권의장협의회 회장 선출6. KTX광명역 평화마라톤 대회 3년만에 열려...3,600명 참가7. 아파트값 앞자리가 바뀐다...지방광역시 평균 4억대 붕괴8. 혈세 꼼꼼하게...광명시의회, 결산검사 앞두고 이색 퍼포먼스9. 김정미 광명시의원, "지역화폐 국비 없어도 지금처럼"10. SDX탄소감축위원회-(주)한국에너지산업, 디지털 전환 탄소감축 MOU 여백 여백 여백 사람과 사람 ‘그것이 알고 싶다’ 대한민국의 코로나19 백신 상황 진단 및 해결해야 할 문제들 살핀다 [광명지역신문=이서진 기자] 코로나19 백신전쟁이 시작됐다.9일(오늘 토요일) 오후 방송되... 여백 여백 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 우)14239 경기도 광명시 철산로30번길 19, 308호 (철산동, 중앙시장)  |  대표전화 : 02-2611-7961  |  팩스 : 02-2611-7962 등록번호 : 경기도아00120  |  등록일 : 2007.09.06		  |  발행인·편집인 : 홍석우  |  청소년보호책임자 : 장성윤 광명지역신문의 모든 컨텐츠(기사)는 저작권법의 보호를 받습니다. 무단 전재·복사·배포 등을 금지합니다. Copyright © 2022 광명지역신문. All rights reserved.  webmaster@joygm.com Back to Top</t>
+    <t>제주도 천500여 명 인센티브 관광 유치 ::::: 기사 본문 바로가기 검색사이드메뉴바사이드메뉴바OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항 로그인 로그인검색 검색 로그인 로그인 사이드메뉴바 닫기OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항뉴스데스크제주도 천500여 명 인센티브 관광 유치 박주연2019년 05월 02일 21시 00분 24초 글자 크기 인쇄 페이스북에 공유트위터에 공유 카카오톡에 공유 제주도는 중국 익성한삼 코스메틱 직원 천500여 명의 인센티브 관광을 유치했다고 밝혔습니다. 인센티브 관광단은다음달 9일부터 4박5일간제주에 머물 예정입니다. 익성한삼 코스메틱은중국 길림집안시에 본사를 두고중국 내 12곳에 지사가 있는 회사입니다. 제주를 찾은 중국 인센티브 관광단은2천16년 20건에서 사드 사태 이후2천17년 2건, 지난해 5건으로 급감했습니다. 박주연jyp@jejumbc.com 최신 뉴스 뉴스투데이2022년 10월 11일 08시 31분 35초개교 100년 넘은 학교도 저출산으로 학생수 급감2022년 10월 11일 07시 20분 00초 고질체납차량·비과세 감면차량 일제 조사2022년 10월 11일 07시 20분 00초 홍해삼·전복 수산종자 91만 마리 방류2022년 10월 11일 07시 20분 00초휘발류보다 비싼 경유..디젤 차량 등록 첫 감소2022년 10월 11일 07시 20분 00초제주 해녀 10년 동안 1천200여 명 감소2022년 10월 11일 07시 20분 00초 오늘 맑고 찬바람 강해 쌀쌀‥내일 아침기온 뚝2022년 10월 11일 07시 20분 00초강원영동) 고향사랑기부금제 내년 도입2022년 10월 11일 07시 20분 00초(인터뷰)재일제주인 연구에 평생2022년 10월 11일 07시 20분 00초연중기획-마을공동체가 여행사업에 참여(리포트)2022년 10월 11일 07시 20분 00초제주도 천500여 명 인센티브 관광 유치 방송편성규약게시판 운영원칙광고안내프로그램 구입 안내지상파DMB개인정보취급방침이용약관이메일무단수집거부 MBC Family MBC경남 대구MBC 대전MBC 목포MBC 부산MBC MBC강원영동 안동MBC여수MBC 울산MBC 광주MBC 원주MBC 전주MBC 제주MBC MBC충북 춘천MBC 포항MBC MBC C&amp;I MBC아카데미 MBC ARTS MBC PLUS MBC AMERICA MBC PlayBe 꿈나무축구재단 MBCNET MBC나눔 iMBC 회사명 : 제주문화방송(주) | 대표자 : 이정식 | 제주특별자치도 제주시 문연로 35 (연동) 064-740-2114 팩스번호 : 064-746-9020 | 뉴스제보 : 064-740-2000ㅣ광고문의 : 064-740-2400© 2019. Jeju Munhwa Broadcasting Corp. All rights reserved. Copyright © Jeju Munhwa Broadcasting Corp. All rights reserved. OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항로그인 로그인</t>
+  </si>
+  <si>
+    <t>효리의단골집 제주도 중문 관광단지 맛집 갈치조림 먹기위해 전국에서 몰려 - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-10 오후 09:59:46 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t>제주도, 송당 농어촌관광휴양단지 지정 고시 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 13:05 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도, 송당 농어촌관광휴양단지 지정 고시 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 제주도, 송당 농어촌관광휴양단지 지정 고시 김지우 기자 승인 2019.05.08 15:24 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주시 구좌읍 송당리에 도내 6번째 농어촌관광휴양단지가 들어설 전망이다. 제주특별자치도는 8일 송당 농어촌관광휴양단지 지정을 고시했다. 이에 따라 송당 농어촌관광휴양단지는 앞으로 주민설명회와 환경영향평가 심의, 사전재해영향성 검토 협의, 제주도의회 동의, 개발사업시행 승인 등의 과정을 거치면 도내 6번째 농어촌관광휴양단지로 이름을 올리게 된다. 앞서 제주도는 지난달 5일 농업농촌 및 식품산업정책심의회를 개최하고 송당 농어촌관광휴양단지 조성사업 건에 대해 수정 가결 처리했다. 당시 심의회는 기숙사 규모 검토, 지역주민 상생 방안과 주차장 조성 계획 등에 대한 보완을 주문했다. 송당 농어촌관광휴양단지는 오는 2021년까지 제주시 구좌읍 송당리 산168번지 등 3필지에 6만7741㎡ 규모로 조성될 계획이다. 사업비 78억3400만원이 투입돼 농업전시시설과 학습관, 돌문화원, 다목적잔디마당, 지역특산물판매시설, 영농체험시설, 숙박시설 등을 구축하게 된다. 김지우 기자  jibregas@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 김지우 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>(제주특별자치도) 제주도와 경희대, 스마트관광 위해 힘 모은다 - 광명지역신문 UPDATE : 2022.10.11 화 12:44 기사검색 지방자치 경제·사회 사람과 사람 문화·복지 교육 사설·칼럼 오피니언 편집회의 홈으로로그인회원가입 RSS 전체기사보기 모바일웹 상단여백 이전 다음 로고 (제주특별자치도) 제주도와 경희대, 스마트관광 위해 힘 모은다 페이스북 트위터 구글 카카오스토리 메일 HOME 라이프 사회/일반 (제주특별자치도) 제주도와 경희대, 스마트관광 위해 힘 모은다 황준호 기자 승인 2019.05.20 19:37 댓글 0 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사(권장) 가나다라마바사 가나다라마바사 가나다라마바사 메일보내기 인쇄하기 페이스북 트위터 구글 카카오스토리 [광명지역신문=황준호 기자] 제주특별자치도는 지난 5월 17일 오후 경희대학교 스마트관광연구소와 업무협약을 체결했다.경희대학교 스마트관광연구소는 2013년 경희대학교 직속 연구소로 설립되어, 한국인터넷전자상거래학회 우수논문상 수상, 한국지식경영학회 우수논문상 수상 등 스마트관광 분야에서 선도적인 학문적 성과를 이룩한 바 있다.이번 협약을 통해 제주도는 경희대학교 스마트관광연구소가 축적해온 스마트 관광 분야 연구역량 바탕으로 정책적 시사점을 도출, 새로운 관광산업 패러다임 제시 및 경쟁력 제고 에 박차를 가할 수 있을 것으로 예상된다.노희섭 제주특별자치도 미래전략국장은 “관광분야에 빅데이터 분석을 접목한 정책수립의 중요성이 강조되고 있는 시점에 경희대학교 스마트관광연구소와 협약을 체결하게 되어 기쁘다.”면서 “이번 협약을 계기로 경희대학교의 연구 결과와 우리 도의 데이터 분석 역량을 접목하여 스마트 관광정책에 효과적으로 활용할 수 있을 것으로 기대한다.”고 밝혔다.한편 제주특별자치도는 올해 스마트 관광, 교통 등 도내 문제해결을 목적으로 하는 빅데이터 센터를 설립운영하는 등 지속적으로 빅데이터 활용 생태계 조성에 주력해 나갈 방침이다.(출처=제주특별자치도) 황준호 기자  webmaster@joygm.com​&lt;저작권자 © 광명지역신문, 무단 전재 및 재배포 금지&gt; 메일보내기 인쇄하기 트윗하기 황준호 기자의 다른기사 보기 기사 댓글 0개 전체보기 0/300 등록 첫번째 댓글을 남겨주세요. 여백 최근 많이 본 기사 1. 경기도 버스 노사협상 결렬시 30일부터 파업2. 이형덕 광명시의원 "골프연습장 추가 건립...복지와 수익 일석이조"3. 임오경 의원, 행안부 특별교부세 7억원 확보4. 양기대 의원, "이스타항공 채용청탁 사실무근...윤창현은 의원직 걸어라"5. 김정미 광명시의원, "지역화폐 국비 없어도 지금처럼"6. 혈세 꼼꼼하게...광명시의회, 결산검사 앞두고 이색 퍼포먼스7. 임오경 의원 "골목상권 절규 안 들리나? 지역화폐 예산 재편성하라"8. 광명 다세대주택 불...사다리차로 이웃 구조9. 양기대 의원, 행안부 특별교부금 7억원 확보10. 광명, '제1회 선배시민 페스티벌' 10월 4일 개최 여백 여백 여백 사람과 사람 ‘그것이 알고 싶다’ 대한민국의 코로나19 백신 상황 진단 및 해결해야 할 문제들 살핀다 [광명지역신문=이서진 기자] 코로나19 백신전쟁이 시작됐다.9일(오늘 토요일) 오후 방송되... 여백 여백 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 우)14239 경기도 광명시 철산로30번길 19, 308호 (철산동, 중앙시장)  |  대표전화 : 02-2611-7961  |  팩스 : 02-2611-7962 등록번호 : 경기도아00120  |  등록일 : 2007.09.06		  |  발행인·편집인 : 홍석우  |  청소년보호책임자 : 장성윤 광명지역신문의 모든 컨텐츠(기사)는 저작권법의 보호를 받습니다. 무단 전재·복사·배포 등을 금지합니다. Copyright © 2022 광명지역신문. All rights reserved.  webmaster@joygm.com Back to Top</t>
   </si>
 </sst>
 </file>
@@ -431,7 +701,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,7 +723,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -464,7 +734,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -475,7 +745,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -486,7 +756,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -496,6 +766,9 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
@@ -513,7 +786,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -524,7 +797,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -535,7 +808,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -546,7 +819,542 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
         <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
